--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/90/Output_3_32.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/90/Output_3_32.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1932629.621007953</v>
+        <v>2024850.226631877</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>13251674.51004885</v>
+        <v>11843801.51954496</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2065046.857558489</v>
+        <v>612367.9462114755</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>6241464.304673323</v>
+        <v>6674943.845089828</v>
       </c>
     </row>
     <row r="11">
@@ -656,25 +658,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>15.64988064861473</v>
+        <v>191.5492511128313</v>
       </c>
       <c r="C2" t="n">
         <v>22.63172268683286</v>
       </c>
       <c r="D2" t="n">
-        <v>19.05969460684969</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E2" t="n">
-        <v>421.717170453621</v>
+        <v>21.71717045362101</v>
       </c>
       <c r="F2" t="n">
-        <v>420.8729399924937</v>
+        <v>20.87293999249374</v>
       </c>
       <c r="G2" t="n">
         <v>0.2956717864458369</v>
       </c>
       <c r="H2" t="n">
-        <v>294.8896947407055</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -707,10 +709,10 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>58.85436864659777</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -725,7 +727,7 @@
         <v>407.6027988439302</v>
       </c>
       <c r="Y2" t="n">
-        <v>1.283897344658556</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="3">
@@ -817,7 +819,7 @@
         <v>188.264309024945</v>
       </c>
       <c r="C4" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -835,7 +837,7 @@
         <v>142.3583058069271</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>26.27203626161279</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -865,19 +867,19 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U4" t="n">
-        <v>214.9384943962066</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V4" t="n">
         <v>278.8943527180514</v>
       </c>
       <c r="W4" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -893,16 +895,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>15.64988064861473</v>
+        <v>209.3736411146139</v>
       </c>
       <c r="C5" t="n">
         <v>422.6317226868329</v>
       </c>
       <c r="D5" t="n">
-        <v>19.05969460684969</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E5" t="n">
-        <v>21.71717045362101</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F5" t="n">
         <v>20.87293999249374</v>
@@ -911,7 +913,7 @@
         <v>0.2956717864458369</v>
       </c>
       <c r="H5" t="n">
-        <v>284.4368486020682</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -947,22 +949,22 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V5" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>407.6027988439302</v>
+        <v>7.602798843930202</v>
       </c>
       <c r="Y5" t="n">
-        <v>1.283897344658556</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="6">
@@ -1051,28 +1053,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C7" t="n">
-        <v>146.7373013332751</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I7" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1108,10 +1110,10 @@
         <v>240.905954296359</v>
       </c>
       <c r="U7" t="n">
-        <v>277.3826040146988</v>
+        <v>139.2743593969449</v>
       </c>
       <c r="V7" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>272.1038797892121</v>
@@ -1139,7 +1141,7 @@
         <v>419.0596946068497</v>
       </c>
       <c r="E8" t="n">
-        <v>21.71717045362101</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F8" t="n">
         <v>20.87293999249374</v>
@@ -1148,7 +1150,7 @@
         <v>0.2956717864458369</v>
       </c>
       <c r="H8" t="n">
-        <v>57.06768457289442</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1187,19 +1189,19 @@
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>7.602798843930202</v>
       </c>
       <c r="Y8" t="n">
-        <v>401.2838973446586</v>
+        <v>195.0076578106576</v>
       </c>
     </row>
     <row r="9">
@@ -1288,22 +1290,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>117.2403706484458</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>170.2528374898731</v>
+        <v>106.0606729676879</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E10" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>142.3583058069271</v>
@@ -1348,13 +1350,13 @@
         <v>277.3826040146988</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W10" t="n">
         <v>272.1038797892121</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y10" t="n">
         <v>224.0793406271554</v>
@@ -1367,7 +1369,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>415.6498806486148</v>
       </c>
       <c r="C11" t="n">
         <v>422.6317226868329</v>
@@ -1376,19 +1378,19 @@
         <v>419.0596946068497</v>
       </c>
       <c r="E11" t="n">
-        <v>421.717170453621</v>
+        <v>421.7171704536211</v>
       </c>
       <c r="F11" t="n">
-        <v>420.8729399924937</v>
+        <v>420.8729399924938</v>
       </c>
       <c r="G11" t="n">
-        <v>400.2956717864458</v>
+        <v>400.2956717864459</v>
       </c>
       <c r="H11" t="n">
-        <v>253.1236860265571</v>
+        <v>294.8896947407051</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>34.54790254396425</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,25 +1420,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>255.7713603095519</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>353.9145207250131</v>
       </c>
       <c r="W11" t="n">
         <v>392.4274362026566</v>
       </c>
       <c r="X11" t="n">
-        <v>407.6027988439302</v>
+        <v>407.6027988439303</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="12">
@@ -1604,7 +1606,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>415.6498806486148</v>
       </c>
       <c r="C14" t="n">
         <v>422.6317226868329</v>
@@ -1613,19 +1615,19 @@
         <v>419.0596946068497</v>
       </c>
       <c r="E14" t="n">
-        <v>421.717170453621</v>
+        <v>421.7171704536211</v>
       </c>
       <c r="F14" t="n">
-        <v>420.8729399924937</v>
+        <v>420.8729399924938</v>
       </c>
       <c r="G14" t="n">
         <v>400.2956717864458</v>
       </c>
       <c r="H14" t="n">
-        <v>294.8896947407055</v>
+        <v>294.8896947407056</v>
       </c>
       <c r="I14" t="n">
-        <v>34.5479025439635</v>
+        <v>34.54790254396338</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1661,19 +1663,19 @@
         <v>218.7163152458132</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>255.7713603095519</v>
       </c>
       <c r="V14" t="n">
-        <v>9.248951154414184</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W14" t="n">
-        <v>392.4274362026566</v>
+        <v>392.4274362026574</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>407.6027988439303</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="15">
@@ -1810,13 +1812,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T16" t="n">
-        <v>33.7994086908846</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U16" t="n">
         <v>277.3826040146988</v>
@@ -1825,13 +1827,13 @@
         <v>278.8943527180514</v>
       </c>
       <c r="W16" t="n">
-        <v>272.1038797892121</v>
+        <v>74.07475062513829</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1853,7 +1855,7 @@
         <v>421.717170453621</v>
       </c>
       <c r="F17" t="n">
-        <v>420.8729399924937</v>
+        <v>420.8729399924936</v>
       </c>
       <c r="G17" t="n">
         <v>400.2956717864458</v>
@@ -1898,13 +1900,13 @@
         <v>218.7163152458132</v>
       </c>
       <c r="U17" t="n">
-        <v>255.7713603095518</v>
+        <v>255.7713603095526</v>
       </c>
       <c r="V17" t="n">
         <v>353.914520725013</v>
       </c>
       <c r="W17" t="n">
-        <v>392.4274362026577</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X17" t="n">
         <v>407.6027988439302</v>
@@ -1999,7 +2001,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>144.7284958494691</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C19" t="n">
         <v>170.2528374898731</v>
@@ -2017,7 +2019,7 @@
         <v>164.5944000087102</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>26.6495006022655</v>
       </c>
       <c r="I19" t="n">
         <v>98.77088257712678</v>
@@ -2047,28 +2049,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>277.3826040146988</v>
       </c>
       <c r="V19" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X19" t="n">
         <v>240.1382575886529</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="20">
@@ -2135,7 +2137,7 @@
         <v>218.7163152458132</v>
       </c>
       <c r="U20" t="n">
-        <v>255.7713603095518</v>
+        <v>255.771360309553</v>
       </c>
       <c r="V20" t="n">
         <v>353.914520725013</v>
@@ -2239,25 +2241,25 @@
         <v>188.264309024945</v>
       </c>
       <c r="C22" t="n">
-        <v>116.5538576362433</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E22" t="n">
-        <v>164.546123788675</v>
+        <v>104.9037564455521</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,13 +2286,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U22" t="n">
         <v>277.3826040146988</v>
@@ -2305,7 +2307,7 @@
         <v>240.1382575886529</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="23">
@@ -2488,7 +2490,7 @@
         <v>170.1431564831852</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H25" t="n">
         <v>142.3583058069271</v>
@@ -2524,19 +2526,19 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>108.3150987014989</v>
       </c>
       <c r="T25" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>38.7940173426897</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W25" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>240.1382575886529</v>
@@ -2710,13 +2712,13 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>170.2528374898731</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -2728,10 +2730,10 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,10 +2760,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>240.905954296359</v>
@@ -2773,13 +2775,13 @@
         <v>278.8943527180514</v>
       </c>
       <c r="W28" t="n">
-        <v>153.5461607103213</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X28" t="n">
         <v>240.1382575886529</v>
       </c>
       <c r="Y28" t="n">
-        <v>224.0793406271554</v>
+        <v>105.9750612304132</v>
       </c>
     </row>
     <row r="29">
@@ -2947,7 +2949,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>188.264309024945</v>
+        <v>78.16614128474215</v>
       </c>
       <c r="C31" t="n">
         <v>170.2528374898731</v>
@@ -2959,10 +2961,10 @@
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -2995,13 +2997,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S31" t="n">
-        <v>11.07215425001585</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U31" t="n">
         <v>277.3826040146988</v>
@@ -3190,7 +3192,7 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D34" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>164.546123788675</v>
@@ -3202,7 +3204,7 @@
         <v>164.5944000087102</v>
       </c>
       <c r="H34" t="n">
-        <v>78.08445929198751</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3235,7 +3237,7 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T34" t="n">
         <v>240.905954296359</v>
@@ -3244,16 +3246,16 @@
         <v>277.3826040146988</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W34" t="n">
-        <v>272.1038797892121</v>
+        <v>146.2649293218177</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -3421,7 +3423,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>175.946093066468</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C37" t="n">
         <v>170.2528374898731</v>
@@ -3430,19 +3432,19 @@
         <v>161.683605144497</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H37" t="n">
         <v>142.3583058069271</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3478,13 +3480,13 @@
         <v>240.905954296359</v>
       </c>
       <c r="U37" t="n">
-        <v>277.3826040146988</v>
+        <v>218.0080577057878</v>
       </c>
       <c r="V37" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -3658,7 +3660,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C40" t="n">
         <v>170.2528374898731</v>
@@ -3706,19 +3708,19 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>277.3826040146988</v>
+        <v>106.858786719141</v>
       </c>
       <c r="V40" t="n">
-        <v>81.63292026168386</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W40" t="n">
         <v>272.1038797892121</v>
@@ -3740,13 +3742,13 @@
         <v>415.6498806486147</v>
       </c>
       <c r="C41" t="n">
-        <v>133.6687859879138</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D41" t="n">
         <v>419.0596946068497</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F41" t="n">
         <v>420.8729399924937</v>
@@ -3788,16 +3790,16 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>103.3236211855919</v>
       </c>
       <c r="T41" t="n">
         <v>218.7163152458132</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W41" t="n">
         <v>392.4274362026566</v>
@@ -3806,7 +3808,7 @@
         <v>407.6027988439302</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="42">
@@ -3895,28 +3897,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>147.947241019392</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C43" t="n">
         <v>170.2528374898731</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E43" t="n">
         <v>164.546123788675</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H43" t="n">
         <v>142.3583058069271</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3952,13 +3954,13 @@
         <v>240.905954296359</v>
       </c>
       <c r="U43" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>272.1038797892121</v>
+        <v>192.8717243028901</v>
       </c>
       <c r="X43" t="n">
         <v>240.1382575886529</v>
@@ -3974,7 +3976,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C44" t="n">
         <v>422.6317226868329</v>
@@ -3989,13 +3991,13 @@
         <v>420.8729399924937</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H44" t="n">
-        <v>294.8896947407055</v>
+        <v>294.8896947407063</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4025,13 +4027,13 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V44" t="n">
         <v>353.914520725013</v>
@@ -4043,7 +4045,7 @@
         <v>407.6027988439302</v>
       </c>
       <c r="Y44" t="n">
-        <v>4.615142347284705</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="45">
@@ -4138,22 +4140,22 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D46" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F46" t="n">
-        <v>142.6689207795495</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4192,10 +4194,10 @@
         <v>277.3826040146988</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W46" t="n">
-        <v>272.1038797892121</v>
+        <v>204.0019611074012</v>
       </c>
       <c r="X46" t="n">
         <v>240.1382575886529</v>
@@ -4304,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1235.878926328994</v>
+        <v>528.1740540056944</v>
       </c>
       <c r="C2" t="n">
-        <v>1213.018600382698</v>
+        <v>505.3137280593986</v>
       </c>
       <c r="D2" t="n">
-        <v>1193.766383608102</v>
+        <v>82.02110724439886</v>
       </c>
       <c r="E2" t="n">
-        <v>767.7894437559598</v>
+        <v>60.08457143266047</v>
       </c>
       <c r="F2" t="n">
-        <v>342.66526194536</v>
+        <v>39.00079366246477</v>
       </c>
       <c r="G2" t="n">
-        <v>342.3666035752127</v>
+        <v>38.70213529231746</v>
       </c>
       <c r="H2" t="n">
-        <v>44.49822504924753</v>
+        <v>38.70213529231746</v>
       </c>
       <c r="I2" t="n">
-        <v>44.49822504924753</v>
+        <v>38.70213529231746</v>
       </c>
       <c r="J2" t="n">
-        <v>44.49822504924753</v>
+        <v>38.70213529231746</v>
       </c>
       <c r="K2" t="n">
-        <v>455.3583126271592</v>
+        <v>517.641059534746</v>
       </c>
       <c r="L2" t="n">
-        <v>455.3583126271592</v>
+        <v>996.5799837771744</v>
       </c>
       <c r="M2" t="n">
-        <v>1006.023847611597</v>
+        <v>1475.518908019603</v>
       </c>
       <c r="N2" t="n">
-        <v>1556.689382596036</v>
+        <v>1935.106764615873</v>
       </c>
       <c r="O2" t="n">
-        <v>2107.354917580474</v>
+        <v>1935.106764615873</v>
       </c>
       <c r="P2" t="n">
-        <v>2107.354917580474</v>
+        <v>1935.106764615873</v>
       </c>
       <c r="Q2" t="n">
-        <v>2107.354917580474</v>
+        <v>1935.106764615873</v>
       </c>
       <c r="R2" t="n">
-        <v>2224.911252462377</v>
+        <v>1935.106764615873</v>
       </c>
       <c r="S2" t="n">
-        <v>2120.543958335517</v>
+        <v>1935.106764615873</v>
       </c>
       <c r="T2" t="n">
-        <v>2061.095101116731</v>
+        <v>1935.106764615873</v>
       </c>
       <c r="U2" t="n">
-        <v>2061.095101116731</v>
+        <v>1935.106764615873</v>
       </c>
       <c r="V2" t="n">
-        <v>2061.095101116731</v>
+        <v>1935.106764615873</v>
       </c>
       <c r="W2" t="n">
-        <v>1664.703751417078</v>
+        <v>1538.71541491622</v>
       </c>
       <c r="X2" t="n">
-        <v>1252.983752584825</v>
+        <v>1126.995416083967</v>
       </c>
       <c r="Y2" t="n">
-        <v>1251.68688658012</v>
+        <v>721.6581460388574</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>611.6217160807028</v>
+        <v>693.5426250668182</v>
       </c>
       <c r="C3" t="n">
-        <v>494.1158125982075</v>
+        <v>576.036721584323</v>
       </c>
       <c r="D3" t="n">
-        <v>390.2758541134926</v>
+        <v>472.196763099608</v>
       </c>
       <c r="E3" t="n">
-        <v>285.5739203864298</v>
+        <v>367.4948293725452</v>
       </c>
       <c r="F3" t="n">
-        <v>191.928090069334</v>
+        <v>273.8489990554494</v>
       </c>
       <c r="G3" t="n">
-        <v>97.87431828693795</v>
+        <v>179.7952272730534</v>
       </c>
       <c r="H3" t="n">
-        <v>44.49822504924753</v>
+        <v>126.419134035363</v>
       </c>
       <c r="I3" t="n">
-        <v>44.49822504924753</v>
+        <v>126.419134035363</v>
       </c>
       <c r="J3" t="n">
-        <v>44.49822504924753</v>
+        <v>126.419134035363</v>
       </c>
       <c r="K3" t="n">
-        <v>44.49822504924753</v>
+        <v>605.3580582777915</v>
       </c>
       <c r="L3" t="n">
-        <v>595.1637600336857</v>
+        <v>605.3580582777915</v>
       </c>
       <c r="M3" t="n">
-        <v>1145.829295018124</v>
+        <v>1084.29698252022</v>
       </c>
       <c r="N3" t="n">
-        <v>1696.494830002562</v>
+        <v>1563.235906762649</v>
       </c>
       <c r="O3" t="n">
-        <v>1696.494830002562</v>
+        <v>1563.235906762649</v>
       </c>
       <c r="P3" t="n">
-        <v>1853.185855629757</v>
+        <v>1935.106764615873</v>
       </c>
       <c r="Q3" t="n">
-        <v>1853.185855629757</v>
+        <v>1935.106764615873</v>
       </c>
       <c r="R3" t="n">
-        <v>1853.185855629757</v>
+        <v>1935.106764615873</v>
       </c>
       <c r="S3" t="n">
-        <v>1771.861608191012</v>
+        <v>1853.782517177127</v>
       </c>
       <c r="T3" t="n">
-        <v>1629.98167248869</v>
+        <v>1711.902581474806</v>
       </c>
       <c r="U3" t="n">
-        <v>1445.213476408327</v>
+        <v>1527.134385394442</v>
       </c>
       <c r="V3" t="n">
-        <v>1240.240337547593</v>
+        <v>1322.161246533708</v>
       </c>
       <c r="W3" t="n">
-        <v>1043.71896038081</v>
+        <v>1125.639869366926</v>
       </c>
       <c r="X3" t="n">
-        <v>880.2416141474731</v>
+        <v>962.1625231335886</v>
       </c>
       <c r="Y3" t="n">
-        <v>740.5487255007655</v>
+        <v>822.469634486881</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>864.5940064405311</v>
+        <v>713.3627639277825</v>
       </c>
       <c r="C4" t="n">
-        <v>692.6214433194471</v>
+        <v>713.3627639277825</v>
       </c>
       <c r="D4" t="n">
-        <v>692.6214433194471</v>
+        <v>713.3627639277825</v>
       </c>
       <c r="E4" t="n">
-        <v>526.4132374723006</v>
+        <v>547.154558080636</v>
       </c>
       <c r="F4" t="n">
-        <v>354.551463246861</v>
+        <v>375.2927838551964</v>
       </c>
       <c r="G4" t="n">
-        <v>188.2944935410931</v>
+        <v>209.0358141494285</v>
       </c>
       <c r="H4" t="n">
-        <v>44.49822504924753</v>
+        <v>65.23954565758291</v>
       </c>
       <c r="I4" t="n">
-        <v>44.49822504924753</v>
+        <v>38.70213529231746</v>
       </c>
       <c r="J4" t="n">
-        <v>101.9895532734058</v>
+        <v>38.70213529231746</v>
       </c>
       <c r="K4" t="n">
-        <v>328.5171544792431</v>
+        <v>38.7126666327394</v>
       </c>
       <c r="L4" t="n">
-        <v>683.2064757736639</v>
+        <v>393.4019879271602</v>
       </c>
       <c r="M4" t="n">
-        <v>1074.392270743915</v>
+        <v>784.587782897411</v>
       </c>
       <c r="N4" t="n">
-        <v>1451.88378161995</v>
+        <v>1162.079293773447</v>
       </c>
       <c r="O4" t="n">
-        <v>1807.311910299714</v>
+        <v>1517.50742245321</v>
       </c>
       <c r="P4" t="n">
-        <v>2097.911122221615</v>
+        <v>1808.106634375111</v>
       </c>
       <c r="Q4" t="n">
-        <v>2224.911252462377</v>
+        <v>1935.106764615873</v>
       </c>
       <c r="R4" t="n">
-        <v>2224.911252462377</v>
+        <v>1935.106764615873</v>
       </c>
       <c r="S4" t="n">
-        <v>2054.776204981511</v>
+        <v>1935.106764615873</v>
       </c>
       <c r="T4" t="n">
-        <v>2054.776204981511</v>
+        <v>1691.767416841773</v>
       </c>
       <c r="U4" t="n">
-        <v>1837.666614682313</v>
+        <v>1411.582968342077</v>
       </c>
       <c r="V4" t="n">
-        <v>1555.955147290342</v>
+        <v>1129.871500950106</v>
       </c>
       <c r="W4" t="n">
-        <v>1281.102743462855</v>
+        <v>1129.871500950106</v>
       </c>
       <c r="X4" t="n">
-        <v>1281.102743462855</v>
+        <v>1129.871500950106</v>
       </c>
       <c r="Y4" t="n">
-        <v>1054.759975152597</v>
+        <v>903.5287326398482</v>
       </c>
     </row>
     <row r="5">
@@ -4541,22 +4543,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>821.2800918455217</v>
+        <v>1342.050951843433</v>
       </c>
       <c r="C5" t="n">
-        <v>394.3793618588218</v>
+        <v>915.1502218567327</v>
       </c>
       <c r="D5" t="n">
-        <v>375.1271450842262</v>
+        <v>491.857601041733</v>
       </c>
       <c r="E5" t="n">
-        <v>353.1906092724878</v>
+        <v>65.88066118959054</v>
       </c>
       <c r="F5" t="n">
-        <v>332.1068315022921</v>
+        <v>44.79688341939484</v>
       </c>
       <c r="G5" t="n">
-        <v>331.8081731321448</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="H5" t="n">
         <v>44.49822504924753</v>
@@ -4568,25 +4570,25 @@
         <v>407.101683866143</v>
       </c>
       <c r="K5" t="n">
-        <v>407.101683866143</v>
+        <v>957.7672188505812</v>
       </c>
       <c r="L5" t="n">
-        <v>957.7672188505812</v>
+        <v>1006.023847611597</v>
       </c>
       <c r="M5" t="n">
-        <v>1123.5801824935</v>
+        <v>1556.689382596036</v>
       </c>
       <c r="N5" t="n">
-        <v>1674.245717477938</v>
+        <v>2107.354917580474</v>
       </c>
       <c r="O5" t="n">
-        <v>2224.911252462377</v>
+        <v>2107.354917580474</v>
       </c>
       <c r="P5" t="n">
-        <v>2224.911252462377</v>
+        <v>2107.354917580474</v>
       </c>
       <c r="Q5" t="n">
-        <v>2224.911252462377</v>
+        <v>2107.354917580474</v>
       </c>
       <c r="R5" t="n">
         <v>2224.911252462377</v>
@@ -4595,22 +4597,22 @@
         <v>2224.911252462377</v>
       </c>
       <c r="T5" t="n">
-        <v>2003.98568150701</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="U5" t="n">
-        <v>2003.98568150701</v>
+        <v>1966.556343058789</v>
       </c>
       <c r="V5" t="n">
-        <v>1646.496266633259</v>
+        <v>1966.556343058789</v>
       </c>
       <c r="W5" t="n">
-        <v>1250.104916933606</v>
+        <v>1966.556343058789</v>
       </c>
       <c r="X5" t="n">
-        <v>838.3849181013534</v>
+        <v>1958.87674826694</v>
       </c>
       <c r="Y5" t="n">
-        <v>837.0880520966477</v>
+        <v>1553.53947822183</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>611.6217160807028</v>
+        <v>983.3471129133217</v>
       </c>
       <c r="C6" t="n">
-        <v>494.1158125982075</v>
+        <v>865.8412094308264</v>
       </c>
       <c r="D6" t="n">
-        <v>390.2758541134926</v>
+        <v>762.0012509461114</v>
       </c>
       <c r="E6" t="n">
-        <v>285.5739203864298</v>
+        <v>657.2993172190487</v>
       </c>
       <c r="F6" t="n">
-        <v>191.928090069334</v>
+        <v>563.6534869019529</v>
       </c>
       <c r="G6" t="n">
-        <v>97.87431828693795</v>
+        <v>469.5997151195569</v>
       </c>
       <c r="H6" t="n">
-        <v>44.49822504924753</v>
+        <v>416.2236218818665</v>
       </c>
       <c r="I6" t="n">
-        <v>51.94486801115937</v>
+        <v>423.6702648437783</v>
       </c>
       <c r="J6" t="n">
-        <v>323.6423572907505</v>
+        <v>423.6702648437783</v>
       </c>
       <c r="K6" t="n">
-        <v>874.3078922751886</v>
+        <v>974.3357998282165</v>
       </c>
       <c r="L6" t="n">
-        <v>1424.973427259627</v>
+        <v>974.3357998282165</v>
       </c>
       <c r="M6" t="n">
-        <v>1424.973427259627</v>
+        <v>1128.080930530456</v>
       </c>
       <c r="N6" t="n">
-        <v>1424.973427259627</v>
+        <v>1128.080930530456</v>
       </c>
       <c r="O6" t="n">
-        <v>1424.973427259627</v>
+        <v>1128.080930530456</v>
       </c>
       <c r="P6" t="n">
-        <v>1853.185855629757</v>
+        <v>1678.746465514894</v>
       </c>
       <c r="Q6" t="n">
-        <v>1853.185855629757</v>
+        <v>2142.891942377673</v>
       </c>
       <c r="R6" t="n">
-        <v>1853.185855629757</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="S6" t="n">
-        <v>1771.861608191012</v>
+        <v>2143.587005023631</v>
       </c>
       <c r="T6" t="n">
-        <v>1629.98167248869</v>
+        <v>2001.707069321309</v>
       </c>
       <c r="U6" t="n">
-        <v>1445.213476408327</v>
+        <v>1816.938873240946</v>
       </c>
       <c r="V6" t="n">
-        <v>1240.240337547593</v>
+        <v>1611.965734380212</v>
       </c>
       <c r="W6" t="n">
-        <v>1043.71896038081</v>
+        <v>1415.444357213429</v>
       </c>
       <c r="X6" t="n">
-        <v>880.2416141474731</v>
+        <v>1251.967010980092</v>
       </c>
       <c r="Y6" t="n">
-        <v>740.5487255007655</v>
+        <v>1112.274122333384</v>
       </c>
     </row>
     <row r="7">
@@ -4699,25 +4701,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>458.7432593109769</v>
+        <v>689.792035382553</v>
       </c>
       <c r="C7" t="n">
-        <v>310.5237630147394</v>
+        <v>517.8194722614689</v>
       </c>
       <c r="D7" t="n">
-        <v>310.5237630147394</v>
+        <v>354.5026993882396</v>
       </c>
       <c r="E7" t="n">
-        <v>310.5237630147394</v>
+        <v>188.2944935410931</v>
       </c>
       <c r="F7" t="n">
-        <v>310.5237630147394</v>
+        <v>188.2944935410931</v>
       </c>
       <c r="G7" t="n">
-        <v>144.2667933089716</v>
+        <v>188.2944935410931</v>
       </c>
       <c r="H7" t="n">
-        <v>144.2667933089716</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I7" t="n">
         <v>44.49822504924753</v>
@@ -4756,19 +4758,19 @@
         <v>1764.398243894584</v>
       </c>
       <c r="U7" t="n">
-        <v>1484.213795394888</v>
+        <v>1623.717072786558</v>
       </c>
       <c r="V7" t="n">
-        <v>1202.502328002917</v>
+        <v>1623.717072786558</v>
       </c>
       <c r="W7" t="n">
-        <v>927.6499241754298</v>
+        <v>1348.864668959071</v>
       </c>
       <c r="X7" t="n">
-        <v>685.0860276212348</v>
+        <v>1106.300772404877</v>
       </c>
       <c r="Y7" t="n">
-        <v>458.7432593109769</v>
+        <v>879.9580040946187</v>
       </c>
     </row>
     <row r="8">
@@ -4778,22 +4780,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>995.654673634235</v>
+        <v>1342.050951843433</v>
       </c>
       <c r="C8" t="n">
-        <v>568.7539436475352</v>
+        <v>915.1502218567327</v>
       </c>
       <c r="D8" t="n">
-        <v>145.4613228325354</v>
+        <v>491.857601041733</v>
       </c>
       <c r="E8" t="n">
-        <v>123.524787020797</v>
+        <v>65.88066118959054</v>
       </c>
       <c r="F8" t="n">
-        <v>102.4410092506013</v>
+        <v>44.79688341939484</v>
       </c>
       <c r="G8" t="n">
-        <v>102.142350880454</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="H8" t="n">
         <v>44.49822504924753</v>
@@ -4802,16 +4804,16 @@
         <v>44.49822504924753</v>
       </c>
       <c r="J8" t="n">
-        <v>407.101683866143</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="K8" t="n">
-        <v>957.7672188505812</v>
+        <v>595.1637600336857</v>
       </c>
       <c r="L8" t="n">
-        <v>1508.432753835019</v>
+        <v>1006.023847611597</v>
       </c>
       <c r="M8" t="n">
-        <v>1508.432753835019</v>
+        <v>1006.023847611597</v>
       </c>
       <c r="N8" t="n">
         <v>1556.689382596036</v>
@@ -4835,19 +4837,19 @@
         <v>2224.911252462377</v>
       </c>
       <c r="U8" t="n">
-        <v>2224.911252462377</v>
+        <v>1966.556343058789</v>
       </c>
       <c r="V8" t="n">
-        <v>2224.911252462377</v>
+        <v>1966.556343058789</v>
       </c>
       <c r="W8" t="n">
-        <v>1828.519902762723</v>
+        <v>1966.556343058789</v>
       </c>
       <c r="X8" t="n">
-        <v>1820.840307970875</v>
+        <v>1958.87674826694</v>
       </c>
       <c r="Y8" t="n">
-        <v>1415.503037925765</v>
+        <v>1761.899316134963</v>
       </c>
     </row>
     <row r="9">
@@ -4881,28 +4883,28 @@
         <v>44.49822504924753</v>
       </c>
       <c r="J9" t="n">
-        <v>316.1957143288386</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="K9" t="n">
-        <v>866.8612493132769</v>
+        <v>595.1637600336857</v>
       </c>
       <c r="L9" t="n">
-        <v>866.8612493132769</v>
+        <v>756.3555336978366</v>
       </c>
       <c r="M9" t="n">
-        <v>866.8612493132769</v>
+        <v>756.3555336978366</v>
       </c>
       <c r="N9" t="n">
-        <v>1389.040378766978</v>
+        <v>756.3555336978366</v>
       </c>
       <c r="O9" t="n">
-        <v>1389.040378766978</v>
+        <v>756.3555336978366</v>
       </c>
       <c r="P9" t="n">
-        <v>1389.040378766978</v>
+        <v>1307.021068682275</v>
       </c>
       <c r="Q9" t="n">
-        <v>1853.185855629757</v>
+        <v>1771.166545545054</v>
       </c>
       <c r="R9" t="n">
         <v>1853.185855629757</v>
@@ -4936,19 +4938,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>864.5940064405311</v>
+        <v>458.7432593109769</v>
       </c>
       <c r="C10" t="n">
-        <v>692.6214433194471</v>
+        <v>351.6112664143225</v>
       </c>
       <c r="D10" t="n">
-        <v>692.6214433194471</v>
+        <v>188.2944935410931</v>
       </c>
       <c r="E10" t="n">
-        <v>526.4132374723006</v>
+        <v>188.2944935410931</v>
       </c>
       <c r="F10" t="n">
-        <v>354.551463246861</v>
+        <v>188.2944935410931</v>
       </c>
       <c r="G10" t="n">
         <v>188.2944935410931</v>
@@ -4996,16 +4998,16 @@
         <v>1484.213795394888</v>
       </c>
       <c r="V10" t="n">
-        <v>1484.213795394888</v>
+        <v>1202.502328002917</v>
       </c>
       <c r="W10" t="n">
-        <v>1209.361391567401</v>
+        <v>927.6499241754298</v>
       </c>
       <c r="X10" t="n">
-        <v>1209.361391567401</v>
+        <v>685.0860276212348</v>
       </c>
       <c r="Y10" t="n">
-        <v>983.018623257143</v>
+        <v>458.7432593109769</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2425.996176307702</v>
+        <v>2540.701498063316</v>
       </c>
       <c r="C11" t="n">
-        <v>1999.095446321002</v>
+        <v>2113.800768076616</v>
       </c>
       <c r="D11" t="n">
-        <v>1575.802825506002</v>
+        <v>1690.508147261617</v>
       </c>
       <c r="E11" t="n">
-        <v>1149.82588565386</v>
+        <v>1264.531207409474</v>
       </c>
       <c r="F11" t="n">
-        <v>724.7017038432598</v>
+        <v>839.4070255988743</v>
       </c>
       <c r="G11" t="n">
-        <v>320.3626414327084</v>
+        <v>435.0679631883228</v>
       </c>
       <c r="H11" t="n">
-        <v>64.68215049679215</v>
+        <v>137.1995846623581</v>
       </c>
       <c r="I11" t="n">
-        <v>64.68215049679215</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J11" t="n">
-        <v>427.2856093136876</v>
+        <v>456.2068044646703</v>
       </c>
       <c r="K11" t="n">
-        <v>1142.793917289187</v>
+        <v>1171.715112440169</v>
       </c>
       <c r="L11" t="n">
-        <v>1515.667965162099</v>
+        <v>2101.340160059446</v>
       </c>
       <c r="M11" t="n">
-        <v>1515.667965162099</v>
+        <v>3105.626261478504</v>
       </c>
       <c r="N11" t="n">
-        <v>2316.109577559901</v>
+        <v>3105.626261478504</v>
       </c>
       <c r="O11" t="n">
-        <v>3116.551189957705</v>
+        <v>3950.770911629316</v>
       </c>
       <c r="P11" t="n">
-        <v>3116.551189957705</v>
+        <v>4659.050190787244</v>
       </c>
       <c r="Q11" t="n">
-        <v>3116.551189957705</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="R11" t="n">
-        <v>3234.107524839607</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="S11" t="n">
-        <v>3234.107524839607</v>
+        <v>5010.768376164568</v>
       </c>
       <c r="T11" t="n">
-        <v>3234.107524839607</v>
+        <v>4789.8428052092</v>
       </c>
       <c r="U11" t="n">
-        <v>3234.107524839607</v>
+        <v>4531.487895805612</v>
       </c>
       <c r="V11" t="n">
-        <v>3234.107524839607</v>
+        <v>4173.998480931862</v>
       </c>
       <c r="W11" t="n">
-        <v>2837.716175139954</v>
+        <v>3777.607131232209</v>
       </c>
       <c r="X11" t="n">
-        <v>2425.996176307702</v>
+        <v>3365.887132399956</v>
       </c>
       <c r="Y11" t="n">
-        <v>2425.996176307702</v>
+        <v>2960.549862354846</v>
       </c>
     </row>
     <row r="12">
@@ -5094,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>631.8056415282474</v>
+        <v>669.4262044372838</v>
       </c>
       <c r="C12" t="n">
-        <v>514.2997380457522</v>
+        <v>551.9203009547886</v>
       </c>
       <c r="D12" t="n">
-        <v>410.4597795610372</v>
+        <v>448.0803424700736</v>
       </c>
       <c r="E12" t="n">
-        <v>305.7578458339744</v>
+        <v>343.3784087430108</v>
       </c>
       <c r="F12" t="n">
-        <v>212.1120155168786</v>
+        <v>249.7325784259149</v>
       </c>
       <c r="G12" t="n">
-        <v>118.0582437344826</v>
+        <v>155.678806643519</v>
       </c>
       <c r="H12" t="n">
-        <v>64.68215049679215</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I12" t="n">
-        <v>64.68215049679215</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J12" t="n">
-        <v>336.3796397763832</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="K12" t="n">
-        <v>356.7304516410011</v>
+        <v>692.7876399741681</v>
       </c>
       <c r="L12" t="n">
-        <v>1157.172064038804</v>
+        <v>821.6753975134684</v>
       </c>
       <c r="M12" t="n">
-        <v>1157.172064038804</v>
+        <v>821.6753975134684</v>
       </c>
       <c r="N12" t="n">
-        <v>1157.172064038804</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="O12" t="n">
-        <v>1157.172064038804</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="P12" t="n">
-        <v>1873.369781077302</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="Q12" t="n">
-        <v>1873.369781077302</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="R12" t="n">
-        <v>1873.369781077302</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="S12" t="n">
-        <v>1792.045533638556</v>
+        <v>1829.666096547593</v>
       </c>
       <c r="T12" t="n">
-        <v>1650.165597936235</v>
+        <v>1687.786160845271</v>
       </c>
       <c r="U12" t="n">
-        <v>1465.397401855871</v>
+        <v>1503.017964764908</v>
       </c>
       <c r="V12" t="n">
-        <v>1260.424262995137</v>
+        <v>1298.044825904174</v>
       </c>
       <c r="W12" t="n">
-        <v>1063.902885828355</v>
+        <v>1101.523448737391</v>
       </c>
       <c r="X12" t="n">
-        <v>900.4255395950178</v>
+        <v>938.0461025040541</v>
       </c>
       <c r="Y12" t="n">
-        <v>760.7326509483102</v>
+        <v>798.3532138573465</v>
       </c>
     </row>
     <row r="13">
@@ -5173,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1147.863273021029</v>
+        <v>1185.483835930065</v>
       </c>
       <c r="C13" t="n">
-        <v>975.890709899945</v>
+        <v>1013.511272808982</v>
       </c>
       <c r="D13" t="n">
-        <v>812.5739370267157</v>
+        <v>850.1944999357522</v>
       </c>
       <c r="E13" t="n">
-        <v>646.3657311795693</v>
+        <v>683.9862940886057</v>
       </c>
       <c r="F13" t="n">
-        <v>474.5039569541296</v>
+        <v>512.1245198631661</v>
       </c>
       <c r="G13" t="n">
-        <v>308.2469872483618</v>
+        <v>345.8675501573982</v>
       </c>
       <c r="H13" t="n">
-        <v>164.4507187565162</v>
+        <v>202.0712816655526</v>
       </c>
       <c r="I13" t="n">
-        <v>64.68215049679215</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J13" t="n">
-        <v>122.1734787209502</v>
+        <v>159.7940416299866</v>
       </c>
       <c r="K13" t="n">
-        <v>348.7010799267873</v>
+        <v>386.3216428358238</v>
       </c>
       <c r="L13" t="n">
-        <v>703.3904012212081</v>
+        <v>741.0109641302445</v>
       </c>
       <c r="M13" t="n">
-        <v>1094.576196191459</v>
+        <v>1132.196759100495</v>
       </c>
       <c r="N13" t="n">
-        <v>1472.067707067495</v>
+        <v>1509.688269976531</v>
       </c>
       <c r="O13" t="n">
-        <v>1827.495835747258</v>
+        <v>1865.116398656294</v>
       </c>
       <c r="P13" t="n">
-        <v>2118.095047669159</v>
+        <v>2155.715610578195</v>
       </c>
       <c r="Q13" t="n">
-        <v>2245.09517790992</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="R13" t="n">
-        <v>2245.09517790992</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S13" t="n">
-        <v>2245.09517790992</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="T13" t="n">
-        <v>2245.09517790992</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="U13" t="n">
-        <v>2245.09517790992</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="V13" t="n">
-        <v>2081.788310425035</v>
+        <v>2119.408873334071</v>
       </c>
       <c r="W13" t="n">
-        <v>1806.935906597548</v>
+        <v>1844.556469506584</v>
       </c>
       <c r="X13" t="n">
-        <v>1564.372010043353</v>
+        <v>1601.992572952389</v>
       </c>
       <c r="Y13" t="n">
-        <v>1338.029241733095</v>
+        <v>1375.649804642131</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2503.080935154279</v>
+        <v>2540.701498063316</v>
       </c>
       <c r="C14" t="n">
-        <v>2076.18020516758</v>
+        <v>2113.800768076616</v>
       </c>
       <c r="D14" t="n">
-        <v>1652.88758435258</v>
+        <v>1690.508147261616</v>
       </c>
       <c r="E14" t="n">
-        <v>1226.910644500437</v>
+        <v>1264.531207409474</v>
       </c>
       <c r="F14" t="n">
-        <v>801.7864626898374</v>
+        <v>839.4070255988738</v>
       </c>
       <c r="G14" t="n">
-        <v>397.4474002792861</v>
+        <v>435.0679631883224</v>
       </c>
       <c r="H14" t="n">
-        <v>99.57902175332094</v>
+        <v>137.1995846623572</v>
       </c>
       <c r="I14" t="n">
-        <v>64.68215049679215</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J14" t="n">
-        <v>427.2856093136876</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="K14" t="n">
-        <v>715.2263527642958</v>
+        <v>817.8110213813276</v>
       </c>
       <c r="L14" t="n">
-        <v>715.2263527642958</v>
+        <v>1007.532766690843</v>
       </c>
       <c r="M14" t="n">
-        <v>1515.667965162099</v>
+        <v>2011.818868109901</v>
       </c>
       <c r="N14" t="n">
-        <v>2316.109577559901</v>
+        <v>2988.069926596602</v>
       </c>
       <c r="O14" t="n">
-        <v>3116.551189957705</v>
+        <v>3833.214576747414</v>
       </c>
       <c r="P14" t="n">
-        <v>3116.551189957705</v>
+        <v>4541.493855905342</v>
       </c>
       <c r="Q14" t="n">
-        <v>3116.551189957705</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="R14" t="n">
-        <v>3234.107524839607</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="S14" t="n">
-        <v>3129.740230712748</v>
+        <v>5010.768376164568</v>
       </c>
       <c r="T14" t="n">
-        <v>2908.814659757381</v>
+        <v>4789.8428052092</v>
       </c>
       <c r="U14" t="n">
-        <v>2908.814659757381</v>
+        <v>4531.487895805612</v>
       </c>
       <c r="V14" t="n">
-        <v>2899.472284853932</v>
+        <v>4173.998480931862</v>
       </c>
       <c r="W14" t="n">
-        <v>2503.080935154279</v>
+        <v>3777.607131232208</v>
       </c>
       <c r="X14" t="n">
-        <v>2503.080935154279</v>
+        <v>3365.887132399956</v>
       </c>
       <c r="Y14" t="n">
-        <v>2503.080935154279</v>
+        <v>2960.549862354846</v>
       </c>
     </row>
     <row r="15">
@@ -5331,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>631.8056415282474</v>
+        <v>669.4262044372838</v>
       </c>
       <c r="C15" t="n">
-        <v>514.2997380457522</v>
+        <v>551.9203009547886</v>
       </c>
       <c r="D15" t="n">
-        <v>410.4597795610372</v>
+        <v>448.0803424700736</v>
       </c>
       <c r="E15" t="n">
-        <v>305.7578458339744</v>
+        <v>343.3784087430108</v>
       </c>
       <c r="F15" t="n">
-        <v>212.1120155168786</v>
+        <v>249.7325784259149</v>
       </c>
       <c r="G15" t="n">
-        <v>118.0582437344826</v>
+        <v>155.678806643519</v>
       </c>
       <c r="H15" t="n">
-        <v>64.68215049679215</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I15" t="n">
-        <v>64.68215049679215</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J15" t="n">
-        <v>336.3796397763832</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="K15" t="n">
-        <v>336.3796397763832</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="L15" t="n">
-        <v>336.3796397763832</v>
+        <v>939.1015214887346</v>
       </c>
       <c r="M15" t="n">
-        <v>1072.928168679499</v>
+        <v>939.1015214887346</v>
       </c>
       <c r="N15" t="n">
-        <v>1873.369781077302</v>
+        <v>939.1015214887346</v>
       </c>
       <c r="O15" t="n">
-        <v>1873.369781077302</v>
+        <v>1194.79262694784</v>
       </c>
       <c r="P15" t="n">
-        <v>1873.369781077302</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="Q15" t="n">
-        <v>1873.369781077302</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="R15" t="n">
-        <v>1873.369781077302</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="S15" t="n">
-        <v>1792.045533638556</v>
+        <v>1829.666096547593</v>
       </c>
       <c r="T15" t="n">
-        <v>1650.165597936235</v>
+        <v>1687.786160845271</v>
       </c>
       <c r="U15" t="n">
-        <v>1465.397401855871</v>
+        <v>1503.017964764908</v>
       </c>
       <c r="V15" t="n">
-        <v>1260.424262995137</v>
+        <v>1298.044825904174</v>
       </c>
       <c r="W15" t="n">
-        <v>1063.902885828355</v>
+        <v>1101.523448737391</v>
       </c>
       <c r="X15" t="n">
-        <v>900.4255395950178</v>
+        <v>938.0461025040541</v>
       </c>
       <c r="Y15" t="n">
-        <v>760.7326509483102</v>
+        <v>798.3532138573465</v>
       </c>
     </row>
     <row r="16">
@@ -5410,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1147.863273021029</v>
+        <v>1185.483835930065</v>
       </c>
       <c r="C16" t="n">
-        <v>975.890709899945</v>
+        <v>1013.511272808982</v>
       </c>
       <c r="D16" t="n">
-        <v>812.5739370267157</v>
+        <v>850.1944999357522</v>
       </c>
       <c r="E16" t="n">
-        <v>646.3657311795693</v>
+        <v>683.9862940886057</v>
       </c>
       <c r="F16" t="n">
-        <v>474.5039569541296</v>
+        <v>512.1245198631661</v>
       </c>
       <c r="G16" t="n">
-        <v>308.2469872483618</v>
+        <v>345.8675501573982</v>
       </c>
       <c r="H16" t="n">
-        <v>164.4507187565162</v>
+        <v>202.0712816655526</v>
       </c>
       <c r="I16" t="n">
-        <v>64.68215049679215</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J16" t="n">
-        <v>122.1734787209502</v>
+        <v>159.7940416299866</v>
       </c>
       <c r="K16" t="n">
-        <v>348.7010799267873</v>
+        <v>386.3216428358238</v>
       </c>
       <c r="L16" t="n">
-        <v>703.3904012212081</v>
+        <v>741.0109641302445</v>
       </c>
       <c r="M16" t="n">
-        <v>1094.576196191459</v>
+        <v>1132.196759100495</v>
       </c>
       <c r="N16" t="n">
-        <v>1472.067707067495</v>
+        <v>1509.688269976531</v>
       </c>
       <c r="O16" t="n">
-        <v>1827.495835747258</v>
+        <v>1865.116398656294</v>
       </c>
       <c r="P16" t="n">
-        <v>2118.095047669159</v>
+        <v>2155.715610578195</v>
       </c>
       <c r="Q16" t="n">
-        <v>2245.09517790992</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="R16" t="n">
-        <v>2245.09517790992</v>
+        <v>2235.67712750613</v>
       </c>
       <c r="S16" t="n">
-        <v>2245.09517790992</v>
+        <v>2065.542080025265</v>
       </c>
       <c r="T16" t="n">
-        <v>2210.954361050441</v>
+        <v>1822.202732251165</v>
       </c>
       <c r="U16" t="n">
-        <v>1930.769912550745</v>
+        <v>1542.018283751469</v>
       </c>
       <c r="V16" t="n">
-        <v>1649.058445158774</v>
+        <v>1260.306816359498</v>
       </c>
       <c r="W16" t="n">
-        <v>1374.206041331287</v>
+        <v>1185.483835930065</v>
       </c>
       <c r="X16" t="n">
-        <v>1374.206041331287</v>
+        <v>1185.483835930065</v>
       </c>
       <c r="Y16" t="n">
-        <v>1147.863273021029</v>
+        <v>1185.483835930065</v>
       </c>
     </row>
     <row r="17">
@@ -5489,16 +5491,16 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2540.701498063316</v>
+        <v>2540.701498063315</v>
       </c>
       <c r="C17" t="n">
-        <v>2113.800768076616</v>
+        <v>2113.800768076615</v>
       </c>
       <c r="D17" t="n">
         <v>1690.508147261616</v>
       </c>
       <c r="E17" t="n">
-        <v>1264.531207409474</v>
+        <v>1264.531207409473</v>
       </c>
       <c r="F17" t="n">
         <v>839.4070255988738</v>
@@ -5513,28 +5515,28 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J17" t="n">
-        <v>464.9061722227241</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="K17" t="n">
-        <v>464.9061722227241</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="L17" t="n">
-        <v>1394.531219842001</v>
+        <v>1031.927761025105</v>
       </c>
       <c r="M17" t="n">
-        <v>2398.817321261059</v>
+        <v>2036.213862444163</v>
       </c>
       <c r="N17" t="n">
-        <v>3375.06837974776</v>
+        <v>3012.464920930865</v>
       </c>
       <c r="O17" t="n">
-        <v>3833.214576747414</v>
+        <v>3857.609571081677</v>
       </c>
       <c r="P17" t="n">
-        <v>4541.493855905342</v>
+        <v>4565.888850239604</v>
       </c>
       <c r="Q17" t="n">
-        <v>4997.579335409525</v>
+        <v>5021.974329743787</v>
       </c>
       <c r="R17" t="n">
         <v>5115.135670291427</v>
@@ -5549,13 +5551,13 @@
         <v>4531.487895805612</v>
       </c>
       <c r="V17" t="n">
-        <v>4173.998480931862</v>
+        <v>4173.998480931861</v>
       </c>
       <c r="W17" t="n">
         <v>3777.607131232208</v>
       </c>
       <c r="X17" t="n">
-        <v>3365.887132399955</v>
+        <v>3365.887132399956</v>
       </c>
       <c r="Y17" t="n">
         <v>2960.549862354846</v>
@@ -5592,22 +5594,22 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J18" t="n">
-        <v>374.0002026854196</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="K18" t="n">
-        <v>374.0002026854196</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="L18" t="n">
-        <v>374.0002026854196</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="M18" t="n">
-        <v>374.0002026854196</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="N18" t="n">
-        <v>374.0002026854196</v>
+        <v>1021.509065974867</v>
       </c>
       <c r="O18" t="n">
-        <v>1263.481480696891</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="P18" t="n">
         <v>1910.990343986338</v>
@@ -5647,22 +5649,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1041.68756743822</v>
+        <v>1068.606254915256</v>
       </c>
       <c r="C19" t="n">
-        <v>869.7150043171358</v>
+        <v>896.6336917941717</v>
       </c>
       <c r="D19" t="n">
-        <v>706.3982314439065</v>
+        <v>733.3169189209424</v>
       </c>
       <c r="E19" t="n">
-        <v>540.1900255967601</v>
+        <v>567.1087130737959</v>
       </c>
       <c r="F19" t="n">
-        <v>368.3282513713204</v>
+        <v>395.2469388483563</v>
       </c>
       <c r="G19" t="n">
-        <v>202.0712816655526</v>
+        <v>228.9899691425884</v>
       </c>
       <c r="H19" t="n">
         <v>202.0712816655526</v>
@@ -5695,28 +5697,28 @@
         <v>2282.715740818957</v>
       </c>
       <c r="R19" t="n">
-        <v>2235.67712750613</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S19" t="n">
-        <v>2235.67712750613</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="T19" t="n">
-        <v>1992.33777973203</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="U19" t="n">
-        <v>1712.153331232334</v>
+        <v>2002.531292319261</v>
       </c>
       <c r="V19" t="n">
-        <v>1430.441863840363</v>
+        <v>2002.531292319261</v>
       </c>
       <c r="W19" t="n">
-        <v>1430.441863840363</v>
+        <v>1727.678888491774</v>
       </c>
       <c r="X19" t="n">
-        <v>1187.877967286168</v>
+        <v>1485.114991937579</v>
       </c>
       <c r="Y19" t="n">
-        <v>1187.877967286168</v>
+        <v>1258.772223627321</v>
       </c>
     </row>
     <row r="20">
@@ -5726,10 +5728,10 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2540.701498063315</v>
+        <v>2540.701498063316</v>
       </c>
       <c r="C20" t="n">
-        <v>2113.800768076615</v>
+        <v>2113.800768076616</v>
       </c>
       <c r="D20" t="n">
         <v>1690.508147261616</v>
@@ -5738,13 +5740,13 @@
         <v>1264.531207409474</v>
       </c>
       <c r="F20" t="n">
-        <v>839.4070255988736</v>
+        <v>839.4070255988738</v>
       </c>
       <c r="G20" t="n">
-        <v>435.0679631883222</v>
+        <v>435.0679631883225</v>
       </c>
       <c r="H20" t="n">
-        <v>137.1995846623568</v>
+        <v>137.1995846623573</v>
       </c>
       <c r="I20" t="n">
         <v>102.3027134058285</v>
@@ -5756,22 +5758,22 @@
         <v>817.8110213813276</v>
       </c>
       <c r="L20" t="n">
-        <v>1747.436069000604</v>
+        <v>1007.532766690843</v>
       </c>
       <c r="M20" t="n">
-        <v>2751.722170419663</v>
+        <v>2011.818868109901</v>
       </c>
       <c r="N20" t="n">
-        <v>3727.973228906364</v>
+        <v>2988.069926596602</v>
       </c>
       <c r="O20" t="n">
-        <v>4573.117879057176</v>
+        <v>3833.214576747414</v>
       </c>
       <c r="P20" t="n">
-        <v>5115.135670291427</v>
+        <v>4541.493855905342</v>
       </c>
       <c r="Q20" t="n">
-        <v>5115.135670291427</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="R20" t="n">
         <v>5115.135670291427</v>
@@ -5829,25 +5831,25 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J21" t="n">
-        <v>374.0002026854196</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="K21" t="n">
-        <v>374.0002026854196</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="L21" t="n">
-        <v>374.0002026854196</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="M21" t="n">
-        <v>821.6753975134684</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="N21" t="n">
-        <v>1910.990343986338</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="O21" t="n">
-        <v>1910.990343986338</v>
+        <v>730.647150085061</v>
       </c>
       <c r="P21" t="n">
-        <v>1910.990343986338</v>
+        <v>1446.844867123559</v>
       </c>
       <c r="Q21" t="n">
         <v>1910.990343986338</v>
@@ -5884,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>3628.483824512321</v>
+        <v>543.5554397491844</v>
       </c>
       <c r="C22" t="n">
-        <v>3510.752655182783</v>
+        <v>371.5828766281004</v>
       </c>
       <c r="D22" t="n">
-        <v>3510.752655182783</v>
+        <v>208.2661037548711</v>
       </c>
       <c r="E22" t="n">
-        <v>3344.544449335636</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="F22" t="n">
-        <v>3344.544449335636</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="G22" t="n">
-        <v>3178.287479629868</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H22" t="n">
-        <v>3034.491211138023</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I22" t="n">
-        <v>2934.722642878299</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J22" t="n">
-        <v>2992.213971102457</v>
+        <v>159.7940416299866</v>
       </c>
       <c r="K22" t="n">
-        <v>3218.741572308294</v>
+        <v>386.3216428358238</v>
       </c>
       <c r="L22" t="n">
-        <v>3573.430893602715</v>
+        <v>741.0109641302445</v>
       </c>
       <c r="M22" t="n">
-        <v>3964.616688572966</v>
+        <v>1132.196759100495</v>
       </c>
       <c r="N22" t="n">
-        <v>4342.108199449001</v>
+        <v>1509.688269976531</v>
       </c>
       <c r="O22" t="n">
-        <v>4697.536328128765</v>
+        <v>1865.116398656294</v>
       </c>
       <c r="P22" t="n">
-        <v>4988.135540050665</v>
+        <v>2155.715610578195</v>
       </c>
       <c r="Q22" t="n">
-        <v>5115.135670291427</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="R22" t="n">
-        <v>5068.0970569786</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S22" t="n">
-        <v>4897.962009497735</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="T22" t="n">
-        <v>4897.962009497735</v>
+        <v>2039.376393044857</v>
       </c>
       <c r="U22" t="n">
-        <v>4617.77756099804</v>
+        <v>1759.191944545161</v>
       </c>
       <c r="V22" t="n">
-        <v>4336.066093606069</v>
+        <v>1477.48047715319</v>
       </c>
       <c r="W22" t="n">
-        <v>4061.213689778582</v>
+        <v>1202.628073325703</v>
       </c>
       <c r="X22" t="n">
-        <v>3818.649793224387</v>
+        <v>960.064176771508</v>
       </c>
       <c r="Y22" t="n">
-        <v>3818.649793224387</v>
+        <v>733.72140846125</v>
       </c>
     </row>
     <row r="23">
@@ -6042,76 +6044,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>3873.571530742373</v>
+        <v>669.4262044372838</v>
       </c>
       <c r="C24" t="n">
-        <v>3756.065627259878</v>
+        <v>551.9203009547886</v>
       </c>
       <c r="D24" t="n">
-        <v>3652.225668775163</v>
+        <v>448.0803424700736</v>
       </c>
       <c r="E24" t="n">
-        <v>3547.523735048101</v>
+        <v>343.3784087430108</v>
       </c>
       <c r="F24" t="n">
-        <v>3453.877904731005</v>
+        <v>249.7325784259149</v>
       </c>
       <c r="G24" t="n">
-        <v>3359.824132948609</v>
+        <v>155.678806643519</v>
       </c>
       <c r="H24" t="n">
-        <v>3306.448039710919</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I24" t="n">
-        <v>3306.448039710919</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J24" t="n">
-        <v>3306.448039710919</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="K24" t="n">
-        <v>3306.448039710919</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="L24" t="n">
-        <v>3306.448039710919</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="M24" t="n">
-        <v>4025.820723818557</v>
+        <v>1158.289251381874</v>
       </c>
       <c r="N24" t="n">
-        <v>5115.135670291427</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="O24" t="n">
-        <v>5115.135670291427</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="P24" t="n">
-        <v>5115.135670291427</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="Q24" t="n">
-        <v>5115.135670291427</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="R24" t="n">
-        <v>5115.135670291427</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="S24" t="n">
-        <v>5033.811422852682</v>
+        <v>1829.666096547593</v>
       </c>
       <c r="T24" t="n">
-        <v>4891.93148715036</v>
+        <v>1687.786160845271</v>
       </c>
       <c r="U24" t="n">
-        <v>4707.163291069997</v>
+        <v>1503.017964764908</v>
       </c>
       <c r="V24" t="n">
-        <v>4502.190152209264</v>
+        <v>1298.044825904174</v>
       </c>
       <c r="W24" t="n">
-        <v>4305.668775042481</v>
+        <v>1101.523448737391</v>
       </c>
       <c r="X24" t="n">
-        <v>4142.191428809144</v>
+        <v>938.0461025040541</v>
       </c>
       <c r="Y24" t="n">
-        <v>4002.498540162436</v>
+        <v>798.3532138573465</v>
       </c>
     </row>
     <row r="25">
@@ -6121,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1019.226866224298</v>
+        <v>4017.903765402536</v>
       </c>
       <c r="C25" t="n">
-        <v>847.2543031032136</v>
+        <v>3845.931202281452</v>
       </c>
       <c r="D25" t="n">
-        <v>683.9375302299843</v>
+        <v>3682.614429408222</v>
       </c>
       <c r="E25" t="n">
-        <v>517.7293243828378</v>
+        <v>3516.406223561076</v>
       </c>
       <c r="F25" t="n">
-        <v>345.8675501573982</v>
+        <v>3344.544449335636</v>
       </c>
       <c r="G25" t="n">
-        <v>345.8675501573982</v>
+        <v>3178.287479629868</v>
       </c>
       <c r="H25" t="n">
-        <v>202.0712816655526</v>
+        <v>3034.491211138023</v>
       </c>
       <c r="I25" t="n">
-        <v>102.3027134058285</v>
+        <v>2934.722642878299</v>
       </c>
       <c r="J25" t="n">
-        <v>159.7940416299866</v>
+        <v>2992.213971102457</v>
       </c>
       <c r="K25" t="n">
-        <v>386.3216428358238</v>
+        <v>3218.741572308294</v>
       </c>
       <c r="L25" t="n">
-        <v>741.0109641302445</v>
+        <v>3573.430893602715</v>
       </c>
       <c r="M25" t="n">
-        <v>1132.196759100495</v>
+        <v>3964.616688572966</v>
       </c>
       <c r="N25" t="n">
-        <v>1509.688269976531</v>
+        <v>4342.108199449001</v>
       </c>
       <c r="O25" t="n">
-        <v>1865.116398656294</v>
+        <v>4697.536328128765</v>
       </c>
       <c r="P25" t="n">
-        <v>2155.715610578195</v>
+        <v>4988.135540050665</v>
       </c>
       <c r="Q25" t="n">
-        <v>2282.715740818957</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="R25" t="n">
-        <v>2235.67712750613</v>
+        <v>5068.0970569786</v>
       </c>
       <c r="S25" t="n">
-        <v>2235.67712750613</v>
+        <v>4958.687866371026</v>
       </c>
       <c r="T25" t="n">
-        <v>1992.33777973203</v>
+        <v>4958.687866371026</v>
       </c>
       <c r="U25" t="n">
-        <v>1992.33777973203</v>
+        <v>4958.687866371026</v>
       </c>
       <c r="V25" t="n">
-        <v>1953.151903628303</v>
+        <v>4676.976398979054</v>
       </c>
       <c r="W25" t="n">
-        <v>1678.299499800816</v>
+        <v>4676.976398979054</v>
       </c>
       <c r="X25" t="n">
-        <v>1435.735603246621</v>
+        <v>4434.41250242486</v>
       </c>
       <c r="Y25" t="n">
-        <v>1209.392834936363</v>
+        <v>4208.069734114601</v>
       </c>
     </row>
     <row r="26">
@@ -6312,16 +6314,16 @@
         <v>102.3027134058285</v>
       </c>
       <c r="M27" t="n">
-        <v>821.6753975134684</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="N27" t="n">
-        <v>1910.990343986338</v>
+        <v>1191.617659878699</v>
       </c>
       <c r="O27" t="n">
-        <v>1910.990343986338</v>
+        <v>1446.844867123559</v>
       </c>
       <c r="P27" t="n">
-        <v>1910.990343986338</v>
+        <v>1446.844867123559</v>
       </c>
       <c r="Q27" t="n">
         <v>1910.990343986338</v>
@@ -6358,25 +6360,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>446.1370507523521</v>
+        <v>853.0186603771511</v>
       </c>
       <c r="C28" t="n">
-        <v>274.1644876312681</v>
+        <v>681.0460972560671</v>
       </c>
       <c r="D28" t="n">
-        <v>274.1644876312681</v>
+        <v>517.7293243828378</v>
       </c>
       <c r="E28" t="n">
-        <v>274.1644876312681</v>
+        <v>517.7293243828378</v>
       </c>
       <c r="F28" t="n">
-        <v>102.3027134058285</v>
+        <v>345.8675501573982</v>
       </c>
       <c r="G28" t="n">
-        <v>102.3027134058285</v>
+        <v>345.8675501573982</v>
       </c>
       <c r="H28" t="n">
-        <v>102.3027134058285</v>
+        <v>202.0712816655526</v>
       </c>
       <c r="I28" t="n">
         <v>102.3027134058285</v>
@@ -6406,28 +6408,28 @@
         <v>2282.715740818957</v>
       </c>
       <c r="R28" t="n">
-        <v>2235.67712750613</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S28" t="n">
-        <v>2065.542080025265</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="T28" t="n">
-        <v>1822.202732251165</v>
+        <v>2039.376393044857</v>
       </c>
       <c r="U28" t="n">
-        <v>1542.018283751469</v>
+        <v>1759.191944545161</v>
       </c>
       <c r="V28" t="n">
-        <v>1260.306816359498</v>
+        <v>1477.48047715319</v>
       </c>
       <c r="W28" t="n">
-        <v>1105.20968432887</v>
+        <v>1202.628073325703</v>
       </c>
       <c r="X28" t="n">
-        <v>862.6457877746757</v>
+        <v>960.064176771508</v>
       </c>
       <c r="Y28" t="n">
-        <v>636.3030194644177</v>
+        <v>853.0186603771511</v>
       </c>
     </row>
     <row r="29">
@@ -6549,7 +6551,7 @@
         <v>102.3027134058285</v>
       </c>
       <c r="M30" t="n">
-        <v>1158.289251381874</v>
+        <v>821.6753975134684</v>
       </c>
       <c r="N30" t="n">
         <v>1910.990343986338</v>
@@ -6595,19 +6597,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>775.7107933313494</v>
+        <v>437.5920494001418</v>
       </c>
       <c r="C31" t="n">
-        <v>603.7382302102653</v>
+        <v>265.6194862790578</v>
       </c>
       <c r="D31" t="n">
-        <v>440.421457337036</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="E31" t="n">
-        <v>440.421457337036</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="F31" t="n">
-        <v>268.5596831115964</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="G31" t="n">
         <v>102.3027134058285</v>
@@ -6643,28 +6645,28 @@
         <v>2282.715740818957</v>
       </c>
       <c r="R31" t="n">
-        <v>2282.715740818957</v>
+        <v>2235.67712750613</v>
       </c>
       <c r="S31" t="n">
-        <v>2271.531746627022</v>
+        <v>2065.542080025265</v>
       </c>
       <c r="T31" t="n">
-        <v>2271.531746627022</v>
+        <v>1822.202732251165</v>
       </c>
       <c r="U31" t="n">
-        <v>1991.347298127326</v>
+        <v>1542.018283751469</v>
       </c>
       <c r="V31" t="n">
-        <v>1709.635830735355</v>
+        <v>1260.306816359498</v>
       </c>
       <c r="W31" t="n">
-        <v>1434.783426907868</v>
+        <v>985.454412532011</v>
       </c>
       <c r="X31" t="n">
-        <v>1192.219530353673</v>
+        <v>742.8905159778161</v>
       </c>
       <c r="Y31" t="n">
-        <v>965.8767620434151</v>
+        <v>516.5477476675582</v>
       </c>
     </row>
     <row r="32">
@@ -6698,25 +6700,25 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J32" t="n">
-        <v>464.9061722227241</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="K32" t="n">
-        <v>464.9061722227241</v>
+        <v>817.8110213813276</v>
       </c>
       <c r="L32" t="n">
-        <v>1394.531219842001</v>
+        <v>1747.436069000604</v>
       </c>
       <c r="M32" t="n">
-        <v>2398.817321261059</v>
+        <v>2751.722170419663</v>
       </c>
       <c r="N32" t="n">
-        <v>3375.06837974776</v>
+        <v>3727.973228906364</v>
       </c>
       <c r="O32" t="n">
-        <v>4220.213029898572</v>
+        <v>4573.117879057176</v>
       </c>
       <c r="P32" t="n">
-        <v>4928.4923090565</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="Q32" t="n">
         <v>4997.579335409525</v>
@@ -6786,10 +6788,10 @@
         <v>102.3027134058285</v>
       </c>
       <c r="M33" t="n">
-        <v>1021.509065974867</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="N33" t="n">
-        <v>1021.509065974867</v>
+        <v>1191.617659878699</v>
       </c>
       <c r="O33" t="n">
         <v>1910.990343986338</v>
@@ -6832,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>1020.792190382524</v>
+        <v>3754.818424269582</v>
       </c>
       <c r="C34" t="n">
-        <v>848.8196272614396</v>
+        <v>3582.845861148498</v>
       </c>
       <c r="D34" t="n">
-        <v>685.5028543882103</v>
+        <v>3582.845861148498</v>
       </c>
       <c r="E34" t="n">
-        <v>519.2946485410638</v>
+        <v>3416.637655301352</v>
       </c>
       <c r="F34" t="n">
-        <v>347.4328743156242</v>
+        <v>3244.775881075912</v>
       </c>
       <c r="G34" t="n">
-        <v>181.1759046098563</v>
+        <v>3078.518911370144</v>
       </c>
       <c r="H34" t="n">
-        <v>102.3027134058285</v>
+        <v>2934.722642878299</v>
       </c>
       <c r="I34" t="n">
-        <v>102.3027134058285</v>
+        <v>2934.722642878299</v>
       </c>
       <c r="J34" t="n">
-        <v>159.7940416299866</v>
+        <v>2992.213971102457</v>
       </c>
       <c r="K34" t="n">
-        <v>386.3216428358238</v>
+        <v>3218.741572308294</v>
       </c>
       <c r="L34" t="n">
-        <v>741.0109641302445</v>
+        <v>3573.430893602715</v>
       </c>
       <c r="M34" t="n">
-        <v>1132.196759100495</v>
+        <v>3964.616688572966</v>
       </c>
       <c r="N34" t="n">
-        <v>1509.688269976531</v>
+        <v>4342.108199449001</v>
       </c>
       <c r="O34" t="n">
-        <v>1865.116398656294</v>
+        <v>4697.536328128765</v>
       </c>
       <c r="P34" t="n">
-        <v>2155.715610578195</v>
+        <v>4988.135540050665</v>
       </c>
       <c r="Q34" t="n">
-        <v>2282.715740818957</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="R34" t="n">
-        <v>2235.67712750613</v>
+        <v>5068.0970569786</v>
       </c>
       <c r="S34" t="n">
-        <v>2235.67712750613</v>
+        <v>4897.962009497735</v>
       </c>
       <c r="T34" t="n">
-        <v>1992.33777973203</v>
+        <v>4654.622661723635</v>
       </c>
       <c r="U34" t="n">
-        <v>1712.153331232334</v>
+        <v>4374.43821322394</v>
       </c>
       <c r="V34" t="n">
-        <v>1712.153331232334</v>
+        <v>4092.726745831969</v>
       </c>
       <c r="W34" t="n">
-        <v>1437.300927404847</v>
+        <v>3944.984392981648</v>
       </c>
       <c r="X34" t="n">
-        <v>1437.300927404847</v>
+        <v>3944.984392981648</v>
       </c>
       <c r="Y34" t="n">
-        <v>1210.958159094589</v>
+        <v>3944.984392981648</v>
       </c>
     </row>
     <row r="35">
@@ -6911,10 +6913,10 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2540.701498063316</v>
+        <v>2540.701498063315</v>
       </c>
       <c r="C35" t="n">
-        <v>2113.800768076616</v>
+        <v>2113.800768076615</v>
       </c>
       <c r="D35" t="n">
         <v>1690.508147261616</v>
@@ -6923,49 +6925,49 @@
         <v>1264.531207409474</v>
       </c>
       <c r="F35" t="n">
-        <v>839.4070255988739</v>
+        <v>839.4070255988736</v>
       </c>
       <c r="G35" t="n">
-        <v>435.0679631883225</v>
+        <v>435.0679631883222</v>
       </c>
       <c r="H35" t="n">
-        <v>137.1995846623573</v>
+        <v>137.1995846623568</v>
       </c>
       <c r="I35" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J35" t="n">
-        <v>464.906172222724</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K35" t="n">
-        <v>1180.414480198223</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="L35" t="n">
-        <v>2110.0395278175</v>
+        <v>1394.531219842001</v>
       </c>
       <c r="M35" t="n">
-        <v>3114.325629236558</v>
+        <v>2398.817321261059</v>
       </c>
       <c r="N35" t="n">
-        <v>4090.576687723259</v>
+        <v>3375.06837974776</v>
       </c>
       <c r="O35" t="n">
-        <v>4935.721337874071</v>
+        <v>4220.213029898572</v>
       </c>
       <c r="P35" t="n">
-        <v>4997.579335409524</v>
+        <v>4659.050190787244</v>
       </c>
       <c r="Q35" t="n">
-        <v>4997.579335409524</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="R35" t="n">
-        <v>5115.135670291426</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="S35" t="n">
-        <v>5010.768376164567</v>
+        <v>5010.768376164568</v>
       </c>
       <c r="T35" t="n">
-        <v>4789.842805209199</v>
+        <v>4789.8428052092</v>
       </c>
       <c r="U35" t="n">
         <v>4531.487895805612</v>
@@ -6977,7 +6979,7 @@
         <v>3777.607131232208</v>
       </c>
       <c r="X35" t="n">
-        <v>3365.887132399956</v>
+        <v>3365.887132399955</v>
       </c>
       <c r="Y35" t="n">
         <v>2960.549862354846</v>
@@ -6990,76 +6992,76 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>669.4262044372838</v>
+        <v>3873.571530742373</v>
       </c>
       <c r="C36" t="n">
-        <v>551.9203009547886</v>
+        <v>3756.065627259878</v>
       </c>
       <c r="D36" t="n">
-        <v>448.0803424700736</v>
+        <v>3652.225668775163</v>
       </c>
       <c r="E36" t="n">
-        <v>343.3784087430108</v>
+        <v>3547.523735048101</v>
       </c>
       <c r="F36" t="n">
-        <v>249.7325784259149</v>
+        <v>3453.877904731005</v>
       </c>
       <c r="G36" t="n">
-        <v>155.678806643519</v>
+        <v>3359.824132948609</v>
       </c>
       <c r="H36" t="n">
-        <v>102.3027134058285</v>
+        <v>3306.448039710919</v>
       </c>
       <c r="I36" t="n">
-        <v>102.3027134058285</v>
+        <v>3313.894682672831</v>
       </c>
       <c r="J36" t="n">
-        <v>102.3027134058285</v>
+        <v>3313.894682672831</v>
       </c>
       <c r="K36" t="n">
-        <v>692.7876399741681</v>
+        <v>3904.37960924117</v>
       </c>
       <c r="L36" t="n">
-        <v>692.7876399741681</v>
+        <v>3904.37960924117</v>
       </c>
       <c r="M36" t="n">
-        <v>692.7876399741681</v>
+        <v>3904.37960924117</v>
       </c>
       <c r="N36" t="n">
-        <v>939.4897558901635</v>
+        <v>4225.654392279956</v>
       </c>
       <c r="O36" t="n">
-        <v>1828.971033901635</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="P36" t="n">
-        <v>1828.971033901635</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="Q36" t="n">
-        <v>1828.971033901635</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="R36" t="n">
-        <v>1910.990343986338</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="S36" t="n">
-        <v>1829.666096547593</v>
+        <v>5033.811422852682</v>
       </c>
       <c r="T36" t="n">
-        <v>1687.786160845271</v>
+        <v>4891.93148715036</v>
       </c>
       <c r="U36" t="n">
-        <v>1503.017964764908</v>
+        <v>4707.163291069997</v>
       </c>
       <c r="V36" t="n">
-        <v>1298.044825904174</v>
+        <v>4502.190152209264</v>
       </c>
       <c r="W36" t="n">
-        <v>1101.523448737391</v>
+        <v>4305.668775042481</v>
       </c>
       <c r="X36" t="n">
-        <v>938.0461025040541</v>
+        <v>4142.191428809144</v>
       </c>
       <c r="Y36" t="n">
-        <v>798.3532138573465</v>
+        <v>4002.498540162436</v>
       </c>
     </row>
     <row r="37">
@@ -7069,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>581.3883178919874</v>
+        <v>4017.903765402536</v>
       </c>
       <c r="C37" t="n">
-        <v>409.4157547709034</v>
+        <v>3845.931202281452</v>
       </c>
       <c r="D37" t="n">
-        <v>246.0989818976742</v>
+        <v>3682.614429408222</v>
       </c>
       <c r="E37" t="n">
-        <v>246.0989818976742</v>
+        <v>3516.406223561076</v>
       </c>
       <c r="F37" t="n">
-        <v>246.0989818976742</v>
+        <v>3344.544449335636</v>
       </c>
       <c r="G37" t="n">
-        <v>246.0989818976742</v>
+        <v>3178.287479629868</v>
       </c>
       <c r="H37" t="n">
-        <v>102.3027134058285</v>
+        <v>3034.491211138023</v>
       </c>
       <c r="I37" t="n">
-        <v>102.3027134058285</v>
+        <v>2934.722642878299</v>
       </c>
       <c r="J37" t="n">
-        <v>159.7940416299865</v>
+        <v>2992.213971102457</v>
       </c>
       <c r="K37" t="n">
-        <v>386.3216428358237</v>
+        <v>3218.741572308294</v>
       </c>
       <c r="L37" t="n">
-        <v>741.0109641302445</v>
+        <v>3573.430893602715</v>
       </c>
       <c r="M37" t="n">
-        <v>1132.196759100495</v>
+        <v>3964.616688572966</v>
       </c>
       <c r="N37" t="n">
-        <v>1509.688269976531</v>
+        <v>4342.108199449001</v>
       </c>
       <c r="O37" t="n">
-        <v>1865.116398656294</v>
+        <v>4697.536328128765</v>
       </c>
       <c r="P37" t="n">
-        <v>2155.715610578195</v>
+        <v>4988.135540050665</v>
       </c>
       <c r="Q37" t="n">
-        <v>2282.715740818957</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="R37" t="n">
-        <v>2235.67712750613</v>
+        <v>5068.0970569786</v>
       </c>
       <c r="S37" t="n">
-        <v>2065.542080025265</v>
+        <v>4897.962009497735</v>
       </c>
       <c r="T37" t="n">
-        <v>1822.202732251165</v>
+        <v>4654.622661723635</v>
       </c>
       <c r="U37" t="n">
-        <v>1542.018283751469</v>
+        <v>4434.41250242486</v>
       </c>
       <c r="V37" t="n">
-        <v>1260.306816359498</v>
+        <v>4434.41250242486</v>
       </c>
       <c r="W37" t="n">
-        <v>985.454412532011</v>
+        <v>4434.41250242486</v>
       </c>
       <c r="X37" t="n">
-        <v>985.454412532011</v>
+        <v>4434.41250242486</v>
       </c>
       <c r="Y37" t="n">
-        <v>759.1116442217531</v>
+        <v>4208.069734114601</v>
       </c>
     </row>
     <row r="38">
@@ -7166,34 +7168,34 @@
         <v>435.0679631883222</v>
       </c>
       <c r="H38" t="n">
-        <v>137.199584662357</v>
+        <v>137.1995846623568</v>
       </c>
       <c r="I38" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J38" t="n">
-        <v>464.9061722227241</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="K38" t="n">
-        <v>1180.414480198223</v>
+        <v>817.8110213813276</v>
       </c>
       <c r="L38" t="n">
-        <v>2110.0395278175</v>
+        <v>1747.436069000604</v>
       </c>
       <c r="M38" t="n">
-        <v>3114.325629236558</v>
+        <v>2751.722170419663</v>
       </c>
       <c r="N38" t="n">
-        <v>4090.576687723259</v>
+        <v>2988.069926596602</v>
       </c>
       <c r="O38" t="n">
-        <v>4935.721337874071</v>
+        <v>3833.214576747414</v>
       </c>
       <c r="P38" t="n">
-        <v>4935.721337874071</v>
+        <v>4541.493855905342</v>
       </c>
       <c r="Q38" t="n">
-        <v>5115.135670291427</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="R38" t="n">
         <v>5115.135670291427</v>
@@ -7248,31 +7250,31 @@
         <v>102.3027134058285</v>
       </c>
       <c r="I39" t="n">
-        <v>109.7493563677404</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J39" t="n">
-        <v>381.4468456473314</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="K39" t="n">
-        <v>971.931772215671</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="L39" t="n">
-        <v>971.931772215671</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="M39" t="n">
-        <v>971.931772215671</v>
+        <v>1158.289251381874</v>
       </c>
       <c r="N39" t="n">
-        <v>971.931772215671</v>
+        <v>1158.289251381874</v>
       </c>
       <c r="O39" t="n">
-        <v>971.931772215671</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="P39" t="n">
-        <v>1364.825557038856</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="Q39" t="n">
-        <v>1828.971033901635</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="R39" t="n">
         <v>1910.990343986338</v>
@@ -7354,28 +7356,28 @@
         <v>2282.715740818957</v>
       </c>
       <c r="R40" t="n">
-        <v>2235.67712750613</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S40" t="n">
-        <v>2065.542080025265</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="T40" t="n">
-        <v>2065.542080025265</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="U40" t="n">
-        <v>1785.357631525569</v>
+        <v>2174.777572415784</v>
       </c>
       <c r="V40" t="n">
-        <v>1702.900136311747</v>
+        <v>1893.066105023813</v>
       </c>
       <c r="W40" t="n">
-        <v>1428.04773248426</v>
+        <v>1618.213701196326</v>
       </c>
       <c r="X40" t="n">
-        <v>1185.483835930065</v>
+        <v>1375.649804642131</v>
       </c>
       <c r="Y40" t="n">
-        <v>1185.483835930065</v>
+        <v>1375.649804642131</v>
       </c>
     </row>
     <row r="41">
@@ -7385,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1785.222241060804</v>
+        <v>2540.701498063316</v>
       </c>
       <c r="C41" t="n">
-        <v>1650.203265315437</v>
+        <v>2113.800768076616</v>
       </c>
       <c r="D41" t="n">
-        <v>1226.910644500437</v>
+        <v>1690.508147261616</v>
       </c>
       <c r="E41" t="n">
-        <v>1226.910644500437</v>
+        <v>1264.531207409474</v>
       </c>
       <c r="F41" t="n">
-        <v>801.7864626898374</v>
+        <v>839.4070255988738</v>
       </c>
       <c r="G41" t="n">
-        <v>397.4474002792861</v>
+        <v>435.0679631883225</v>
       </c>
       <c r="H41" t="n">
-        <v>99.57902175332094</v>
+        <v>137.1995846623573</v>
       </c>
       <c r="I41" t="n">
-        <v>64.68215049679215</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J41" t="n">
-        <v>427.2856093136876</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K41" t="n">
-        <v>1142.793917289187</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L41" t="n">
-        <v>1943.23552968699</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M41" t="n">
-        <v>2743.677142084793</v>
+        <v>3114.325629236558</v>
       </c>
       <c r="N41" t="n">
-        <v>3234.107524839607</v>
+        <v>4090.576687723259</v>
       </c>
       <c r="O41" t="n">
-        <v>3234.107524839607</v>
+        <v>4935.721337874071</v>
       </c>
       <c r="P41" t="n">
-        <v>3234.107524839607</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="Q41" t="n">
-        <v>3234.107524839607</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="R41" t="n">
-        <v>3234.107524839607</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="S41" t="n">
-        <v>3234.107524839607</v>
+        <v>5010.768376164567</v>
       </c>
       <c r="T41" t="n">
-        <v>3013.181953884241</v>
+        <v>4789.842805209199</v>
       </c>
       <c r="U41" t="n">
-        <v>3013.181953884241</v>
+        <v>4531.487895805612</v>
       </c>
       <c r="V41" t="n">
-        <v>3013.181953884241</v>
+        <v>4173.998480931861</v>
       </c>
       <c r="W41" t="n">
-        <v>2616.790604184587</v>
+        <v>3777.607131232208</v>
       </c>
       <c r="X41" t="n">
-        <v>2205.070605352334</v>
+        <v>3365.887132399955</v>
       </c>
       <c r="Y41" t="n">
-        <v>2205.070605352334</v>
+        <v>2960.549862354846</v>
       </c>
     </row>
     <row r="42">
@@ -7464,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>631.8056415282474</v>
+        <v>669.4262044372838</v>
       </c>
       <c r="C42" t="n">
-        <v>514.2997380457522</v>
+        <v>551.9203009547886</v>
       </c>
       <c r="D42" t="n">
-        <v>410.4597795610372</v>
+        <v>448.0803424700736</v>
       </c>
       <c r="E42" t="n">
-        <v>305.7578458339744</v>
+        <v>343.3784087430108</v>
       </c>
       <c r="F42" t="n">
-        <v>212.1120155168786</v>
+        <v>249.7325784259149</v>
       </c>
       <c r="G42" t="n">
-        <v>118.0582437344826</v>
+        <v>155.678806643519</v>
       </c>
       <c r="H42" t="n">
-        <v>64.68215049679215</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I42" t="n">
-        <v>64.68215049679215</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J42" t="n">
-        <v>64.68215049679215</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="K42" t="n">
-        <v>64.68215049679215</v>
+        <v>692.7876399741681</v>
       </c>
       <c r="L42" t="n">
-        <v>272.4865562816963</v>
+        <v>1529.586448057074</v>
       </c>
       <c r="M42" t="n">
-        <v>1072.928168679499</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="N42" t="n">
-        <v>1873.369781077302</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="O42" t="n">
-        <v>1873.369781077302</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="P42" t="n">
-        <v>1873.369781077302</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="Q42" t="n">
-        <v>1873.369781077302</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="R42" t="n">
-        <v>1873.369781077302</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="S42" t="n">
-        <v>1792.045533638556</v>
+        <v>1829.666096547593</v>
       </c>
       <c r="T42" t="n">
-        <v>1650.165597936235</v>
+        <v>1687.786160845271</v>
       </c>
       <c r="U42" t="n">
-        <v>1465.397401855871</v>
+        <v>1503.017964764908</v>
       </c>
       <c r="V42" t="n">
-        <v>1260.424262995137</v>
+        <v>1298.044825904174</v>
       </c>
       <c r="W42" t="n">
-        <v>1063.902885828355</v>
+        <v>1101.523448737391</v>
       </c>
       <c r="X42" t="n">
-        <v>900.4255395950178</v>
+        <v>938.0461025040541</v>
       </c>
       <c r="Y42" t="n">
-        <v>760.7326509483102</v>
+        <v>798.3532138573465</v>
       </c>
     </row>
     <row r="43">
@@ -7543,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>546.6591879568682</v>
+        <v>1185.483835930065</v>
       </c>
       <c r="C43" t="n">
-        <v>374.6866248357842</v>
+        <v>1013.511272808982</v>
       </c>
       <c r="D43" t="n">
-        <v>374.6866248357842</v>
+        <v>850.1944999357522</v>
       </c>
       <c r="E43" t="n">
-        <v>208.4784189886378</v>
+        <v>683.9862940886057</v>
       </c>
       <c r="F43" t="n">
-        <v>208.4784189886378</v>
+        <v>512.1245198631661</v>
       </c>
       <c r="G43" t="n">
-        <v>208.4784189886378</v>
+        <v>345.8675501573982</v>
       </c>
       <c r="H43" t="n">
-        <v>64.68215049679215</v>
+        <v>202.0712816655526</v>
       </c>
       <c r="I43" t="n">
-        <v>64.68215049679215</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J43" t="n">
-        <v>122.1734787209502</v>
+        <v>159.7940416299866</v>
       </c>
       <c r="K43" t="n">
-        <v>348.7010799267873</v>
+        <v>386.3216428358238</v>
       </c>
       <c r="L43" t="n">
-        <v>703.3904012212081</v>
+        <v>741.0109641302445</v>
       </c>
       <c r="M43" t="n">
-        <v>1094.576196191459</v>
+        <v>1132.196759100495</v>
       </c>
       <c r="N43" t="n">
-        <v>1472.067707067495</v>
+        <v>1509.688269976531</v>
       </c>
       <c r="O43" t="n">
-        <v>1827.495835747258</v>
+        <v>1865.116398656294</v>
       </c>
       <c r="P43" t="n">
-        <v>2118.095047669159</v>
+        <v>2155.715610578195</v>
       </c>
       <c r="Q43" t="n">
-        <v>2245.09517790992</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="R43" t="n">
-        <v>2245.09517790992</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S43" t="n">
-        <v>2245.09517790992</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="T43" t="n">
-        <v>2001.75583013582</v>
+        <v>2039.376393044857</v>
       </c>
       <c r="U43" t="n">
-        <v>1721.571381636125</v>
+        <v>2039.376393044857</v>
       </c>
       <c r="V43" t="n">
-        <v>1439.859914244154</v>
+        <v>2039.376393044857</v>
       </c>
       <c r="W43" t="n">
-        <v>1165.007510416666</v>
+        <v>1844.556469506584</v>
       </c>
       <c r="X43" t="n">
-        <v>922.4436138624716</v>
+        <v>1601.992572952389</v>
       </c>
       <c r="Y43" t="n">
-        <v>696.1008455522136</v>
+        <v>1375.649804642131</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2063.845001487199</v>
+        <v>2540.701498063317</v>
       </c>
       <c r="C44" t="n">
-        <v>1636.944271500499</v>
+        <v>2113.800768076617</v>
       </c>
       <c r="D44" t="n">
-        <v>1213.6516506855</v>
+        <v>1690.508147261617</v>
       </c>
       <c r="E44" t="n">
-        <v>787.674710833357</v>
+        <v>1264.531207409475</v>
       </c>
       <c r="F44" t="n">
-        <v>362.5505290227573</v>
+        <v>839.4070255988747</v>
       </c>
       <c r="G44" t="n">
-        <v>362.5505290227573</v>
+        <v>435.0679631883233</v>
       </c>
       <c r="H44" t="n">
-        <v>64.68215049679215</v>
+        <v>137.1995846623573</v>
       </c>
       <c r="I44" t="n">
-        <v>64.68215049679215</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J44" t="n">
-        <v>64.68215049679215</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K44" t="n">
-        <v>64.68215049679215</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L44" t="n">
-        <v>715.2263527642958</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M44" t="n">
-        <v>1515.667965162099</v>
+        <v>3114.325629236558</v>
       </c>
       <c r="N44" t="n">
-        <v>2316.109577559901</v>
+        <v>4090.576687723259</v>
       </c>
       <c r="O44" t="n">
-        <v>3116.551189957705</v>
+        <v>4935.721337874071</v>
       </c>
       <c r="P44" t="n">
-        <v>3116.551189957705</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="Q44" t="n">
-        <v>3116.551189957705</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="R44" t="n">
-        <v>3234.107524839607</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="S44" t="n">
-        <v>3234.107524839607</v>
+        <v>5010.768376164568</v>
       </c>
       <c r="T44" t="n">
-        <v>3234.107524839607</v>
+        <v>4789.8428052092</v>
       </c>
       <c r="U44" t="n">
-        <v>3234.107524839607</v>
+        <v>4531.487895805612</v>
       </c>
       <c r="V44" t="n">
-        <v>2876.618109965857</v>
+        <v>4173.998480931862</v>
       </c>
       <c r="W44" t="n">
-        <v>2480.226760266204</v>
+        <v>3777.607131232209</v>
       </c>
       <c r="X44" t="n">
-        <v>2068.506761433951</v>
+        <v>3365.887132399956</v>
       </c>
       <c r="Y44" t="n">
-        <v>2063.845001487199</v>
+        <v>2960.549862354847</v>
       </c>
     </row>
     <row r="45">
@@ -7701,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>1992.543385290553</v>
+        <v>669.4262044372838</v>
       </c>
       <c r="C45" t="n">
-        <v>1875.037481808058</v>
+        <v>551.9203009547886</v>
       </c>
       <c r="D45" t="n">
-        <v>1771.197523323343</v>
+        <v>448.0803424700736</v>
       </c>
       <c r="E45" t="n">
-        <v>1666.49558959628</v>
+        <v>343.3784087430108</v>
       </c>
       <c r="F45" t="n">
-        <v>1572.849759279184</v>
+        <v>249.7325784259149</v>
       </c>
       <c r="G45" t="n">
-        <v>1478.795987496788</v>
+        <v>155.678806643519</v>
       </c>
       <c r="H45" t="n">
-        <v>1425.419894259098</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I45" t="n">
-        <v>1425.419894259098</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="J45" t="n">
-        <v>1425.419894259098</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="K45" t="n">
-        <v>1425.419894259098</v>
+        <v>700.2342829360799</v>
       </c>
       <c r="L45" t="n">
-        <v>2225.861506656901</v>
+        <v>700.2342829360799</v>
       </c>
       <c r="M45" t="n">
-        <v>3026.303119054704</v>
+        <v>700.2342829360799</v>
       </c>
       <c r="N45" t="n">
-        <v>3152.088214754904</v>
+        <v>700.2342829360799</v>
       </c>
       <c r="O45" t="n">
-        <v>3152.088214754904</v>
+        <v>700.2342829360799</v>
       </c>
       <c r="P45" t="n">
-        <v>3152.088214754904</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="Q45" t="n">
-        <v>3152.088214754904</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="R45" t="n">
-        <v>3234.107524839607</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="S45" t="n">
-        <v>3152.783277400862</v>
+        <v>1829.666096547593</v>
       </c>
       <c r="T45" t="n">
-        <v>3010.90334169854</v>
+        <v>1687.786160845271</v>
       </c>
       <c r="U45" t="n">
-        <v>2826.135145618177</v>
+        <v>1503.017964764908</v>
       </c>
       <c r="V45" t="n">
-        <v>2621.162006757443</v>
+        <v>1298.044825904174</v>
       </c>
       <c r="W45" t="n">
-        <v>2424.64062959066</v>
+        <v>1101.523448737391</v>
       </c>
       <c r="X45" t="n">
-        <v>2261.163283357324</v>
+        <v>938.0461025040541</v>
       </c>
       <c r="Y45" t="n">
-        <v>2121.470394710616</v>
+        <v>798.3532138573465</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>1776.658691161806</v>
+        <v>612.3452565994986</v>
       </c>
       <c r="C46" t="n">
-        <v>1604.686128040722</v>
+        <v>440.3726934784146</v>
       </c>
       <c r="D46" t="n">
-        <v>1441.369355167493</v>
+        <v>440.3726934784146</v>
       </c>
       <c r="E46" t="n">
-        <v>1441.369355167493</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="F46" t="n">
-        <v>1297.259334178049</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="G46" t="n">
-        <v>1297.259334178049</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H46" t="n">
-        <v>1153.463065686203</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I46" t="n">
-        <v>1053.694497426479</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J46" t="n">
-        <v>1111.185825650637</v>
+        <v>159.7940416299866</v>
       </c>
       <c r="K46" t="n">
-        <v>1337.713426856474</v>
+        <v>386.3216428358238</v>
       </c>
       <c r="L46" t="n">
-        <v>1692.402748150895</v>
+        <v>741.0109641302445</v>
       </c>
       <c r="M46" t="n">
-        <v>2083.588543121146</v>
+        <v>1132.196759100495</v>
       </c>
       <c r="N46" t="n">
-        <v>2461.080053997181</v>
+        <v>1509.688269976531</v>
       </c>
       <c r="O46" t="n">
-        <v>2816.508182676945</v>
+        <v>1865.116398656294</v>
       </c>
       <c r="P46" t="n">
-        <v>3107.107394598846</v>
+        <v>2155.715610578195</v>
       </c>
       <c r="Q46" t="n">
-        <v>3234.107524839607</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="R46" t="n">
-        <v>3234.107524839607</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S46" t="n">
-        <v>3234.107524839607</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="T46" t="n">
-        <v>2990.768177065507</v>
+        <v>2039.376393044857</v>
       </c>
       <c r="U46" t="n">
-        <v>2710.583728565811</v>
+        <v>1759.191944545161</v>
       </c>
       <c r="V46" t="n">
-        <v>2710.583728565811</v>
+        <v>1477.48047715319</v>
       </c>
       <c r="W46" t="n">
-        <v>2435.731324738324</v>
+        <v>1271.417890176017</v>
       </c>
       <c r="X46" t="n">
-        <v>2193.16742818413</v>
+        <v>1028.853993621822</v>
       </c>
       <c r="Y46" t="n">
-        <v>1966.824659873872</v>
+        <v>802.5112253115642</v>
       </c>
     </row>
   </sheetData>
@@ -7979,19 +7981,19 @@
         <v>29.41995948558652</v>
       </c>
       <c r="K2" t="n">
-        <v>450.7747902674474</v>
+        <v>519.5412919487776</v>
       </c>
       <c r="L2" t="n">
-        <v>38.31204243262292</v>
+        <v>522.0887335865912</v>
       </c>
       <c r="M2" t="n">
-        <v>593.6590760150259</v>
+        <v>521.2079540534</v>
       </c>
       <c r="N2" t="n">
-        <v>593.5074359500402</v>
+        <v>501.5097810124963</v>
       </c>
       <c r="O2" t="n">
-        <v>593.6187724716183</v>
+        <v>37.3909593560241</v>
       </c>
       <c r="P2" t="n">
         <v>37.5753618102313</v>
@@ -8000,7 +8002,7 @@
         <v>36.12467460459804</v>
       </c>
       <c r="R2" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -8058,22 +8060,22 @@
         <v>20.61111433333334</v>
       </c>
       <c r="K3" t="n">
-        <v>22.39923383333334</v>
+        <v>506.1759249873015</v>
       </c>
       <c r="L3" t="n">
-        <v>578.7428998298237</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M3" t="n">
-        <v>579.3245936279221</v>
+        <v>506.8734716662962</v>
       </c>
       <c r="N3" t="n">
-        <v>577.5708413291358</v>
+        <v>505.1197193675099</v>
       </c>
       <c r="O3" t="n">
         <v>23.17188972222222</v>
       </c>
       <c r="P3" t="n">
-        <v>180.0446044646217</v>
+        <v>397.3979703494995</v>
       </c>
       <c r="Q3" t="n">
         <v>22.7470382889785</v>
@@ -8134,10 +8136,10 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>78.70880469517259</v>
+        <v>20.63675598390187</v>
       </c>
       <c r="K4" t="n">
-        <v>249.7804132464869</v>
+        <v>20.97529217030992</v>
       </c>
       <c r="L4" t="n">
         <v>380.1908016072373</v>
@@ -8216,19 +8218,19 @@
         <v>395.6860795026527</v>
       </c>
       <c r="K5" t="n">
-        <v>35.76460079480934</v>
+        <v>591.9924139104035</v>
       </c>
       <c r="L5" t="n">
-        <v>594.539855548217</v>
+        <v>87.05611188819479</v>
       </c>
       <c r="M5" t="n">
-        <v>204.9191049629863</v>
+        <v>593.6590760150259</v>
       </c>
       <c r="N5" t="n">
         <v>593.5074359500402</v>
       </c>
       <c r="O5" t="n">
-        <v>593.6187724716183</v>
+        <v>37.3909593560241</v>
       </c>
       <c r="P5" t="n">
         <v>37.5753618102313</v>
@@ -8237,7 +8239,7 @@
         <v>36.12467460459804</v>
       </c>
       <c r="R5" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -8292,16 +8294,16 @@
         <v>23.69424832768873</v>
       </c>
       <c r="J6" t="n">
-        <v>295.0530226965566</v>
+        <v>20.61111433333334</v>
       </c>
       <c r="K6" t="n">
         <v>578.6270469489275</v>
       </c>
       <c r="L6" t="n">
-        <v>578.7428998298237</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M6" t="n">
-        <v>23.09678051232798</v>
+        <v>178.3948923327717</v>
       </c>
       <c r="N6" t="n">
         <v>21.34302821354166</v>
@@ -8310,13 +8312,13 @@
         <v>23.17188972222222</v>
       </c>
       <c r="P6" t="n">
-        <v>454.308647639304</v>
+        <v>577.9986543204228</v>
       </c>
       <c r="Q6" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R6" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -8450,19 +8452,19 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>395.6860795026527</v>
+        <v>29.41995948558652</v>
       </c>
       <c r="K8" t="n">
         <v>591.9924139104035</v>
       </c>
       <c r="L8" t="n">
-        <v>594.539855548217</v>
+        <v>453.322231905261</v>
       </c>
       <c r="M8" t="n">
         <v>37.43126289943181</v>
       </c>
       <c r="N8" t="n">
-        <v>86.02369229001789</v>
+        <v>593.5074359500402</v>
       </c>
       <c r="O8" t="n">
         <v>593.6187724716183</v>
@@ -8529,31 +8531,31 @@
         <v>16.17238675</v>
       </c>
       <c r="J9" t="n">
-        <v>295.0530226965566</v>
+        <v>20.61111433333334</v>
       </c>
       <c r="K9" t="n">
         <v>578.6270469489275</v>
       </c>
       <c r="L9" t="n">
-        <v>22.51508671422956</v>
+        <v>185.3350601123618</v>
       </c>
       <c r="M9" t="n">
         <v>23.09678051232798</v>
       </c>
       <c r="N9" t="n">
-        <v>548.7966943283913</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O9" t="n">
         <v>23.17188972222222</v>
       </c>
       <c r="P9" t="n">
-        <v>21.77084120482866</v>
+        <v>577.9986543204228</v>
       </c>
       <c r="Q9" t="n">
         <v>491.5808533018869</v>
       </c>
       <c r="R9" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -8687,31 +8689,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>395.6860795026527</v>
+        <v>386.8988393430025</v>
       </c>
       <c r="K11" t="n">
         <v>758.5002654165255</v>
       </c>
       <c r="L11" t="n">
-        <v>414.9524948295036</v>
+        <v>977.3272420480539</v>
       </c>
       <c r="M11" t="n">
-        <v>37.43126289943181</v>
+        <v>1051.861668373228</v>
       </c>
       <c r="N11" t="n">
-        <v>845.8065040443479</v>
+        <v>37.27962283444602</v>
       </c>
       <c r="O11" t="n">
-        <v>845.9178405659259</v>
+        <v>891.0724241548241</v>
       </c>
       <c r="P11" t="n">
-        <v>37.5753618102313</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q11" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R11" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8766,25 +8768,25 @@
         <v>16.17238675</v>
       </c>
       <c r="J12" t="n">
-        <v>295.0530226965566</v>
+        <v>20.61111433333334</v>
       </c>
       <c r="K12" t="n">
-        <v>42.95560945415946</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L12" t="n">
-        <v>831.0419679241314</v>
+        <v>152.7047407943309</v>
       </c>
       <c r="M12" t="n">
         <v>23.09678051232798</v>
       </c>
       <c r="N12" t="n">
-        <v>21.34302821354166</v>
+        <v>1121.661155963915</v>
       </c>
       <c r="O12" t="n">
         <v>23.17188972222222</v>
       </c>
       <c r="P12" t="n">
-        <v>745.2028786174529</v>
+        <v>21.77084120482866</v>
       </c>
       <c r="Q12" t="n">
         <v>22.7470382889785</v>
@@ -8924,28 +8926,28 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>395.6860795026527</v>
+        <v>29.41995948558652</v>
       </c>
       <c r="K14" t="n">
-        <v>326.6138366035045</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L14" t="n">
-        <v>38.31204243262292</v>
+        <v>229.9501690078907</v>
       </c>
       <c r="M14" t="n">
-        <v>845.9581441093336</v>
+        <v>1051.861668373228</v>
       </c>
       <c r="N14" t="n">
-        <v>845.8065040443479</v>
+        <v>1023.391803124043</v>
       </c>
       <c r="O14" t="n">
-        <v>845.9178405659259</v>
+        <v>891.0724241548241</v>
       </c>
       <c r="P14" t="n">
-        <v>37.5753618102313</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q14" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R14" t="n">
         <v>153.7764225027789</v>
@@ -9003,25 +9005,25 @@
         <v>16.17238675</v>
       </c>
       <c r="J15" t="n">
-        <v>295.0530226965566</v>
+        <v>20.61111433333334</v>
       </c>
       <c r="K15" t="n">
         <v>22.39923383333334</v>
       </c>
       <c r="L15" t="n">
-        <v>22.51508671422956</v>
+        <v>867.7664080100944</v>
       </c>
       <c r="M15" t="n">
-        <v>767.0851935457783</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N15" t="n">
-        <v>829.8699094234435</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O15" t="n">
-        <v>23.17188972222222</v>
+        <v>281.4457336203087</v>
       </c>
       <c r="P15" t="n">
-        <v>21.77084120482866</v>
+        <v>745.2028786174529</v>
       </c>
       <c r="Q15" t="n">
         <v>22.7470382889785</v>
@@ -9161,7 +9163,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>395.6860795026527</v>
+        <v>29.41995948558652</v>
       </c>
       <c r="K17" t="n">
         <v>35.76460079480934</v>
@@ -9176,7 +9178,7 @@
         <v>1023.391803124043</v>
       </c>
       <c r="O17" t="n">
-        <v>500.1648957193109</v>
+        <v>891.0724241548241</v>
       </c>
       <c r="P17" t="n">
         <v>753.0089771212694</v>
@@ -9185,7 +9187,7 @@
         <v>496.8170781441769</v>
       </c>
       <c r="R17" t="n">
-        <v>153.7764225027789</v>
+        <v>129.1350140843319</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9240,7 +9242,7 @@
         <v>16.17238675</v>
       </c>
       <c r="J18" t="n">
-        <v>295.0530226965566</v>
+        <v>20.61111433333334</v>
       </c>
       <c r="K18" t="n">
         <v>22.39923383333334</v>
@@ -9252,13 +9254,13 @@
         <v>23.09678051232798</v>
       </c>
       <c r="N18" t="n">
-        <v>21.34302821354166</v>
+        <v>949.8342934347922</v>
       </c>
       <c r="O18" t="n">
         <v>921.6378271075471</v>
       </c>
       <c r="P18" t="n">
-        <v>675.8201980628561</v>
+        <v>21.77084120482866</v>
       </c>
       <c r="Q18" t="n">
         <v>22.7470382889785</v>
@@ -9404,7 +9406,7 @@
         <v>758.5002654165255</v>
       </c>
       <c r="L20" t="n">
-        <v>977.3272420480539</v>
+        <v>229.9501690078907</v>
       </c>
       <c r="M20" t="n">
         <v>1051.861668373228</v>
@@ -9416,13 +9418,13 @@
         <v>891.0724241548241</v>
       </c>
       <c r="P20" t="n">
-        <v>585.0680802286672</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q20" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R20" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9477,7 +9479,7 @@
         <v>16.17238675</v>
       </c>
       <c r="J21" t="n">
-        <v>295.0530226965566</v>
+        <v>20.61111433333334</v>
       </c>
       <c r="K21" t="n">
         <v>22.39923383333334</v>
@@ -9486,19 +9488,19 @@
         <v>22.51508671422956</v>
       </c>
       <c r="M21" t="n">
-        <v>475.2939470053066</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N21" t="n">
-        <v>1121.661155963915</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O21" t="n">
-        <v>23.17188972222222</v>
+        <v>657.8632399032651</v>
       </c>
       <c r="P21" t="n">
-        <v>21.77084120482866</v>
+        <v>745.2028786174529</v>
       </c>
       <c r="Q21" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R21" t="n">
         <v>23.67291939414415</v>
@@ -9723,10 +9725,10 @@
         <v>22.51508671422956</v>
       </c>
       <c r="M24" t="n">
-        <v>749.7358553685286</v>
+        <v>1089.749849175</v>
       </c>
       <c r="N24" t="n">
-        <v>1121.661155963915</v>
+        <v>781.6471621574452</v>
       </c>
       <c r="O24" t="n">
         <v>23.17188972222222</v>
@@ -9960,19 +9962,19 @@
         <v>22.51508671422956</v>
       </c>
       <c r="M27" t="n">
-        <v>749.7358553685299</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N27" t="n">
         <v>1121.661155963915</v>
       </c>
       <c r="O27" t="n">
-        <v>23.17188972222222</v>
+        <v>280.9771495655156</v>
       </c>
       <c r="P27" t="n">
         <v>21.77084120482866</v>
       </c>
       <c r="Q27" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R27" t="n">
         <v>23.67291939414415</v>
@@ -10197,10 +10199,10 @@
         <v>22.51508671422956</v>
       </c>
       <c r="M30" t="n">
-        <v>1089.749849175</v>
+        <v>749.7358553685299</v>
       </c>
       <c r="N30" t="n">
-        <v>781.6471621574452</v>
+        <v>1121.661155963915</v>
       </c>
       <c r="O30" t="n">
         <v>23.17188972222222</v>
@@ -10346,10 +10348,10 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>395.6860795026527</v>
+        <v>29.41995948558652</v>
       </c>
       <c r="K32" t="n">
-        <v>35.76460079480934</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L32" t="n">
         <v>977.3272420480539</v>
@@ -10364,10 +10366,10 @@
         <v>891.0724241548241</v>
       </c>
       <c r="P32" t="n">
-        <v>753.0089771212694</v>
+        <v>466.324307620685</v>
       </c>
       <c r="Q32" t="n">
-        <v>105.9095497086638</v>
+        <v>36.12467460459804</v>
       </c>
       <c r="R32" t="n">
         <v>153.7764225027789</v>
@@ -10434,13 +10436,13 @@
         <v>22.51508671422956</v>
       </c>
       <c r="M33" t="n">
-        <v>951.5880457335786</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N33" t="n">
-        <v>21.34302821354166</v>
+        <v>1121.661155963915</v>
       </c>
       <c r="O33" t="n">
-        <v>921.6378271075471</v>
+        <v>749.810964578424</v>
       </c>
       <c r="P33" t="n">
         <v>21.77084120482866</v>
@@ -10586,7 +10588,7 @@
         <v>395.6860795026527</v>
       </c>
       <c r="K35" t="n">
-        <v>758.5002654165255</v>
+        <v>35.76460079480934</v>
       </c>
       <c r="L35" t="n">
         <v>977.3272420480539</v>
@@ -10601,13 +10603,13 @@
         <v>891.0724241548241</v>
       </c>
       <c r="P35" t="n">
-        <v>100.0581876036184</v>
+        <v>480.8452212937382</v>
       </c>
       <c r="Q35" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R35" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10659,7 +10661,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J36" t="n">
         <v>20.61111433333334</v>
@@ -10674,7 +10676,7 @@
         <v>23.09678051232798</v>
       </c>
       <c r="N36" t="n">
-        <v>270.5370846943451</v>
+        <v>345.8630110810016</v>
       </c>
       <c r="O36" t="n">
         <v>921.6378271075471</v>
@@ -10686,7 +10688,7 @@
         <v>22.7470382889785</v>
       </c>
       <c r="R36" t="n">
-        <v>106.5207073584907</v>
+        <v>23.67291939414415</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10820,7 +10822,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>395.6860795026527</v>
+        <v>29.41995948558652</v>
       </c>
       <c r="K38" t="n">
         <v>758.5002654165255</v>
@@ -10832,19 +10834,19 @@
         <v>1051.861668373228</v>
       </c>
       <c r="N38" t="n">
-        <v>1023.391803124043</v>
+        <v>276.0147300838795</v>
       </c>
       <c r="O38" t="n">
         <v>891.0724241548241</v>
       </c>
       <c r="P38" t="n">
-        <v>37.5753618102313</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q38" t="n">
-        <v>217.3512730059682</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R38" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10896,34 +10898,34 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>23.69424832768873</v>
+        <v>16.17238675</v>
       </c>
       <c r="J39" t="n">
-        <v>295.0530226965566</v>
+        <v>20.61111433333334</v>
       </c>
       <c r="K39" t="n">
-        <v>618.848654609434</v>
+        <v>22.39923383333334</v>
       </c>
       <c r="L39" t="n">
         <v>22.51508671422956</v>
       </c>
       <c r="M39" t="n">
-        <v>23.09678051232798</v>
+        <v>1089.749849175</v>
       </c>
       <c r="N39" t="n">
         <v>21.34302821354166</v>
       </c>
       <c r="O39" t="n">
-        <v>23.17188972222222</v>
+        <v>783.4760236661258</v>
       </c>
       <c r="P39" t="n">
-        <v>418.6332501171365</v>
+        <v>21.77084120482866</v>
       </c>
       <c r="Q39" t="n">
-        <v>491.5808533018869</v>
+        <v>22.7470382889785</v>
       </c>
       <c r="R39" t="n">
-        <v>106.5207073584907</v>
+        <v>23.67291939414415</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11063,19 +11065,19 @@
         <v>758.5002654165255</v>
       </c>
       <c r="L41" t="n">
-        <v>846.8389236425247</v>
+        <v>977.3272420480539</v>
       </c>
       <c r="M41" t="n">
-        <v>845.9581441093336</v>
+        <v>1051.861668373228</v>
       </c>
       <c r="N41" t="n">
-        <v>532.6638478393094</v>
+        <v>1023.391803124043</v>
       </c>
       <c r="O41" t="n">
-        <v>37.3909593560241</v>
+        <v>891.0724241548241</v>
       </c>
       <c r="P41" t="n">
-        <v>37.5753618102313</v>
+        <v>218.8019602116015</v>
       </c>
       <c r="Q41" t="n">
         <v>36.12467460459804</v>
@@ -11139,16 +11141,16 @@
         <v>20.61111433333334</v>
       </c>
       <c r="K42" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L42" t="n">
-        <v>232.4185269010014</v>
+        <v>867.7664080100944</v>
       </c>
       <c r="M42" t="n">
-        <v>831.6236617222298</v>
+        <v>408.3532410469382</v>
       </c>
       <c r="N42" t="n">
-        <v>829.8699094234435</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O42" t="n">
         <v>23.17188972222222</v>
@@ -11294,31 +11296,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K44" t="n">
-        <v>35.76460079480934</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L44" t="n">
-        <v>695.4273982583842</v>
+        <v>977.3272420480539</v>
       </c>
       <c r="M44" t="n">
-        <v>845.9581441093336</v>
+        <v>1051.861668373228</v>
       </c>
       <c r="N44" t="n">
-        <v>845.8065040443479</v>
+        <v>1023.391803124043</v>
       </c>
       <c r="O44" t="n">
-        <v>845.9178405659259</v>
+        <v>891.0724241548241</v>
       </c>
       <c r="P44" t="n">
-        <v>37.5753618102313</v>
+        <v>218.8019602116015</v>
       </c>
       <c r="Q44" t="n">
         <v>36.12467460459804</v>
       </c>
       <c r="R44" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11370,31 +11372,31 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J45" t="n">
         <v>20.61111433333334</v>
       </c>
       <c r="K45" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L45" t="n">
-        <v>831.0419679241314</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M45" t="n">
-        <v>831.6236617222298</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N45" t="n">
-        <v>148.3986804359665</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O45" t="n">
         <v>23.17188972222222</v>
       </c>
       <c r="P45" t="n">
-        <v>21.77084120482866</v>
+        <v>693.0751584803598</v>
       </c>
       <c r="Q45" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R45" t="n">
         <v>106.5207073584907</v>
@@ -23255,7 +23257,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -23273,10 +23275,10 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>41.76600871414843</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23306,16 +23308,16 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>255.7713603095518</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
@@ -23324,7 +23326,7 @@
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -23492,7 +23494,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -23549,19 +23551,19 @@
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>255.7713603095518</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>344.6655695705988</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -23698,13 +23700,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>207.1065456054744</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -23713,13 +23715,13 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>198.0291291640738</v>
       </c>
       <c r="X16" t="n">
         <v>240.1382575886529</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="17">
@@ -23887,7 +23889,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>43.53581317547591</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -23905,7 +23907,7 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>142.3583058069271</v>
+        <v>115.7088052046616</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -23935,28 +23937,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S19" t="n">
         <v>168.4336970060565</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W19" t="n">
-        <v>272.1038797892083</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -24127,25 +24129,25 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>53.69897985362982</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>59.64236734312286</v>
       </c>
       <c r="F22" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,13 +24174,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T22" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24193,7 +24195,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24376,7 +24378,7 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -24412,19 +24414,19 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>168.4336970060565</v>
+        <v>60.11859830455764</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U25" t="n">
         <v>277.3826040146988</v>
       </c>
       <c r="V25" t="n">
-        <v>240.1003353753617</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -24598,13 +24600,13 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>164.546123788675</v>
@@ -24616,10 +24618,10 @@
         <v>164.5944000087102</v>
       </c>
       <c r="H28" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,10 +24648,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24661,13 +24663,13 @@
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>118.5577190788908</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>118.1042793967421</v>
       </c>
     </row>
     <row r="29">
@@ -24835,7 +24837,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>110.0981677402028</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
@@ -24847,10 +24849,10 @@
         <v>164.546123788675</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H31" t="n">
         <v>142.3583058069271</v>
@@ -24883,13 +24885,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>157.3615427560406</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -25078,7 +25080,7 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
@@ -25090,7 +25092,7 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>64.27384651493963</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>98.77088257712678</v>
@@ -25123,7 +25125,7 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25132,16 +25134,16 @@
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>125.8389504673944</v>
       </c>
       <c r="X34" t="n">
         <v>240.1382575886529</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="35">
@@ -25309,7 +25311,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>12.318215958477</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
@@ -25318,19 +25320,19 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25366,13 +25368,13 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>59.37454630891094</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X37" t="n">
         <v>240.1382575886529</v>
@@ -25546,7 +25548,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
@@ -25594,19 +25596,19 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T40" t="n">
         <v>240.905954296359</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>170.5238172955577</v>
       </c>
       <c r="V40" t="n">
-        <v>197.2614324563675</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
@@ -25628,13 +25630,13 @@
         <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>288.9629366989191</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
         <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
         <v>0</v>
@@ -25676,16 +25678,16 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
         <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>255.7713603095518</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
         <v>0</v>
@@ -25694,7 +25696,7 @@
         <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -25783,28 +25785,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>40.31706800555304</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25840,13 +25842,13 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>79.23215548632197</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
@@ -25862,7 +25864,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
         <v>0</v>
@@ -25877,13 +25879,13 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>400.2956717864458</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25913,13 +25915,13 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>255.7713603095518</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -25931,7 +25933,7 @@
         <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>396.6687549973739</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -26026,22 +26028,22 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E46" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>27.47423570363571</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>164.5944000087102</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26080,10 +26082,10 @@
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>68.1019186818109</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -26123,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>579188.5243207687</v>
+        <v>576959.4887115202</v>
       </c>
     </row>
     <row r="3">
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>427756.4202654696</v>
+        <v>576877.2231745271</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>427756.4202654696</v>
+        <v>576877.2231745271</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>576877.2231745271</v>
+        <v>576877.2231745272</v>
       </c>
     </row>
     <row r="9">
@@ -26203,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>576877.2231745272</v>
+        <v>576877.2231745271</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>576877.2231745272</v>
+        <v>576877.2231745271</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>576877.2231745269</v>
+        <v>576877.2231745271</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>427756.4202654695</v>
+        <v>576877.2231745272</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>427756.4202654696</v>
+        <v>576877.2231745271</v>
       </c>
     </row>
   </sheetData>
@@ -26311,7 +26313,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>465954.1344089306</v>
+        <v>465954.1344089303</v>
       </c>
       <c r="C2" t="n">
         <v>465954.1344089304</v>
@@ -26320,40 +26322,40 @@
         <v>465954.1344089304</v>
       </c>
       <c r="E2" t="n">
-        <v>333410.0096021967</v>
+        <v>449624.3225099579</v>
       </c>
       <c r="F2" t="n">
-        <v>333410.0096021966</v>
+        <v>449624.3225099579</v>
       </c>
       <c r="G2" t="n">
-        <v>449624.322509958</v>
+        <v>449624.3225099578</v>
       </c>
       <c r="H2" t="n">
-        <v>449624.3225099579</v>
+        <v>449624.3225099578</v>
       </c>
       <c r="I2" t="n">
         <v>449624.3225099579</v>
       </c>
       <c r="J2" t="n">
+        <v>449624.3225099579</v>
+      </c>
+      <c r="K2" t="n">
+        <v>449624.3225099581</v>
+      </c>
+      <c r="L2" t="n">
+        <v>449624.3225099579</v>
+      </c>
+      <c r="M2" t="n">
+        <v>449624.3225099579</v>
+      </c>
+      <c r="N2" t="n">
+        <v>449624.3225099578</v>
+      </c>
+      <c r="O2" t="n">
         <v>449624.322509958</v>
       </c>
-      <c r="K2" t="n">
-        <v>449624.322509958</v>
-      </c>
-      <c r="L2" t="n">
-        <v>449624.3225099578</v>
-      </c>
-      <c r="M2" t="n">
-        <v>449624.3225099578</v>
-      </c>
-      <c r="N2" t="n">
-        <v>449624.322509958</v>
-      </c>
-      <c r="O2" t="n">
-        <v>333410.0096021966</v>
-      </c>
       <c r="P2" t="n">
-        <v>333410.0096021967</v>
+        <v>449624.3225099579</v>
       </c>
     </row>
     <row r="3">
@@ -26363,22 +26365,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>186404.7334147372</v>
+        <v>162124.6960695913</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>23406.83367361215</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>75330.95115346223</v>
+        <v>215739.3565566406</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>128890.3998115405</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26387,16 +26389,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>145533.6699348165</v>
+        <v>126577.2685802889</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>18646.60035701974</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>62873.93696537382</v>
+        <v>180063.8714551677</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,7 +26417,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>165375.7390424566</v>
+        <v>179728.0181786382</v>
       </c>
       <c r="C4" t="n">
         <v>165375.7390424566</v>
@@ -26424,40 +26426,40 @@
         <v>165375.7390424566</v>
       </c>
       <c r="E4" t="n">
-        <v>32409.76799618241</v>
+        <v>43748.40045389551</v>
       </c>
       <c r="F4" t="n">
-        <v>32409.76799618241</v>
+        <v>43748.40045389551</v>
       </c>
       <c r="G4" t="n">
-        <v>43748.40045389557</v>
+        <v>43748.40045389553</v>
       </c>
       <c r="H4" t="n">
-        <v>43748.40045389556</v>
+        <v>43748.40045389552</v>
       </c>
       <c r="I4" t="n">
         <v>43748.40045389556</v>
       </c>
       <c r="J4" t="n">
-        <v>43748.40045389556</v>
+        <v>43748.40045389557</v>
       </c>
       <c r="K4" t="n">
         <v>43748.40045389556</v>
       </c>
       <c r="L4" t="n">
-        <v>43748.40045389556</v>
+        <v>43748.40045389557</v>
       </c>
       <c r="M4" t="n">
         <v>43748.40045389556</v>
       </c>
       <c r="N4" t="n">
+        <v>43748.40045389556</v>
+      </c>
+      <c r="O4" t="n">
         <v>43748.40045389557</v>
       </c>
-      <c r="O4" t="n">
-        <v>32409.76799618241</v>
-      </c>
       <c r="P4" t="n">
-        <v>32409.76799618241</v>
+        <v>43748.40045389557</v>
       </c>
     </row>
     <row r="5">
@@ -26467,7 +26469,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>67446.25103742813</v>
+        <v>63041.22282216126</v>
       </c>
       <c r="C5" t="n">
         <v>67446.25103742813</v>
@@ -26476,10 +26478,10 @@
         <v>67446.25103742813</v>
       </c>
       <c r="E5" t="n">
-        <v>49158.43437756203</v>
+        <v>77750.06218842969</v>
       </c>
       <c r="F5" t="n">
-        <v>49158.43437756203</v>
+        <v>77750.06218842969</v>
       </c>
       <c r="G5" t="n">
         <v>77750.06218842969</v>
@@ -26500,16 +26502,16 @@
         <v>77750.06218842969</v>
       </c>
       <c r="M5" t="n">
-        <v>77750.06218842967</v>
+        <v>77750.06218842969</v>
       </c>
       <c r="N5" t="n">
         <v>77750.06218842969</v>
       </c>
       <c r="O5" t="n">
-        <v>49158.43437756203</v>
+        <v>77750.06218842969</v>
       </c>
       <c r="P5" t="n">
-        <v>49158.43437756203</v>
+        <v>77750.06218842969</v>
       </c>
     </row>
     <row r="6">
@@ -26519,22 +26521,22 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>46727.41091430865</v>
+        <v>61060.19733853954</v>
       </c>
       <c r="C6" t="n">
-        <v>233132.1443290456</v>
+        <v>209725.3106554335</v>
       </c>
       <c r="D6" t="n">
         <v>233132.1443290456</v>
       </c>
       <c r="E6" t="n">
-        <v>176510.85607499</v>
+        <v>112386.5033109921</v>
       </c>
       <c r="F6" t="n">
-        <v>251841.8072284522</v>
+        <v>328125.8598676327</v>
       </c>
       <c r="G6" t="n">
-        <v>199235.4600560922</v>
+        <v>328125.8598676326</v>
       </c>
       <c r="H6" t="n">
         <v>328125.8598676326</v>
@@ -26543,25 +26545,25 @@
         <v>328125.8598676327</v>
       </c>
       <c r="J6" t="n">
-        <v>182592.1899328163</v>
+        <v>201548.5912873438</v>
       </c>
       <c r="K6" t="n">
+        <v>309479.259510613</v>
+      </c>
+      <c r="L6" t="n">
         <v>328125.8598676327</v>
       </c>
-      <c r="L6" t="n">
+      <c r="M6" t="n">
+        <v>148061.988412465</v>
+      </c>
+      <c r="N6" t="n">
+        <v>328125.8598676325</v>
+      </c>
+      <c r="O6" t="n">
+        <v>328125.8598676327</v>
+      </c>
+      <c r="P6" t="n">
         <v>328125.8598676326</v>
-      </c>
-      <c r="M6" t="n">
-        <v>265251.9229022588</v>
-      </c>
-      <c r="N6" t="n">
-        <v>328125.8598676327</v>
-      </c>
-      <c r="O6" t="n">
-        <v>251841.8072284522</v>
-      </c>
-      <c r="P6" t="n">
-        <v>251841.8072284522</v>
       </c>
     </row>
   </sheetData>
@@ -26787,7 +26789,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>556.2278131155941</v>
+        <v>483.7766911539682</v>
       </c>
       <c r="C4" t="n">
         <v>556.2278131155941</v>
@@ -26796,10 +26798,10 @@
         <v>556.2278131155941</v>
       </c>
       <c r="E4" t="n">
-        <v>808.5268812099018</v>
+        <v>1278.783917572857</v>
       </c>
       <c r="F4" t="n">
-        <v>808.5268812099018</v>
+        <v>1278.783917572857</v>
       </c>
       <c r="G4" t="n">
         <v>1278.783917572857</v>
@@ -26826,10 +26828,10 @@
         <v>1278.783917572857</v>
       </c>
       <c r="O4" t="n">
-        <v>808.5268812099018</v>
+        <v>1278.783917572857</v>
       </c>
       <c r="P4" t="n">
-        <v>808.5268812099018</v>
+        <v>1278.783917572857</v>
       </c>
     </row>
   </sheetData>
@@ -27009,22 +27011,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>556.2278131155941</v>
+        <v>483.7766911539682</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>72.45112196162592</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>252.2990680943078</v>
+        <v>722.5561044572627</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>470.2570363629549</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27033,16 +27035,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>556.2278131155941</v>
+        <v>483.7766911539682</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>72.45112196162592</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>252.2990680943075</v>
+        <v>722.5561044572627</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27255,22 +27257,22 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>556.2278131155941</v>
+        <v>483.7766911539682</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>72.45112196162592</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>252.2990680943078</v>
+        <v>722.5561044572627</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>470.2570363629549</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27376,25 +27378,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>400</v>
+        <v>224.1006295357834</v>
       </c>
       <c r="C2" t="n">
         <v>400</v>
       </c>
       <c r="D2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E2" t="n">
         <v>400</v>
       </c>
-      <c r="E2" t="n">
-        <v>0</v>
-      </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
         <v>400</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I2" t="n">
         <v>34.5479025439635</v>
@@ -27427,10 +27429,10 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T2" t="n">
-        <v>159.8619465992154</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U2" t="n">
         <v>255.7713603095518</v>
@@ -27445,7 +27447,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27537,7 +27539,7 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D4" t="n">
         <v>161.683605144497</v>
@@ -27555,7 +27557,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>98.77088257712678</v>
+        <v>72.49884631551399</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27585,19 +27587,19 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T4" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>62.44410961849221</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X4" t="n">
         <v>240.1382575886529</v>
@@ -27613,16 +27615,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>400</v>
+        <v>206.2762395340009</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>400</v>
@@ -27631,7 +27633,7 @@
         <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>10.45284613863731</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I5" t="n">
         <v>34.5479025439635</v>
@@ -27667,22 +27669,22 @@
         <v>103.323621185591</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U5" t="n">
-        <v>255.7713603095518</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="Y5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27771,28 +27773,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>23.51553615659805</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H7" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27828,10 +27830,10 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>138.1082446177538</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -27859,7 +27861,7 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>400</v>
@@ -27868,7 +27870,7 @@
         <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>237.8220101678111</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I8" t="n">
         <v>34.5479025439635</v>
@@ -27907,19 +27909,19 @@
         <v>218.7163152458132</v>
       </c>
       <c r="U8" t="n">
-        <v>255.7713603095518</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>353.914520725013</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X8" t="n">
         <v>400</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>206.276239534001</v>
       </c>
     </row>
     <row r="9">
@@ -28008,22 +28010,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>71.02393837649923</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>64.19216452218527</v>
       </c>
       <c r="D10" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -28068,13 +28070,13 @@
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -28624,7 +28626,7 @@
         <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>-1.13686837721616e-12</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
         <v>0</v>
@@ -28782,7 +28784,7 @@
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>3.770613451100265e-12</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -34699,19 +34701,19 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>415.010189472638</v>
+        <v>483.7766911539682</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>483.7766911539682</v>
       </c>
       <c r="M2" t="n">
-        <v>556.2278131155941</v>
+        <v>483.7766911539682</v>
       </c>
       <c r="N2" t="n">
-        <v>556.2278131155941</v>
+        <v>464.2301581780503</v>
       </c>
       <c r="O2" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -34720,7 +34722,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34778,22 +34780,22 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>483.7766911539682</v>
       </c>
       <c r="L3" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>556.2278131155941</v>
+        <v>483.7766911539682</v>
       </c>
       <c r="N3" t="n">
-        <v>556.2278131155941</v>
+        <v>483.7766911539682</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>158.2737632597931</v>
+        <v>375.6271291446708</v>
       </c>
       <c r="Q3" t="n">
         <v>0</v>
@@ -34854,10 +34856,10 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>58.07204871127072</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>228.8157587937749</v>
+        <v>0.0106377175979208</v>
       </c>
       <c r="L4" t="n">
         <v>358.2720417115361</v>
@@ -34936,19 +34938,19 @@
         <v>366.2661200170662</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="L5" t="n">
+        <v>48.74406945557187</v>
+      </c>
+      <c r="M5" t="n">
         <v>556.2278131155941</v>
-      </c>
-      <c r="M5" t="n">
-        <v>167.4878420635545</v>
       </c>
       <c r="N5" t="n">
         <v>556.2278131155941</v>
       </c>
       <c r="O5" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="P5" t="n">
         <v>0</v>
@@ -34957,7 +34959,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35012,31 +35014,31 @@
         <v>7.521861577688728</v>
       </c>
       <c r="J6" t="n">
-        <v>274.4419083632233</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>556.2278131155941</v>
       </c>
       <c r="L6" t="n">
+        <v>0</v>
+      </c>
+      <c r="M6" t="n">
+        <v>155.2981118204437</v>
+      </c>
+      <c r="N6" t="n">
+        <v>0</v>
+      </c>
+      <c r="O6" t="n">
+        <v>0</v>
+      </c>
+      <c r="P6" t="n">
         <v>556.2278131155941</v>
       </c>
-      <c r="M6" t="n">
-        <v>0</v>
-      </c>
-      <c r="N6" t="n">
-        <v>0</v>
-      </c>
-      <c r="O6" t="n">
-        <v>0</v>
-      </c>
-      <c r="P6" t="n">
-        <v>432.5378064344753</v>
-      </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -35170,19 +35172,19 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>366.2661200170662</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
         <v>556.2278131155941</v>
       </c>
       <c r="L8" t="n">
+        <v>415.0101894726381</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0</v>
+      </c>
+      <c r="N8" t="n">
         <v>556.2278131155941</v>
-      </c>
-      <c r="M8" t="n">
-        <v>0</v>
-      </c>
-      <c r="N8" t="n">
-        <v>48.74406945557187</v>
       </c>
       <c r="O8" t="n">
         <v>556.2278131155941</v>
@@ -35249,31 +35251,31 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>274.4419083632233</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>556.2278131155941</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>162.8199733981322</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>527.4536661148496</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="Q9" t="n">
         <v>468.8338150129084</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -35407,31 +35409,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>366.2661200170662</v>
+        <v>357.478879857416</v>
       </c>
       <c r="K11" t="n">
         <v>722.7356646217162</v>
       </c>
       <c r="L11" t="n">
-        <v>376.6404523968807</v>
+        <v>939.015199615431</v>
       </c>
       <c r="M11" t="n">
-        <v>0</v>
+        <v>1014.430405473796</v>
       </c>
       <c r="N11" t="n">
-        <v>808.5268812099018</v>
+        <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>808.5268812099018</v>
+        <v>853.6814647988001</v>
       </c>
       <c r="P11" t="n">
-        <v>0</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R11" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,25 +35488,25 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>274.4419083632233</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>20.55637562082613</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L12" t="n">
-        <v>808.5268812099018</v>
+        <v>130.1896540801013</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>1100.318127750374</v>
       </c>
       <c r="O12" t="n">
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>723.4320374126243</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
@@ -35644,28 +35646,28 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>366.2661200170662</v>
+        <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>290.8492358086951</v>
+        <v>722.7356646217162</v>
       </c>
       <c r="L14" t="n">
-        <v>0</v>
+        <v>191.6381265752678</v>
       </c>
       <c r="M14" t="n">
-        <v>808.5268812099018</v>
+        <v>1014.430405473796</v>
       </c>
       <c r="N14" t="n">
-        <v>808.5268812099018</v>
+        <v>986.1121802895968</v>
       </c>
       <c r="O14" t="n">
-        <v>808.5268812099018</v>
+        <v>853.6814647988001</v>
       </c>
       <c r="P14" t="n">
-        <v>0</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R14" t="n">
         <v>118.7437726079824</v>
@@ -35723,25 +35725,25 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>274.4419083632233</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>845.2513212958648</v>
       </c>
       <c r="M15" t="n">
-        <v>743.9884130334503</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>808.5268812099018</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>258.2738438980865</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>723.4320374126243</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
@@ -35881,7 +35883,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>366.2661200170662</v>
+        <v>0</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
@@ -35896,7 +35898,7 @@
         <v>986.1121802895968</v>
       </c>
       <c r="O17" t="n">
-        <v>462.7739363632869</v>
+        <v>853.6814647988001</v>
       </c>
       <c r="P17" t="n">
         <v>715.433615311038</v>
@@ -35905,7 +35907,7 @@
         <v>460.6924035395789</v>
       </c>
       <c r="R17" t="n">
-        <v>118.7437726079824</v>
+        <v>94.10236418953542</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,7 +35962,7 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>274.4419083632233</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -35972,13 +35974,13 @@
         <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>928.4912652212506</v>
       </c>
       <c r="O18" t="n">
         <v>898.4659373853249</v>
       </c>
       <c r="P18" t="n">
-        <v>654.0493568580274</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
@@ -36124,7 +36126,7 @@
         <v>722.7356646217162</v>
       </c>
       <c r="L20" t="n">
-        <v>939.015199615431</v>
+        <v>191.6381265752678</v>
       </c>
       <c r="M20" t="n">
         <v>1014.430405473796</v>
@@ -36136,13 +36138,13 @@
         <v>853.6814647988001</v>
       </c>
       <c r="P20" t="n">
-        <v>547.4927184184359</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36197,7 +36199,7 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>274.4419083632233</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -36206,19 +36208,19 @@
         <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>452.1971664929786</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>1100.318127750374</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>634.6913501810429</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>723.4320374126243</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36443,10 +36445,10 @@
         <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>726.6390748562006</v>
+        <v>1066.653068662672</v>
       </c>
       <c r="N24" t="n">
-        <v>1100.318127750374</v>
+        <v>760.3041339439036</v>
       </c>
       <c r="O24" t="n">
         <v>0</v>
@@ -36680,19 +36682,19 @@
         <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>726.6390748562019</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
         <v>1100.318127750374</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>257.8052598432934</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36917,10 +36919,10 @@
         <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>1066.653068662672</v>
+        <v>726.6390748562019</v>
       </c>
       <c r="N30" t="n">
-        <v>760.3041339439036</v>
+        <v>1100.318127750374</v>
       </c>
       <c r="O30" t="n">
         <v>0</v>
@@ -37066,10 +37068,10 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>366.2661200170662</v>
+        <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>0</v>
+        <v>722.7356646217162</v>
       </c>
       <c r="L32" t="n">
         <v>939.015199615431</v>
@@ -37084,10 +37086,10 @@
         <v>853.6814647988001</v>
       </c>
       <c r="P32" t="n">
-        <v>715.433615311038</v>
+        <v>428.7489458104537</v>
       </c>
       <c r="Q32" t="n">
-        <v>69.78487510406572</v>
+        <v>0</v>
       </c>
       <c r="R32" t="n">
         <v>118.7437726079824</v>
@@ -37154,13 +37156,13 @@
         <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>928.4912652212506</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>0</v>
+        <v>1100.318127750374</v>
       </c>
       <c r="O33" t="n">
-        <v>898.4659373853249</v>
+        <v>726.6390748562018</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
@@ -37306,7 +37308,7 @@
         <v>366.2661200170662</v>
       </c>
       <c r="K35" t="n">
-        <v>722.7356646217162</v>
+        <v>0</v>
       </c>
       <c r="L35" t="n">
         <v>939.015199615431</v>
@@ -37321,13 +37323,13 @@
         <v>853.6814647988001</v>
       </c>
       <c r="P35" t="n">
-        <v>62.48282579338712</v>
+        <v>443.2698594835069</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R35" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37379,7 +37381,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -37394,7 +37396,7 @@
         <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>249.1940564808034</v>
+        <v>324.5199828674599</v>
       </c>
       <c r="O36" t="n">
         <v>898.4659373853249</v>
@@ -37406,7 +37408,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>82.84778796434657</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37540,7 +37542,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>366.2661200170662</v>
+        <v>0</v>
       </c>
       <c r="K38" t="n">
         <v>722.7356646217162</v>
@@ -37552,19 +37554,19 @@
         <v>1014.430405473796</v>
       </c>
       <c r="N38" t="n">
-        <v>986.1121802895968</v>
+        <v>238.7351072494335</v>
       </c>
       <c r="O38" t="n">
         <v>853.6814647988001</v>
       </c>
       <c r="P38" t="n">
-        <v>0</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q38" t="n">
-        <v>181.2265984013702</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37616,34 +37618,34 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>7.521861577688728</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>274.4419083632233</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>596.4494207761006</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>1066.653068662672</v>
       </c>
       <c r="N39" t="n">
         <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>0</v>
+        <v>760.3041339439036</v>
       </c>
       <c r="P39" t="n">
-        <v>396.8624089123078</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>468.8338150129084</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>82.84778796434657</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37783,19 +37785,19 @@
         <v>722.7356646217162</v>
       </c>
       <c r="L41" t="n">
-        <v>808.5268812099018</v>
+        <v>939.015199615431</v>
       </c>
       <c r="M41" t="n">
-        <v>808.5268812099018</v>
+        <v>1014.430405473796</v>
       </c>
       <c r="N41" t="n">
-        <v>495.3842250048633</v>
+        <v>986.1121802895968</v>
       </c>
       <c r="O41" t="n">
-        <v>0</v>
+        <v>853.6814647988001</v>
       </c>
       <c r="P41" t="n">
-        <v>0</v>
+        <v>181.2265984013702</v>
       </c>
       <c r="Q41" t="n">
         <v>0</v>
@@ -37859,16 +37861,16 @@
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L42" t="n">
-        <v>209.9034401867719</v>
+        <v>845.2513212958648</v>
       </c>
       <c r="M42" t="n">
-        <v>808.5268812099018</v>
+        <v>385.2564605346102</v>
       </c>
       <c r="N42" t="n">
-        <v>808.5268812099018</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
         <v>0</v>
@@ -38014,31 +38016,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>722.7356646217162</v>
       </c>
       <c r="L44" t="n">
-        <v>657.1153558257613</v>
+        <v>939.015199615431</v>
       </c>
       <c r="M44" t="n">
-        <v>808.5268812099018</v>
+        <v>1014.430405473796</v>
       </c>
       <c r="N44" t="n">
-        <v>808.5268812099018</v>
+        <v>986.1121802895968</v>
       </c>
       <c r="O44" t="n">
-        <v>808.5268812099018</v>
+        <v>853.6814647988001</v>
       </c>
       <c r="P44" t="n">
-        <v>0</v>
+        <v>181.2265984013702</v>
       </c>
       <c r="Q44" t="n">
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38090,31 +38092,31 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L45" t="n">
-        <v>808.5268812099018</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>808.5268812099018</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>127.0556522224249</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>671.3043172755312</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R45" t="n">
         <v>82.84778796434657</v>

--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/90/Output_3_32.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/90/Output_3_32.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2024850.226631877</v>
+        <v>2024153.565426787</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>612367.9462114755</v>
+        <v>612367.9462114747</v>
       </c>
     </row>
     <row r="9">
@@ -658,13 +658,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>191.5492511128313</v>
+        <v>236.4192825513694</v>
       </c>
       <c r="C2" t="n">
         <v>22.63172268683286</v>
       </c>
       <c r="D2" t="n">
-        <v>419.0596946068497</v>
+        <v>19.05969460684969</v>
       </c>
       <c r="E2" t="n">
         <v>21.71717045362101</v>
@@ -679,7 +679,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -709,19 +709,19 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W2" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>407.6027988439302</v>
@@ -816,7 +816,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -825,7 +825,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>170.1431564831852</v>
@@ -837,7 +837,7 @@
         <v>142.3583058069271</v>
       </c>
       <c r="I4" t="n">
-        <v>26.27203626161279</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -867,7 +867,7 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T4" t="n">
         <v>240.905954296359</v>
@@ -879,13 +879,13 @@
         <v>278.8943527180514</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>224.0793406271554</v>
+        <v>162.6242329071206</v>
       </c>
     </row>
     <row r="5">
@@ -895,7 +895,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>209.3736411146139</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C5" t="n">
         <v>422.6317226868329</v>
@@ -904,7 +904,7 @@
         <v>419.0596946068497</v>
       </c>
       <c r="E5" t="n">
-        <v>421.717170453621</v>
+        <v>293.4009944882159</v>
       </c>
       <c r="F5" t="n">
         <v>20.87293999249374</v>
@@ -946,10 +946,10 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U5" t="n">
         <v>255.7713603095518</v>
@@ -964,7 +964,7 @@
         <v>7.602798843930202</v>
       </c>
       <c r="Y5" t="n">
-        <v>401.2838973446586</v>
+        <v>1.283897344658556</v>
       </c>
     </row>
     <row r="6">
@@ -1068,7 +1068,7 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H7" t="n">
         <v>142.3583058069271</v>
@@ -1101,25 +1101,25 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>240.905954296359</v>
+        <v>114.4491387262526</v>
       </c>
       <c r="U7" t="n">
-        <v>139.2743593969449</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W7" t="n">
         <v>272.1038797892121</v>
       </c>
       <c r="X7" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>224.0793406271554</v>
@@ -1144,7 +1144,7 @@
         <v>421.717170453621</v>
       </c>
       <c r="F8" t="n">
-        <v>20.87293999249374</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G8" t="n">
         <v>0.2956717864458369</v>
@@ -1189,7 +1189,7 @@
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>255.7713603095518</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -1198,10 +1198,10 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>7.602798843930202</v>
+        <v>57.09791961948172</v>
       </c>
       <c r="Y8" t="n">
-        <v>195.0076578106576</v>
+        <v>1.283897344658556</v>
       </c>
     </row>
     <row r="9">
@@ -1293,10 +1293,10 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>106.0606729676879</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>161.683605144497</v>
+        <v>149.7181052831742</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -1305,7 +1305,7 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H10" t="n">
         <v>142.3583058069271</v>
@@ -1338,7 +1338,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>46.56822717969858</v>
+        <v>-9.003997547551989e-13</v>
       </c>
       <c r="S10" t="n">
         <v>168.4336970060565</v>
@@ -1369,7 +1369,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>415.6498806486148</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C11" t="n">
         <v>422.6317226868329</v>
@@ -1378,19 +1378,19 @@
         <v>419.0596946068497</v>
       </c>
       <c r="E11" t="n">
-        <v>421.7171704536211</v>
+        <v>421.717170453622</v>
       </c>
       <c r="F11" t="n">
-        <v>420.8729399924938</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G11" t="n">
-        <v>400.2956717864459</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H11" t="n">
-        <v>294.8896947407051</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I11" t="n">
-        <v>34.54790254396425</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1426,16 +1426,16 @@
         <v>218.7163152458132</v>
       </c>
       <c r="U11" t="n">
-        <v>255.7713603095519</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V11" t="n">
-        <v>353.9145207250131</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W11" t="n">
         <v>392.4274362026566</v>
       </c>
       <c r="X11" t="n">
-        <v>407.6027988439303</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y11" t="n">
         <v>401.2838973446586</v>
@@ -1530,25 +1530,25 @@
         <v>188.264309024945</v>
       </c>
       <c r="C13" t="n">
-        <v>170.2528374898731</v>
+        <v>98.26334559068381</v>
       </c>
       <c r="D13" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G13" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1578,16 +1578,16 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V13" t="n">
-        <v>161.6737988100371</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W13" t="n">
         <v>272.1038797892121</v>
@@ -1606,7 +1606,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>415.6498806486148</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C14" t="n">
         <v>422.6317226868329</v>
@@ -1615,19 +1615,19 @@
         <v>419.0596946068497</v>
       </c>
       <c r="E14" t="n">
-        <v>421.7171704536211</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F14" t="n">
-        <v>420.8729399924938</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G14" t="n">
         <v>400.2956717864458</v>
       </c>
       <c r="H14" t="n">
-        <v>294.8896947407056</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I14" t="n">
-        <v>34.54790254396338</v>
+        <v>34.54790254396433</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1663,16 +1663,16 @@
         <v>218.7163152458132</v>
       </c>
       <c r="U14" t="n">
-        <v>255.7713603095519</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V14" t="n">
         <v>353.914520725013</v>
       </c>
       <c r="W14" t="n">
-        <v>392.4274362026574</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X14" t="n">
-        <v>407.6027988439303</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y14" t="n">
         <v>401.2838973446586</v>
@@ -1764,7 +1764,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C16" t="n">
         <v>170.2528374898731</v>
@@ -1815,7 +1815,7 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S16" t="n">
-        <v>168.4336970060565</v>
+        <v>109.0591506971457</v>
       </c>
       <c r="T16" t="n">
         <v>240.905954296359</v>
@@ -1824,16 +1824,16 @@
         <v>277.3826040146988</v>
       </c>
       <c r="V16" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>74.07475062513829</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="17">
@@ -1855,7 +1855,7 @@
         <v>421.717170453621</v>
       </c>
       <c r="F17" t="n">
-        <v>420.8729399924936</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G17" t="n">
         <v>400.2956717864458</v>
@@ -1897,10 +1897,10 @@
         <v>103.323621185591</v>
       </c>
       <c r="T17" t="n">
-        <v>218.7163152458132</v>
+        <v>218.7163152458144</v>
       </c>
       <c r="U17" t="n">
-        <v>255.7713603095526</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V17" t="n">
         <v>353.914520725013</v>
@@ -2007,22 +2007,22 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D19" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>164.5944000087102</v>
+        <v>98.15366458399673</v>
       </c>
       <c r="H19" t="n">
-        <v>26.6495006022655</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2052,16 +2052,16 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U19" t="n">
         <v>277.3826040146988</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W19" t="n">
         <v>272.1038797892121</v>
@@ -2137,7 +2137,7 @@
         <v>218.7163152458132</v>
       </c>
       <c r="U20" t="n">
-        <v>255.771360309553</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V20" t="n">
         <v>353.914520725013</v>
@@ -2244,13 +2244,13 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D22" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>104.9037564455521</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>98.15366458399268</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -2289,7 +2289,7 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T22" t="n">
         <v>240.905954296359</v>
@@ -2481,22 +2481,22 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D25" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G25" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2523,22 +2523,22 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>108.3150987014989</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>168.9164623971668</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V25" t="n">
         <v>278.8943527180514</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X25" t="n">
         <v>240.1382575886529</v>
@@ -2712,13 +2712,13 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C28" t="n">
         <v>170.2528374898731</v>
       </c>
       <c r="D28" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -2730,10 +2730,10 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2763,7 +2763,7 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>96.44420510686429</v>
       </c>
       <c r="T28" t="n">
         <v>240.905954296359</v>
@@ -2781,7 +2781,7 @@
         <v>240.1382575886529</v>
       </c>
       <c r="Y28" t="n">
-        <v>105.9750612304132</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="29">
@@ -2949,25 +2949,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>78.16614128474215</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C31" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>161.683605144497</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>53.25551766955365</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2997,16 +2997,16 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>240.905954296359</v>
       </c>
       <c r="U31" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>278.8943527180514</v>
@@ -3195,16 +3195,16 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G34" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3234,10 +3234,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>168.4336970060565</v>
+        <v>96.44420510686429</v>
       </c>
       <c r="T34" t="n">
         <v>240.905954296359</v>
@@ -3249,13 +3249,13 @@
         <v>278.8943527180514</v>
       </c>
       <c r="W34" t="n">
-        <v>146.2649293218177</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="35">
@@ -3429,22 +3429,22 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D37" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G37" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,25 +3471,25 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>168.4336970060565</v>
+        <v>96.44420510686429</v>
       </c>
       <c r="T37" t="n">
         <v>240.905954296359</v>
       </c>
       <c r="U37" t="n">
-        <v>218.0080577057878</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y37" t="n">
         <v>224.0793406271554</v>
@@ -3511,7 +3511,7 @@
         <v>419.0596946068497</v>
       </c>
       <c r="E38" t="n">
-        <v>421.717170453621</v>
+        <v>421.717170453622</v>
       </c>
       <c r="F38" t="n">
         <v>420.8729399924937</v>
@@ -3708,7 +3708,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -3717,10 +3717,10 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>106.858786719141</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>278.8943527180514</v>
+        <v>115.1055716303386</v>
       </c>
       <c r="W40" t="n">
         <v>272.1038797892121</v>
@@ -3729,7 +3729,7 @@
         <v>240.1382575886529</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="41">
@@ -3903,22 +3903,22 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D43" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G43" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3948,19 +3948,19 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>96.44420510686744</v>
       </c>
       <c r="T43" t="n">
         <v>240.905954296359</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W43" t="n">
-        <v>192.8717243028901</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X43" t="n">
         <v>240.1382575886529</v>
@@ -3994,10 +3994,10 @@
         <v>400.2956717864458</v>
       </c>
       <c r="H44" t="n">
-        <v>294.8896947407063</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I44" t="n">
-        <v>34.5479025439635</v>
+        <v>34.54790254396433</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4149,7 +4149,7 @@
         <v>170.1431564831852</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>42.35873703018667</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -4185,7 +4185,7 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T46" t="n">
         <v>240.905954296359</v>
@@ -4194,10 +4194,10 @@
         <v>277.3826040146988</v>
       </c>
       <c r="V46" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>204.0019611074012</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X46" t="n">
         <v>240.1382575886529</v>
@@ -4306,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>528.1740540056944</v>
+        <v>159.0305212218191</v>
       </c>
       <c r="C2" t="n">
-        <v>505.3137280593986</v>
+        <v>136.1701952755233</v>
       </c>
       <c r="D2" t="n">
-        <v>82.02110724439886</v>
+        <v>116.9179785009277</v>
       </c>
       <c r="E2" t="n">
-        <v>60.08457143266047</v>
+        <v>94.98144268918927</v>
       </c>
       <c r="F2" t="n">
-        <v>39.00079366246477</v>
+        <v>73.89766491899357</v>
       </c>
       <c r="G2" t="n">
-        <v>38.70213529231746</v>
+        <v>73.59900654884626</v>
       </c>
       <c r="H2" t="n">
-        <v>38.70213529231746</v>
+        <v>73.59900654884626</v>
       </c>
       <c r="I2" t="n">
-        <v>38.70213529231746</v>
+        <v>38.70213529231748</v>
       </c>
       <c r="J2" t="n">
-        <v>38.70213529231746</v>
+        <v>42.20451238440438</v>
       </c>
       <c r="K2" t="n">
-        <v>517.641059534746</v>
+        <v>521.1434366268331</v>
       </c>
       <c r="L2" t="n">
-        <v>996.5799837771744</v>
+        <v>521.1434366268331</v>
       </c>
       <c r="M2" t="n">
-        <v>1475.518908019603</v>
+        <v>521.1434366268331</v>
       </c>
       <c r="N2" t="n">
-        <v>1935.106764615873</v>
+        <v>521.1434366268331</v>
       </c>
       <c r="O2" t="n">
-        <v>1935.106764615873</v>
+        <v>1000.082360869262</v>
       </c>
       <c r="P2" t="n">
-        <v>1935.106764615873</v>
+        <v>1479.021285111691</v>
       </c>
       <c r="Q2" t="n">
-        <v>1935.106764615873</v>
+        <v>1935.106764615874</v>
       </c>
       <c r="R2" t="n">
-        <v>1935.106764615873</v>
+        <v>1935.106764615874</v>
       </c>
       <c r="S2" t="n">
-        <v>1935.106764615873</v>
+        <v>1830.739470489014</v>
       </c>
       <c r="T2" t="n">
-        <v>1935.106764615873</v>
+        <v>1830.739470489014</v>
       </c>
       <c r="U2" t="n">
-        <v>1935.106764615873</v>
+        <v>1572.384561085426</v>
       </c>
       <c r="V2" t="n">
-        <v>1935.106764615873</v>
+        <v>1214.895146211676</v>
       </c>
       <c r="W2" t="n">
-        <v>1538.71541491622</v>
+        <v>1214.895146211676</v>
       </c>
       <c r="X2" t="n">
-        <v>1126.995416083967</v>
+        <v>803.1751473794232</v>
       </c>
       <c r="Y2" t="n">
-        <v>721.6581460388574</v>
+        <v>397.8378773343135</v>
       </c>
     </row>
     <row r="3">
@@ -4385,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>693.5426250668182</v>
+        <v>605.8256263237727</v>
       </c>
       <c r="C3" t="n">
-        <v>576.036721584323</v>
+        <v>488.3197228412774</v>
       </c>
       <c r="D3" t="n">
-        <v>472.196763099608</v>
+        <v>384.4797643565625</v>
       </c>
       <c r="E3" t="n">
-        <v>367.4948293725452</v>
+        <v>279.7778306294997</v>
       </c>
       <c r="F3" t="n">
-        <v>273.8489990554494</v>
+        <v>186.1320003124039</v>
       </c>
       <c r="G3" t="n">
-        <v>179.7952272730534</v>
+        <v>92.07822853000789</v>
       </c>
       <c r="H3" t="n">
-        <v>126.419134035363</v>
+        <v>38.70213529231748</v>
       </c>
       <c r="I3" t="n">
-        <v>126.419134035363</v>
+        <v>46.14877825422932</v>
       </c>
       <c r="J3" t="n">
-        <v>126.419134035363</v>
+        <v>46.14877825422932</v>
       </c>
       <c r="K3" t="n">
-        <v>605.3580582777915</v>
+        <v>343.3471304404871</v>
       </c>
       <c r="L3" t="n">
-        <v>605.3580582777915</v>
+        <v>343.3471304404871</v>
       </c>
       <c r="M3" t="n">
-        <v>1084.29698252022</v>
+        <v>343.3471304404871</v>
       </c>
       <c r="N3" t="n">
-        <v>1563.235906762649</v>
+        <v>822.2860546829158</v>
       </c>
       <c r="O3" t="n">
-        <v>1563.235906762649</v>
+        <v>1301.224978925345</v>
       </c>
       <c r="P3" t="n">
-        <v>1935.106764615873</v>
+        <v>1301.224978925345</v>
       </c>
       <c r="Q3" t="n">
-        <v>1935.106764615873</v>
+        <v>1765.370455788124</v>
       </c>
       <c r="R3" t="n">
-        <v>1935.106764615873</v>
+        <v>1847.389765872827</v>
       </c>
       <c r="S3" t="n">
-        <v>1853.782517177127</v>
+        <v>1766.065518434082</v>
       </c>
       <c r="T3" t="n">
-        <v>1711.902581474806</v>
+        <v>1624.18558273176</v>
       </c>
       <c r="U3" t="n">
-        <v>1527.134385394442</v>
+        <v>1439.417386651397</v>
       </c>
       <c r="V3" t="n">
-        <v>1322.161246533708</v>
+        <v>1234.444247790663</v>
       </c>
       <c r="W3" t="n">
-        <v>1125.639869366926</v>
+        <v>1037.92287062388</v>
       </c>
       <c r="X3" t="n">
-        <v>962.1625231335886</v>
+        <v>874.445524390543</v>
       </c>
       <c r="Y3" t="n">
-        <v>822.469634486881</v>
+        <v>734.7526357438354</v>
       </c>
     </row>
     <row r="4">
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>713.3627639277825</v>
+        <v>520.6171477153705</v>
       </c>
       <c r="C4" t="n">
-        <v>713.3627639277825</v>
+        <v>520.6171477153705</v>
       </c>
       <c r="D4" t="n">
-        <v>713.3627639277825</v>
+        <v>520.6171477153705</v>
       </c>
       <c r="E4" t="n">
-        <v>547.154558080636</v>
+        <v>520.6171477153705</v>
       </c>
       <c r="F4" t="n">
-        <v>375.2927838551964</v>
+        <v>348.7553734899309</v>
       </c>
       <c r="G4" t="n">
-        <v>209.0358141494285</v>
+        <v>182.4984037841631</v>
       </c>
       <c r="H4" t="n">
-        <v>65.23954565758291</v>
+        <v>38.70213529231748</v>
       </c>
       <c r="I4" t="n">
-        <v>38.70213529231746</v>
+        <v>38.70213529231748</v>
       </c>
       <c r="J4" t="n">
-        <v>38.70213529231746</v>
+        <v>96.1934635164755</v>
       </c>
       <c r="K4" t="n">
-        <v>38.7126666327394</v>
+        <v>165.7127968735022</v>
       </c>
       <c r="L4" t="n">
-        <v>393.4019879271602</v>
+        <v>520.4021181679229</v>
       </c>
       <c r="M4" t="n">
-        <v>784.587782897411</v>
+        <v>911.5879131381737</v>
       </c>
       <c r="N4" t="n">
-        <v>1162.079293773447</v>
+        <v>1289.07942401421</v>
       </c>
       <c r="O4" t="n">
-        <v>1517.50742245321</v>
+        <v>1644.507552693973</v>
       </c>
       <c r="P4" t="n">
-        <v>1808.106634375111</v>
+        <v>1935.106764615874</v>
       </c>
       <c r="Q4" t="n">
-        <v>1935.106764615873</v>
+        <v>1935.106764615874</v>
       </c>
       <c r="R4" t="n">
-        <v>1935.106764615873</v>
+        <v>1935.106764615874</v>
       </c>
       <c r="S4" t="n">
-        <v>1935.106764615873</v>
+        <v>1764.971717135009</v>
       </c>
       <c r="T4" t="n">
-        <v>1691.767416841773</v>
+        <v>1521.632369360909</v>
       </c>
       <c r="U4" t="n">
-        <v>1411.582968342077</v>
+        <v>1241.447920861213</v>
       </c>
       <c r="V4" t="n">
-        <v>1129.871500950106</v>
+        <v>959.736453469242</v>
       </c>
       <c r="W4" t="n">
-        <v>1129.871500950106</v>
+        <v>684.8840496417549</v>
       </c>
       <c r="X4" t="n">
-        <v>1129.871500950106</v>
+        <v>684.8840496417549</v>
       </c>
       <c r="Y4" t="n">
-        <v>903.5287326398482</v>
+        <v>520.6171477153705</v>
       </c>
     </row>
     <row r="5">
@@ -4543,13 +4543,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1342.050951843433</v>
+        <v>1212.438652888478</v>
       </c>
       <c r="C5" t="n">
-        <v>915.1502218567327</v>
+        <v>785.5379229017781</v>
       </c>
       <c r="D5" t="n">
-        <v>491.857601041733</v>
+        <v>362.2453020867783</v>
       </c>
       <c r="E5" t="n">
         <v>65.88066118959054</v>
@@ -4573,19 +4573,19 @@
         <v>957.7672188505812</v>
       </c>
       <c r="L5" t="n">
-        <v>1006.023847611597</v>
+        <v>957.7672188505812</v>
       </c>
       <c r="M5" t="n">
-        <v>1556.689382596036</v>
+        <v>957.7672188505812</v>
       </c>
       <c r="N5" t="n">
-        <v>2107.354917580474</v>
+        <v>1508.432753835019</v>
       </c>
       <c r="O5" t="n">
-        <v>2107.354917580474</v>
+        <v>1508.432753835019</v>
       </c>
       <c r="P5" t="n">
-        <v>2107.354917580474</v>
+        <v>1651.269438076291</v>
       </c>
       <c r="Q5" t="n">
         <v>2107.354917580474</v>
@@ -4594,25 +4594,25 @@
         <v>2224.911252462377</v>
       </c>
       <c r="S5" t="n">
-        <v>2224.911252462377</v>
+        <v>2120.543958335517</v>
       </c>
       <c r="T5" t="n">
-        <v>2224.911252462377</v>
+        <v>1899.61838738015</v>
       </c>
       <c r="U5" t="n">
-        <v>1966.556343058789</v>
+        <v>1641.263477976562</v>
       </c>
       <c r="V5" t="n">
-        <v>1966.556343058789</v>
+        <v>1641.263477976562</v>
       </c>
       <c r="W5" t="n">
-        <v>1966.556343058789</v>
+        <v>1641.263477976562</v>
       </c>
       <c r="X5" t="n">
-        <v>1958.87674826694</v>
+        <v>1633.583883184714</v>
       </c>
       <c r="Y5" t="n">
-        <v>1553.53947822183</v>
+        <v>1632.287017180008</v>
       </c>
     </row>
     <row r="6">
@@ -4622,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>983.3471129133217</v>
+        <v>611.6217160807028</v>
       </c>
       <c r="C6" t="n">
-        <v>865.8412094308264</v>
+        <v>494.1158125982075</v>
       </c>
       <c r="D6" t="n">
-        <v>762.0012509461114</v>
+        <v>390.2758541134926</v>
       </c>
       <c r="E6" t="n">
-        <v>657.2993172190487</v>
+        <v>285.5739203864298</v>
       </c>
       <c r="F6" t="n">
-        <v>563.6534869019529</v>
+        <v>191.928090069334</v>
       </c>
       <c r="G6" t="n">
-        <v>469.5997151195569</v>
+        <v>97.87431828693795</v>
       </c>
       <c r="H6" t="n">
-        <v>416.2236218818665</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I6" t="n">
-        <v>423.6702648437783</v>
+        <v>51.94486801115937</v>
       </c>
       <c r="J6" t="n">
-        <v>423.6702648437783</v>
+        <v>323.6423572907505</v>
       </c>
       <c r="K6" t="n">
-        <v>974.3357998282165</v>
+        <v>323.6423572907505</v>
       </c>
       <c r="L6" t="n">
-        <v>974.3357998282165</v>
+        <v>323.6423572907505</v>
       </c>
       <c r="M6" t="n">
-        <v>1128.080930530456</v>
+        <v>874.3078922751886</v>
       </c>
       <c r="N6" t="n">
-        <v>1128.080930530456</v>
+        <v>1302.520320645319</v>
       </c>
       <c r="O6" t="n">
-        <v>1128.080930530456</v>
+        <v>1302.520320645319</v>
       </c>
       <c r="P6" t="n">
-        <v>1678.746465514894</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="Q6" t="n">
-        <v>2142.891942377673</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="R6" t="n">
-        <v>2224.911252462377</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="S6" t="n">
-        <v>2143.587005023631</v>
+        <v>1771.861608191012</v>
       </c>
       <c r="T6" t="n">
-        <v>2001.707069321309</v>
+        <v>1629.98167248869</v>
       </c>
       <c r="U6" t="n">
-        <v>1816.938873240946</v>
+        <v>1445.213476408327</v>
       </c>
       <c r="V6" t="n">
-        <v>1611.965734380212</v>
+        <v>1240.240337547593</v>
       </c>
       <c r="W6" t="n">
-        <v>1415.444357213429</v>
+        <v>1043.71896038081</v>
       </c>
       <c r="X6" t="n">
-        <v>1251.967010980092</v>
+        <v>880.2416141474731</v>
       </c>
       <c r="Y6" t="n">
-        <v>1112.274122333384</v>
+        <v>740.5487255007655</v>
       </c>
     </row>
     <row r="7">
@@ -4701,19 +4701,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>689.792035382553</v>
+        <v>856.0490050883208</v>
       </c>
       <c r="C7" t="n">
-        <v>517.8194722614689</v>
+        <v>684.0764419672367</v>
       </c>
       <c r="D7" t="n">
-        <v>354.5026993882396</v>
+        <v>520.7596690940074</v>
       </c>
       <c r="E7" t="n">
-        <v>188.2944935410931</v>
+        <v>354.551463246861</v>
       </c>
       <c r="F7" t="n">
-        <v>188.2944935410931</v>
+        <v>354.551463246861</v>
       </c>
       <c r="G7" t="n">
         <v>188.2944935410931</v>
@@ -4725,52 +4725,52 @@
         <v>44.49822504924753</v>
       </c>
       <c r="J7" t="n">
-        <v>101.9895532734055</v>
+        <v>101.9895532734062</v>
       </c>
       <c r="K7" t="n">
-        <v>328.5171544792427</v>
+        <v>328.5171544792433</v>
       </c>
       <c r="L7" t="n">
-        <v>683.2064757736634</v>
+        <v>683.2064757736641</v>
       </c>
       <c r="M7" t="n">
-        <v>1074.392270743914</v>
+        <v>1074.392270743915</v>
       </c>
       <c r="N7" t="n">
-        <v>1451.88378161995</v>
+        <v>1451.883781619951</v>
       </c>
       <c r="O7" t="n">
-        <v>1807.311910299713</v>
+        <v>1807.311910299714</v>
       </c>
       <c r="P7" t="n">
-        <v>2097.911122221614</v>
+        <v>2097.911122221615</v>
       </c>
       <c r="Q7" t="n">
-        <v>2224.911252462376</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="R7" t="n">
-        <v>2177.872639149549</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="S7" t="n">
-        <v>2007.737591668684</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="T7" t="n">
-        <v>1764.398243894584</v>
+        <v>2109.306061829798</v>
       </c>
       <c r="U7" t="n">
-        <v>1623.717072786558</v>
+        <v>1829.121613330102</v>
       </c>
       <c r="V7" t="n">
-        <v>1623.717072786558</v>
+        <v>1547.410145938131</v>
       </c>
       <c r="W7" t="n">
-        <v>1348.864668959071</v>
+        <v>1272.557742110644</v>
       </c>
       <c r="X7" t="n">
-        <v>1106.300772404877</v>
+        <v>1272.557742110644</v>
       </c>
       <c r="Y7" t="n">
-        <v>879.9580040946187</v>
+        <v>1046.214973800386</v>
       </c>
     </row>
     <row r="8">
@@ -4780,16 +4780,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1342.050951843433</v>
+        <v>1746.091355883837</v>
       </c>
       <c r="C8" t="n">
-        <v>915.1502218567327</v>
+        <v>1319.190625897137</v>
       </c>
       <c r="D8" t="n">
-        <v>491.857601041733</v>
+        <v>895.898005082137</v>
       </c>
       <c r="E8" t="n">
-        <v>65.88066118959054</v>
+        <v>469.9210652299946</v>
       </c>
       <c r="F8" t="n">
         <v>44.79688341939484</v>
@@ -4807,22 +4807,22 @@
         <v>44.49822504924753</v>
       </c>
       <c r="K8" t="n">
-        <v>595.1637600336857</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="L8" t="n">
-        <v>1006.023847611597</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="M8" t="n">
-        <v>1006.023847611597</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="N8" t="n">
-        <v>1556.689382596036</v>
+        <v>549.9383681074144</v>
       </c>
       <c r="O8" t="n">
-        <v>2107.354917580474</v>
+        <v>1100.603903091853</v>
       </c>
       <c r="P8" t="n">
-        <v>2107.354917580474</v>
+        <v>1651.269438076291</v>
       </c>
       <c r="Q8" t="n">
         <v>2107.354917580474</v>
@@ -4837,19 +4837,19 @@
         <v>2224.911252462377</v>
       </c>
       <c r="U8" t="n">
-        <v>1966.556343058789</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="V8" t="n">
-        <v>1966.556343058789</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="W8" t="n">
-        <v>1966.556343058789</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="X8" t="n">
-        <v>1958.87674826694</v>
+        <v>2167.236586180072</v>
       </c>
       <c r="Y8" t="n">
-        <v>1761.899316134963</v>
+        <v>2165.939720175366</v>
       </c>
     </row>
     <row r="9">
@@ -4886,25 +4886,25 @@
         <v>44.49822504924753</v>
       </c>
       <c r="K9" t="n">
+        <v>44.49822504924753</v>
+      </c>
+      <c r="L9" t="n">
+        <v>44.49822504924753</v>
+      </c>
+      <c r="M9" t="n">
         <v>595.1637600336857</v>
       </c>
-      <c r="L9" t="n">
-        <v>756.3555336978366</v>
-      </c>
-      <c r="M9" t="n">
-        <v>756.3555336978366</v>
-      </c>
       <c r="N9" t="n">
-        <v>756.3555336978366</v>
+        <v>751.8547856608809</v>
       </c>
       <c r="O9" t="n">
-        <v>756.3555336978366</v>
+        <v>1302.520320645319</v>
       </c>
       <c r="P9" t="n">
-        <v>1307.021068682275</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="Q9" t="n">
-        <v>1771.166545545054</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="R9" t="n">
         <v>1853.185855629757</v>
@@ -4938,19 +4938,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>458.7432593109769</v>
+        <v>505.7818726238046</v>
       </c>
       <c r="C10" t="n">
-        <v>351.6112664143225</v>
+        <v>505.7818726238046</v>
       </c>
       <c r="D10" t="n">
-        <v>188.2944935410931</v>
+        <v>354.551463246861</v>
       </c>
       <c r="E10" t="n">
-        <v>188.2944935410931</v>
+        <v>354.551463246861</v>
       </c>
       <c r="F10" t="n">
-        <v>188.2944935410931</v>
+        <v>354.551463246861</v>
       </c>
       <c r="G10" t="n">
         <v>188.2944935410931</v>
@@ -4986,28 +4986,28 @@
         <v>2224.911252462376</v>
       </c>
       <c r="R10" t="n">
-        <v>2177.872639149549</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="S10" t="n">
-        <v>2007.737591668684</v>
+        <v>2054.776204981511</v>
       </c>
       <c r="T10" t="n">
-        <v>1764.398243894584</v>
+        <v>1811.436857207411</v>
       </c>
       <c r="U10" t="n">
-        <v>1484.213795394888</v>
+        <v>1531.252408707716</v>
       </c>
       <c r="V10" t="n">
-        <v>1202.502328002917</v>
+        <v>1249.540941315744</v>
       </c>
       <c r="W10" t="n">
-        <v>927.6499241754298</v>
+        <v>974.6885374882575</v>
       </c>
       <c r="X10" t="n">
-        <v>685.0860276212348</v>
+        <v>732.1246409340625</v>
       </c>
       <c r="Y10" t="n">
-        <v>458.7432593109769</v>
+        <v>505.7818726238046</v>
       </c>
     </row>
     <row r="11">
@@ -5017,10 +5017,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2540.701498063316</v>
+        <v>2540.701498063317</v>
       </c>
       <c r="C11" t="n">
-        <v>2113.800768076616</v>
+        <v>2113.800768076617</v>
       </c>
       <c r="D11" t="n">
         <v>1690.508147261617</v>
@@ -5029,40 +5029,40 @@
         <v>1264.531207409474</v>
       </c>
       <c r="F11" t="n">
-        <v>839.4070255988743</v>
+        <v>839.4070255988738</v>
       </c>
       <c r="G11" t="n">
-        <v>435.0679631883228</v>
+        <v>435.0679631883225</v>
       </c>
       <c r="H11" t="n">
-        <v>137.1995846623581</v>
+        <v>137.1995846623573</v>
       </c>
       <c r="I11" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J11" t="n">
-        <v>456.2068044646703</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K11" t="n">
-        <v>1171.715112440169</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L11" t="n">
-        <v>2101.340160059446</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M11" t="n">
-        <v>3105.626261478504</v>
+        <v>3114.325629236558</v>
       </c>
       <c r="N11" t="n">
-        <v>3105.626261478504</v>
+        <v>3114.325629236558</v>
       </c>
       <c r="O11" t="n">
-        <v>3950.770911629316</v>
+        <v>3833.214576747414</v>
       </c>
       <c r="P11" t="n">
-        <v>4659.050190787244</v>
+        <v>4541.493855905342</v>
       </c>
       <c r="Q11" t="n">
-        <v>5115.135670291427</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="R11" t="n">
         <v>5115.135670291427</v>
@@ -5086,7 +5086,7 @@
         <v>3365.887132399956</v>
       </c>
       <c r="Y11" t="n">
-        <v>2960.549862354846</v>
+        <v>2960.549862354847</v>
       </c>
     </row>
     <row r="12">
@@ -5117,22 +5117,22 @@
         <v>102.3027134058285</v>
       </c>
       <c r="I12" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="J12" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="K12" t="n">
-        <v>692.7876399741681</v>
+        <v>700.2342829360799</v>
       </c>
       <c r="L12" t="n">
-        <v>821.6753975134684</v>
+        <v>1021.509065974867</v>
       </c>
       <c r="M12" t="n">
-        <v>821.6753975134684</v>
+        <v>1021.509065974867</v>
       </c>
       <c r="N12" t="n">
-        <v>1910.990343986338</v>
+        <v>1021.509065974867</v>
       </c>
       <c r="O12" t="n">
         <v>1910.990343986338</v>
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1185.483835930065</v>
+        <v>373.4203922683225</v>
       </c>
       <c r="C13" t="n">
-        <v>1013.511272808982</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="D13" t="n">
-        <v>850.1944999357522</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="E13" t="n">
-        <v>683.9862940886057</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="F13" t="n">
-        <v>512.1245198631661</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="G13" t="n">
-        <v>345.8675501573982</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H13" t="n">
-        <v>202.0712816655526</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I13" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J13" t="n">
-        <v>159.7940416299866</v>
+        <v>159.7940416299897</v>
       </c>
       <c r="K13" t="n">
-        <v>386.3216428358238</v>
+        <v>386.3216428358269</v>
       </c>
       <c r="L13" t="n">
-        <v>741.0109641302445</v>
+        <v>741.0109641302477</v>
       </c>
       <c r="M13" t="n">
-        <v>1132.196759100495</v>
+        <v>1132.196759100498</v>
       </c>
       <c r="N13" t="n">
-        <v>1509.688269976531</v>
+        <v>1509.688269976534</v>
       </c>
       <c r="O13" t="n">
-        <v>1865.116398656294</v>
+        <v>1865.116398656297</v>
       </c>
       <c r="P13" t="n">
-        <v>2155.715610578195</v>
+        <v>2155.715610578198</v>
       </c>
       <c r="Q13" t="n">
-        <v>2282.715740818957</v>
+        <v>2282.71574081896</v>
       </c>
       <c r="R13" t="n">
-        <v>2282.715740818957</v>
+        <v>2282.71574081896</v>
       </c>
       <c r="S13" t="n">
-        <v>2282.715740818957</v>
+        <v>2112.580693338095</v>
       </c>
       <c r="T13" t="n">
-        <v>2282.715740818957</v>
+        <v>1869.241345563995</v>
       </c>
       <c r="U13" t="n">
-        <v>2282.715740818957</v>
+        <v>1589.056897064299</v>
       </c>
       <c r="V13" t="n">
-        <v>2119.408873334071</v>
+        <v>1307.345429672328</v>
       </c>
       <c r="W13" t="n">
-        <v>1844.556469506584</v>
+        <v>1032.493025844841</v>
       </c>
       <c r="X13" t="n">
-        <v>1601.992572952389</v>
+        <v>789.9291292906461</v>
       </c>
       <c r="Y13" t="n">
-        <v>1375.649804642131</v>
+        <v>563.5863609803881</v>
       </c>
     </row>
     <row r="14">
@@ -5254,46 +5254,46 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2540.701498063316</v>
+        <v>2540.701498063317</v>
       </c>
       <c r="C14" t="n">
-        <v>2113.800768076616</v>
+        <v>2113.800768076617</v>
       </c>
       <c r="D14" t="n">
-        <v>1690.508147261616</v>
+        <v>1690.508147261617</v>
       </c>
       <c r="E14" t="n">
-        <v>1264.531207409474</v>
+        <v>1264.531207409475</v>
       </c>
       <c r="F14" t="n">
-        <v>839.4070255988738</v>
+        <v>839.4070255988747</v>
       </c>
       <c r="G14" t="n">
-        <v>435.0679631883224</v>
+        <v>435.0679631883233</v>
       </c>
       <c r="H14" t="n">
-        <v>137.1995846623572</v>
+        <v>137.1995846623582</v>
       </c>
       <c r="I14" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J14" t="n">
-        <v>102.3027134058285</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K14" t="n">
-        <v>817.8110213813276</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L14" t="n">
-        <v>1007.532766690843</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M14" t="n">
-        <v>2011.818868109901</v>
+        <v>3114.325629236558</v>
       </c>
       <c r="N14" t="n">
-        <v>2988.069926596602</v>
+        <v>3696.34920575453</v>
       </c>
       <c r="O14" t="n">
-        <v>3833.214576747414</v>
+        <v>4541.493855905342</v>
       </c>
       <c r="P14" t="n">
         <v>4541.493855905342</v>
@@ -5317,13 +5317,13 @@
         <v>4173.998480931862</v>
       </c>
       <c r="W14" t="n">
-        <v>3777.607131232208</v>
+        <v>3777.607131232209</v>
       </c>
       <c r="X14" t="n">
         <v>3365.887132399956</v>
       </c>
       <c r="Y14" t="n">
-        <v>2960.549862354846</v>
+        <v>2960.549862354847</v>
       </c>
     </row>
     <row r="15">
@@ -5357,28 +5357,28 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J15" t="n">
-        <v>102.3027134058285</v>
+        <v>374.0002026854196</v>
       </c>
       <c r="K15" t="n">
-        <v>102.3027134058285</v>
+        <v>964.4851292537592</v>
       </c>
       <c r="L15" t="n">
-        <v>939.1015214887346</v>
+        <v>964.4851292537592</v>
       </c>
       <c r="M15" t="n">
-        <v>939.1015214887346</v>
+        <v>964.4851292537592</v>
       </c>
       <c r="N15" t="n">
-        <v>939.1015214887346</v>
+        <v>964.4851292537592</v>
       </c>
       <c r="O15" t="n">
-        <v>1194.79262694784</v>
+        <v>964.4851292537592</v>
       </c>
       <c r="P15" t="n">
-        <v>1910.990343986338</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="Q15" t="n">
-        <v>1910.990343986338</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="R15" t="n">
         <v>1910.990343986338</v>
@@ -5463,25 +5463,25 @@
         <v>2235.67712750613</v>
       </c>
       <c r="S16" t="n">
-        <v>2065.542080025265</v>
+        <v>2125.516369226185</v>
       </c>
       <c r="T16" t="n">
-        <v>1822.202732251165</v>
+        <v>1882.177021452085</v>
       </c>
       <c r="U16" t="n">
-        <v>1542.018283751469</v>
+        <v>1601.992572952389</v>
       </c>
       <c r="V16" t="n">
-        <v>1260.306816359498</v>
+        <v>1601.992572952389</v>
       </c>
       <c r="W16" t="n">
-        <v>1185.483835930065</v>
+        <v>1601.992572952389</v>
       </c>
       <c r="X16" t="n">
-        <v>1185.483835930065</v>
+        <v>1601.992572952389</v>
       </c>
       <c r="Y16" t="n">
-        <v>1185.483835930065</v>
+        <v>1375.649804642131</v>
       </c>
     </row>
     <row r="17">
@@ -5491,16 +5491,16 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2540.701498063315</v>
+        <v>2540.701498063316</v>
       </c>
       <c r="C17" t="n">
-        <v>2113.800768076615</v>
+        <v>2113.800768076616</v>
       </c>
       <c r="D17" t="n">
         <v>1690.508147261616</v>
       </c>
       <c r="E17" t="n">
-        <v>1264.531207409473</v>
+        <v>1264.531207409474</v>
       </c>
       <c r="F17" t="n">
         <v>839.4070255988738</v>
@@ -5515,28 +5515,28 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J17" t="n">
-        <v>102.3027134058285</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K17" t="n">
-        <v>102.3027134058285</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L17" t="n">
-        <v>1031.927761025105</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M17" t="n">
-        <v>2036.213862444163</v>
+        <v>2129.375202991803</v>
       </c>
       <c r="N17" t="n">
-        <v>3012.464920930865</v>
+        <v>3105.626261478504</v>
       </c>
       <c r="O17" t="n">
-        <v>3857.609571081677</v>
+        <v>3950.770911629316</v>
       </c>
       <c r="P17" t="n">
-        <v>4565.888850239604</v>
+        <v>4659.050190787244</v>
       </c>
       <c r="Q17" t="n">
-        <v>5021.974329743787</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="R17" t="n">
         <v>5115.135670291427</v>
@@ -5545,7 +5545,7 @@
         <v>5010.768376164568</v>
       </c>
       <c r="T17" t="n">
-        <v>4789.8428052092</v>
+        <v>4789.842805209199</v>
       </c>
       <c r="U17" t="n">
         <v>4531.487895805612</v>
@@ -5557,7 +5557,7 @@
         <v>3777.607131232208</v>
       </c>
       <c r="X17" t="n">
-        <v>3365.887132399956</v>
+        <v>3365.887132399955</v>
       </c>
       <c r="Y17" t="n">
         <v>2960.549862354846</v>
@@ -5591,28 +5591,28 @@
         <v>102.3027134058285</v>
       </c>
       <c r="I18" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="J18" t="n">
-        <v>102.3027134058285</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="K18" t="n">
-        <v>102.3027134058285</v>
+        <v>971.931772215671</v>
       </c>
       <c r="L18" t="n">
-        <v>102.3027134058285</v>
+        <v>971.931772215671</v>
       </c>
       <c r="M18" t="n">
-        <v>102.3027134058285</v>
+        <v>971.931772215671</v>
       </c>
       <c r="N18" t="n">
-        <v>1021.509065974867</v>
+        <v>971.931772215671</v>
       </c>
       <c r="O18" t="n">
-        <v>1910.990343986338</v>
+        <v>971.931772215671</v>
       </c>
       <c r="P18" t="n">
-        <v>1910.990343986338</v>
+        <v>1446.844867123559</v>
       </c>
       <c r="Q18" t="n">
         <v>1910.990343986338</v>
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1068.606254915256</v>
+        <v>373.4203922683234</v>
       </c>
       <c r="C19" t="n">
-        <v>896.6336917941717</v>
+        <v>201.4478291472394</v>
       </c>
       <c r="D19" t="n">
-        <v>733.3169189209424</v>
+        <v>201.4478291472394</v>
       </c>
       <c r="E19" t="n">
-        <v>567.1087130737959</v>
+        <v>201.4478291472394</v>
       </c>
       <c r="F19" t="n">
-        <v>395.2469388483563</v>
+        <v>201.4478291472394</v>
       </c>
       <c r="G19" t="n">
-        <v>228.9899691425884</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H19" t="n">
-        <v>202.0712816655526</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I19" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J19" t="n">
-        <v>159.7940416299866</v>
+        <v>159.7940416299907</v>
       </c>
       <c r="K19" t="n">
-        <v>386.3216428358238</v>
+        <v>386.3216428358278</v>
       </c>
       <c r="L19" t="n">
-        <v>741.0109641302445</v>
+        <v>741.0109641302486</v>
       </c>
       <c r="M19" t="n">
-        <v>1132.196759100495</v>
+        <v>1132.196759100499</v>
       </c>
       <c r="N19" t="n">
-        <v>1509.688269976531</v>
+        <v>1509.688269976535</v>
       </c>
       <c r="O19" t="n">
-        <v>1865.116398656294</v>
+        <v>1865.116398656298</v>
       </c>
       <c r="P19" t="n">
-        <v>2155.715610578195</v>
+        <v>2155.715610578199</v>
       </c>
       <c r="Q19" t="n">
-        <v>2282.715740818957</v>
+        <v>2282.715740818961</v>
       </c>
       <c r="R19" t="n">
-        <v>2282.715740818957</v>
+        <v>2282.715740818961</v>
       </c>
       <c r="S19" t="n">
-        <v>2282.715740818957</v>
+        <v>2112.580693338096</v>
       </c>
       <c r="T19" t="n">
-        <v>2282.715740818957</v>
+        <v>1869.241345563996</v>
       </c>
       <c r="U19" t="n">
-        <v>2002.531292319261</v>
+        <v>1589.0568970643</v>
       </c>
       <c r="V19" t="n">
-        <v>2002.531292319261</v>
+        <v>1307.345429672329</v>
       </c>
       <c r="W19" t="n">
-        <v>1727.678888491774</v>
+        <v>1032.493025844842</v>
       </c>
       <c r="X19" t="n">
-        <v>1485.114991937579</v>
+        <v>789.929129290647</v>
       </c>
       <c r="Y19" t="n">
-        <v>1258.772223627321</v>
+        <v>563.586360980389</v>
       </c>
     </row>
     <row r="20">
@@ -5728,10 +5728,10 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2540.701498063316</v>
+        <v>2540.701498063315</v>
       </c>
       <c r="C20" t="n">
-        <v>2113.800768076616</v>
+        <v>2113.800768076615</v>
       </c>
       <c r="D20" t="n">
         <v>1690.508147261616</v>
@@ -5740,7 +5740,7 @@
         <v>1264.531207409474</v>
       </c>
       <c r="F20" t="n">
-        <v>839.4070255988738</v>
+        <v>839.4070255988736</v>
       </c>
       <c r="G20" t="n">
         <v>435.0679631883225</v>
@@ -5752,16 +5752,16 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J20" t="n">
-        <v>102.3027134058285</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K20" t="n">
-        <v>817.8110213813276</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L20" t="n">
-        <v>1007.532766690843</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M20" t="n">
-        <v>2011.818868109901</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="N20" t="n">
         <v>2988.069926596602</v>
@@ -5828,28 +5828,28 @@
         <v>102.3027134058285</v>
       </c>
       <c r="I21" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="J21" t="n">
-        <v>102.3027134058285</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="K21" t="n">
-        <v>102.3027134058285</v>
+        <v>971.931772215671</v>
       </c>
       <c r="L21" t="n">
-        <v>102.3027134058285</v>
+        <v>1808.730580298577</v>
       </c>
       <c r="M21" t="n">
-        <v>102.3027134058285</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="N21" t="n">
-        <v>102.3027134058285</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="O21" t="n">
-        <v>730.647150085061</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="P21" t="n">
-        <v>1446.844867123559</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="Q21" t="n">
         <v>1910.990343986338</v>
@@ -5886,16 +5886,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>543.5554397491844</v>
+        <v>373.4203922683193</v>
       </c>
       <c r="C22" t="n">
-        <v>371.5828766281004</v>
+        <v>201.4478291472353</v>
       </c>
       <c r="D22" t="n">
-        <v>208.2661037548711</v>
+        <v>201.4478291472353</v>
       </c>
       <c r="E22" t="n">
-        <v>102.3027134058285</v>
+        <v>201.4478291472353</v>
       </c>
       <c r="F22" t="n">
         <v>102.3027134058285</v>
@@ -5937,25 +5937,25 @@
         <v>2282.715740818957</v>
       </c>
       <c r="S22" t="n">
-        <v>2282.715740818957</v>
+        <v>2112.580693338092</v>
       </c>
       <c r="T22" t="n">
-        <v>2039.376393044857</v>
+        <v>1869.241345563992</v>
       </c>
       <c r="U22" t="n">
-        <v>1759.191944545161</v>
+        <v>1589.056897064296</v>
       </c>
       <c r="V22" t="n">
-        <v>1477.48047715319</v>
+        <v>1307.345429672325</v>
       </c>
       <c r="W22" t="n">
-        <v>1202.628073325703</v>
+        <v>1032.493025844838</v>
       </c>
       <c r="X22" t="n">
-        <v>960.064176771508</v>
+        <v>789.9291292906429</v>
       </c>
       <c r="Y22" t="n">
-        <v>733.72140846125</v>
+        <v>563.5863609803849</v>
       </c>
     </row>
     <row r="23">
@@ -5989,25 +5989,25 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J23" t="n">
-        <v>102.3027134058285</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K23" t="n">
-        <v>817.8110213813276</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L23" t="n">
-        <v>1747.436069000604</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M23" t="n">
-        <v>2751.722170419663</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="N23" t="n">
-        <v>3727.973228906364</v>
+        <v>2988.069926596602</v>
       </c>
       <c r="O23" t="n">
-        <v>4573.117879057176</v>
+        <v>3833.214576747414</v>
       </c>
       <c r="P23" t="n">
-        <v>4997.579335409525</v>
+        <v>4541.493855905342</v>
       </c>
       <c r="Q23" t="n">
         <v>4997.579335409525</v>
@@ -6065,19 +6065,19 @@
         <v>102.3027134058285</v>
       </c>
       <c r="I24" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="J24" t="n">
-        <v>102.3027134058285</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="K24" t="n">
-        <v>102.3027134058285</v>
+        <v>971.931772215671</v>
       </c>
       <c r="L24" t="n">
-        <v>102.3027134058285</v>
+        <v>1808.730580298577</v>
       </c>
       <c r="M24" t="n">
-        <v>1158.289251381874</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="N24" t="n">
         <v>1910.990343986338</v>
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>4017.903765402536</v>
+        <v>446.1370507523521</v>
       </c>
       <c r="C25" t="n">
-        <v>3845.931202281452</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="D25" t="n">
-        <v>3682.614429408222</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="E25" t="n">
-        <v>3516.406223561076</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="F25" t="n">
-        <v>3344.544449335636</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="G25" t="n">
-        <v>3178.287479629868</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H25" t="n">
-        <v>3034.491211138023</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I25" t="n">
-        <v>2934.722642878299</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J25" t="n">
-        <v>2992.213971102457</v>
+        <v>159.7940416299866</v>
       </c>
       <c r="K25" t="n">
-        <v>3218.741572308294</v>
+        <v>386.3216428358238</v>
       </c>
       <c r="L25" t="n">
-        <v>3573.430893602715</v>
+        <v>741.0109641302445</v>
       </c>
       <c r="M25" t="n">
-        <v>3964.616688572966</v>
+        <v>1132.196759100495</v>
       </c>
       <c r="N25" t="n">
-        <v>4342.108199449001</v>
+        <v>1509.688269976531</v>
       </c>
       <c r="O25" t="n">
-        <v>4697.536328128765</v>
+        <v>1865.116398656294</v>
       </c>
       <c r="P25" t="n">
-        <v>4988.135540050665</v>
+        <v>2155.715610578195</v>
       </c>
       <c r="Q25" t="n">
-        <v>5115.135670291427</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="R25" t="n">
-        <v>5068.0970569786</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S25" t="n">
-        <v>4958.687866371026</v>
+        <v>2112.580693338092</v>
       </c>
       <c r="T25" t="n">
-        <v>4958.687866371026</v>
+        <v>1941.958004048024</v>
       </c>
       <c r="U25" t="n">
-        <v>4958.687866371026</v>
+        <v>1661.773555548329</v>
       </c>
       <c r="V25" t="n">
-        <v>4676.976398979054</v>
+        <v>1380.062088156358</v>
       </c>
       <c r="W25" t="n">
-        <v>4676.976398979054</v>
+        <v>1105.20968432887</v>
       </c>
       <c r="X25" t="n">
-        <v>4434.41250242486</v>
+        <v>862.6457877746757</v>
       </c>
       <c r="Y25" t="n">
-        <v>4208.069734114601</v>
+        <v>636.3030194644177</v>
       </c>
     </row>
     <row r="26">
@@ -6226,28 +6226,28 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J26" t="n">
-        <v>102.3027134058285</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K26" t="n">
-        <v>817.8110213813276</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L26" t="n">
-        <v>1747.436069000604</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M26" t="n">
-        <v>2751.722170419663</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="N26" t="n">
-        <v>3727.973228906364</v>
+        <v>2988.069926596602</v>
       </c>
       <c r="O26" t="n">
-        <v>4573.117879057176</v>
+        <v>3833.214576747414</v>
       </c>
       <c r="P26" t="n">
-        <v>5115.135670291427</v>
+        <v>4541.493855905342</v>
       </c>
       <c r="Q26" t="n">
-        <v>5115.135670291427</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="R26" t="n">
         <v>5115.135670291427</v>
@@ -6302,28 +6302,28 @@
         <v>102.3027134058285</v>
       </c>
       <c r="I27" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="J27" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="K27" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="L27" t="n">
-        <v>102.3027134058285</v>
+        <v>946.5481644506465</v>
       </c>
       <c r="M27" t="n">
-        <v>102.3027134058285</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="N27" t="n">
-        <v>1191.617659878699</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="O27" t="n">
-        <v>1446.844867123559</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="P27" t="n">
-        <v>1446.844867123559</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="Q27" t="n">
         <v>1910.990343986338</v>
@@ -6360,25 +6360,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>853.0186603771511</v>
+        <v>446.1370507523521</v>
       </c>
       <c r="C28" t="n">
-        <v>681.0460972560671</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="D28" t="n">
-        <v>517.7293243828378</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="E28" t="n">
-        <v>517.7293243828378</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="F28" t="n">
-        <v>345.8675501573982</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="G28" t="n">
-        <v>345.8675501573982</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H28" t="n">
-        <v>202.0712816655526</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I28" t="n">
         <v>102.3027134058285</v>
@@ -6411,25 +6411,25 @@
         <v>2282.715740818957</v>
       </c>
       <c r="S28" t="n">
-        <v>2282.715740818957</v>
+        <v>2185.297351822124</v>
       </c>
       <c r="T28" t="n">
-        <v>2039.376393044857</v>
+        <v>1941.958004048024</v>
       </c>
       <c r="U28" t="n">
-        <v>1759.191944545161</v>
+        <v>1661.773555548329</v>
       </c>
       <c r="V28" t="n">
-        <v>1477.48047715319</v>
+        <v>1380.062088156358</v>
       </c>
       <c r="W28" t="n">
-        <v>1202.628073325703</v>
+        <v>1105.20968432887</v>
       </c>
       <c r="X28" t="n">
-        <v>960.064176771508</v>
+        <v>862.6457877746757</v>
       </c>
       <c r="Y28" t="n">
-        <v>853.0186603771511</v>
+        <v>636.3030194644177</v>
       </c>
     </row>
     <row r="29">
@@ -6472,16 +6472,16 @@
         <v>1747.436069000604</v>
       </c>
       <c r="M29" t="n">
-        <v>2751.722170419663</v>
+        <v>2129.375202991803</v>
       </c>
       <c r="N29" t="n">
-        <v>3727.973228906364</v>
+        <v>3105.626261478504</v>
       </c>
       <c r="O29" t="n">
-        <v>4573.117879057176</v>
+        <v>3950.770911629316</v>
       </c>
       <c r="P29" t="n">
-        <v>5115.135670291427</v>
+        <v>4659.050190787244</v>
       </c>
       <c r="Q29" t="n">
         <v>5115.135670291427</v>
@@ -6539,31 +6539,31 @@
         <v>102.3027134058285</v>
       </c>
       <c r="I30" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="J30" t="n">
-        <v>102.3027134058285</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="K30" t="n">
-        <v>102.3027134058285</v>
+        <v>971.931772215671</v>
       </c>
       <c r="L30" t="n">
-        <v>102.3027134058285</v>
+        <v>971.931772215671</v>
       </c>
       <c r="M30" t="n">
-        <v>821.6753975134684</v>
+        <v>971.931772215671</v>
       </c>
       <c r="N30" t="n">
-        <v>1910.990343986338</v>
+        <v>971.931772215671</v>
       </c>
       <c r="O30" t="n">
-        <v>1910.990343986338</v>
+        <v>971.931772215671</v>
       </c>
       <c r="P30" t="n">
-        <v>1910.990343986338</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="Q30" t="n">
-        <v>1910.990343986338</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="R30" t="n">
         <v>1910.990343986338</v>
@@ -6597,22 +6597,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>437.5920494001418</v>
+        <v>823.7398882488801</v>
       </c>
       <c r="C31" t="n">
-        <v>265.6194862790578</v>
+        <v>823.7398882488801</v>
       </c>
       <c r="D31" t="n">
-        <v>102.3027134058285</v>
+        <v>660.4231153756508</v>
       </c>
       <c r="E31" t="n">
-        <v>102.3027134058285</v>
+        <v>494.2149095285043</v>
       </c>
       <c r="F31" t="n">
-        <v>102.3027134058285</v>
+        <v>322.3531353030647</v>
       </c>
       <c r="G31" t="n">
-        <v>102.3027134058285</v>
+        <v>156.0961655972969</v>
       </c>
       <c r="H31" t="n">
         <v>102.3027134058285</v>
@@ -6645,28 +6645,28 @@
         <v>2282.715740818957</v>
       </c>
       <c r="R31" t="n">
-        <v>2235.67712750613</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S31" t="n">
-        <v>2065.542080025265</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="T31" t="n">
-        <v>1822.202732251165</v>
+        <v>2039.376393044857</v>
       </c>
       <c r="U31" t="n">
-        <v>1542.018283751469</v>
+        <v>2039.376393044857</v>
       </c>
       <c r="V31" t="n">
-        <v>1260.306816359498</v>
+        <v>1757.664925652886</v>
       </c>
       <c r="W31" t="n">
-        <v>985.454412532011</v>
+        <v>1482.812521825399</v>
       </c>
       <c r="X31" t="n">
-        <v>742.8905159778161</v>
+        <v>1240.248625271204</v>
       </c>
       <c r="Y31" t="n">
-        <v>516.5477476675582</v>
+        <v>1013.905856960946</v>
       </c>
     </row>
     <row r="32">
@@ -6700,25 +6700,25 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J32" t="n">
-        <v>102.3027134058285</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K32" t="n">
-        <v>817.8110213813276</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L32" t="n">
-        <v>1747.436069000604</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M32" t="n">
-        <v>2751.722170419663</v>
+        <v>3114.325629236558</v>
       </c>
       <c r="N32" t="n">
-        <v>3727.973228906364</v>
+        <v>4090.576687723259</v>
       </c>
       <c r="O32" t="n">
-        <v>4573.117879057176</v>
+        <v>4541.493855905342</v>
       </c>
       <c r="P32" t="n">
-        <v>4997.579335409525</v>
+        <v>4541.493855905342</v>
       </c>
       <c r="Q32" t="n">
         <v>4997.579335409525</v>
@@ -6776,31 +6776,31 @@
         <v>102.3027134058285</v>
       </c>
       <c r="I33" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="J33" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="K33" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="L33" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="M33" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="N33" t="n">
-        <v>1191.617659878699</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="O33" t="n">
-        <v>1910.990343986338</v>
+        <v>648.6278400003578</v>
       </c>
       <c r="P33" t="n">
-        <v>1910.990343986338</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="Q33" t="n">
-        <v>1910.990343986338</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="R33" t="n">
         <v>1910.990343986338</v>
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>3754.818424269582</v>
+        <v>446.1370507523521</v>
       </c>
       <c r="C34" t="n">
-        <v>3582.845861148498</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="D34" t="n">
-        <v>3582.845861148498</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="E34" t="n">
-        <v>3416.637655301352</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="F34" t="n">
-        <v>3244.775881075912</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="G34" t="n">
-        <v>3078.518911370144</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H34" t="n">
-        <v>2934.722642878299</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I34" t="n">
-        <v>2934.722642878299</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J34" t="n">
-        <v>2992.213971102457</v>
+        <v>159.7940416299866</v>
       </c>
       <c r="K34" t="n">
-        <v>3218.741572308294</v>
+        <v>386.3216428358238</v>
       </c>
       <c r="L34" t="n">
-        <v>3573.430893602715</v>
+        <v>741.0109641302445</v>
       </c>
       <c r="M34" t="n">
-        <v>3964.616688572966</v>
+        <v>1132.196759100495</v>
       </c>
       <c r="N34" t="n">
-        <v>4342.108199449001</v>
+        <v>1509.688269976531</v>
       </c>
       <c r="O34" t="n">
-        <v>4697.536328128765</v>
+        <v>1865.116398656294</v>
       </c>
       <c r="P34" t="n">
-        <v>4988.135540050665</v>
+        <v>2155.715610578195</v>
       </c>
       <c r="Q34" t="n">
-        <v>5115.135670291427</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="R34" t="n">
-        <v>5068.0970569786</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S34" t="n">
-        <v>4897.962009497735</v>
+        <v>2185.297351822124</v>
       </c>
       <c r="T34" t="n">
-        <v>4654.622661723635</v>
+        <v>1941.958004048024</v>
       </c>
       <c r="U34" t="n">
-        <v>4374.43821322394</v>
+        <v>1661.773555548329</v>
       </c>
       <c r="V34" t="n">
-        <v>4092.726745831969</v>
+        <v>1380.062088156358</v>
       </c>
       <c r="W34" t="n">
-        <v>3944.984392981648</v>
+        <v>1105.20968432887</v>
       </c>
       <c r="X34" t="n">
-        <v>3944.984392981648</v>
+        <v>862.6457877746757</v>
       </c>
       <c r="Y34" t="n">
-        <v>3944.984392981648</v>
+        <v>636.3030194644177</v>
       </c>
     </row>
     <row r="35">
@@ -6940,25 +6940,25 @@
         <v>464.9061722227241</v>
       </c>
       <c r="K35" t="n">
-        <v>464.9061722227241</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L35" t="n">
-        <v>1394.531219842001</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M35" t="n">
-        <v>2398.817321261059</v>
+        <v>2988.069926596602</v>
       </c>
       <c r="N35" t="n">
-        <v>3375.06837974776</v>
+        <v>2988.069926596602</v>
       </c>
       <c r="O35" t="n">
-        <v>4220.213029898572</v>
+        <v>3833.214576747414</v>
       </c>
       <c r="P35" t="n">
-        <v>4659.050190787244</v>
+        <v>4541.493855905342</v>
       </c>
       <c r="Q35" t="n">
-        <v>5115.135670291427</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="R35" t="n">
         <v>5115.135670291427</v>
@@ -6992,76 +6992,76 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>3873.571530742373</v>
+        <v>669.4262044372838</v>
       </c>
       <c r="C36" t="n">
-        <v>3756.065627259878</v>
+        <v>551.9203009547886</v>
       </c>
       <c r="D36" t="n">
-        <v>3652.225668775163</v>
+        <v>448.0803424700736</v>
       </c>
       <c r="E36" t="n">
-        <v>3547.523735048101</v>
+        <v>343.3784087430108</v>
       </c>
       <c r="F36" t="n">
-        <v>3453.877904731005</v>
+        <v>249.7325784259149</v>
       </c>
       <c r="G36" t="n">
-        <v>3359.824132948609</v>
+        <v>155.678806643519</v>
       </c>
       <c r="H36" t="n">
-        <v>3306.448039710919</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I36" t="n">
-        <v>3313.894682672831</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J36" t="n">
-        <v>3313.894682672831</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="K36" t="n">
-        <v>3904.37960924117</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="L36" t="n">
-        <v>3904.37960924117</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="M36" t="n">
-        <v>3904.37960924117</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="N36" t="n">
-        <v>4225.654392279956</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="O36" t="n">
-        <v>5115.135670291427</v>
+        <v>648.6278400003578</v>
       </c>
       <c r="P36" t="n">
-        <v>5115.135670291427</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="Q36" t="n">
-        <v>5115.135670291427</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="R36" t="n">
-        <v>5115.135670291427</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="S36" t="n">
-        <v>5033.811422852682</v>
+        <v>1829.666096547593</v>
       </c>
       <c r="T36" t="n">
-        <v>4891.93148715036</v>
+        <v>1687.786160845271</v>
       </c>
       <c r="U36" t="n">
-        <v>4707.163291069997</v>
+        <v>1503.017964764908</v>
       </c>
       <c r="V36" t="n">
-        <v>4502.190152209264</v>
+        <v>1298.044825904174</v>
       </c>
       <c r="W36" t="n">
-        <v>4305.668775042481</v>
+        <v>1101.523448737391</v>
       </c>
       <c r="X36" t="n">
-        <v>4142.191428809144</v>
+        <v>938.0461025040541</v>
       </c>
       <c r="Y36" t="n">
-        <v>4002.498540162436</v>
+        <v>798.3532138573465</v>
       </c>
     </row>
     <row r="37">
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>4017.903765402536</v>
+        <v>446.1370507523521</v>
       </c>
       <c r="C37" t="n">
-        <v>3845.931202281452</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="D37" t="n">
-        <v>3682.614429408222</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="E37" t="n">
-        <v>3516.406223561076</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="F37" t="n">
-        <v>3344.544449335636</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="G37" t="n">
-        <v>3178.287479629868</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H37" t="n">
-        <v>3034.491211138023</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I37" t="n">
-        <v>2934.722642878299</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J37" t="n">
-        <v>2992.213971102457</v>
+        <v>159.7940416299866</v>
       </c>
       <c r="K37" t="n">
-        <v>3218.741572308294</v>
+        <v>386.3216428358238</v>
       </c>
       <c r="L37" t="n">
-        <v>3573.430893602715</v>
+        <v>741.0109641302445</v>
       </c>
       <c r="M37" t="n">
-        <v>3964.616688572966</v>
+        <v>1132.196759100495</v>
       </c>
       <c r="N37" t="n">
-        <v>4342.108199449001</v>
+        <v>1509.688269976531</v>
       </c>
       <c r="O37" t="n">
-        <v>4697.536328128765</v>
+        <v>1865.116398656294</v>
       </c>
       <c r="P37" t="n">
-        <v>4988.135540050665</v>
+        <v>2155.715610578195</v>
       </c>
       <c r="Q37" t="n">
-        <v>5115.135670291427</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="R37" t="n">
-        <v>5068.0970569786</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S37" t="n">
-        <v>4897.962009497735</v>
+        <v>2185.297351822124</v>
       </c>
       <c r="T37" t="n">
-        <v>4654.622661723635</v>
+        <v>1941.958004048024</v>
       </c>
       <c r="U37" t="n">
-        <v>4434.41250242486</v>
+        <v>1661.773555548329</v>
       </c>
       <c r="V37" t="n">
-        <v>4434.41250242486</v>
+        <v>1380.062088156358</v>
       </c>
       <c r="W37" t="n">
-        <v>4434.41250242486</v>
+        <v>1105.20968432887</v>
       </c>
       <c r="X37" t="n">
-        <v>4434.41250242486</v>
+        <v>862.6457877746757</v>
       </c>
       <c r="Y37" t="n">
-        <v>4208.069734114601</v>
+        <v>636.3030194644177</v>
       </c>
     </row>
     <row r="38">
@@ -7150,40 +7150,40 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2540.701498063315</v>
+        <v>2540.701498063317</v>
       </c>
       <c r="C38" t="n">
-        <v>2113.800768076615</v>
+        <v>2113.800768076617</v>
       </c>
       <c r="D38" t="n">
-        <v>1690.508147261616</v>
+        <v>1690.508147261617</v>
       </c>
       <c r="E38" t="n">
         <v>1264.531207409474</v>
       </c>
       <c r="F38" t="n">
-        <v>839.4070255988736</v>
+        <v>839.4070255988738</v>
       </c>
       <c r="G38" t="n">
-        <v>435.0679631883222</v>
+        <v>435.0679631883225</v>
       </c>
       <c r="H38" t="n">
-        <v>137.1995846623568</v>
+        <v>137.1995846623573</v>
       </c>
       <c r="I38" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J38" t="n">
-        <v>102.3027134058285</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K38" t="n">
-        <v>817.8110213813276</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L38" t="n">
-        <v>1747.436069000604</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M38" t="n">
-        <v>2751.722170419663</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="N38" t="n">
         <v>2988.069926596602</v>
@@ -7210,16 +7210,16 @@
         <v>4531.487895805612</v>
       </c>
       <c r="V38" t="n">
-        <v>4173.998480931861</v>
+        <v>4173.998480931862</v>
       </c>
       <c r="W38" t="n">
-        <v>3777.607131232208</v>
+        <v>3777.607131232209</v>
       </c>
       <c r="X38" t="n">
-        <v>3365.887132399955</v>
+        <v>3365.887132399956</v>
       </c>
       <c r="Y38" t="n">
-        <v>2960.549862354846</v>
+        <v>2960.549862354847</v>
       </c>
     </row>
     <row r="39">
@@ -7262,16 +7262,16 @@
         <v>102.3027134058285</v>
       </c>
       <c r="M39" t="n">
-        <v>1158.289251381874</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="N39" t="n">
-        <v>1158.289251381874</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="O39" t="n">
-        <v>1910.990343986338</v>
+        <v>991.7839914173002</v>
       </c>
       <c r="P39" t="n">
-        <v>1910.990343986338</v>
+        <v>1707.981708455798</v>
       </c>
       <c r="Q39" t="n">
         <v>1910.990343986338</v>
@@ -7356,25 +7356,25 @@
         <v>2282.715740818957</v>
       </c>
       <c r="R40" t="n">
-        <v>2282.715740818957</v>
+        <v>2235.67712750613</v>
       </c>
       <c r="S40" t="n">
-        <v>2282.715740818957</v>
+        <v>2235.67712750613</v>
       </c>
       <c r="T40" t="n">
-        <v>2282.715740818957</v>
+        <v>2235.67712750613</v>
       </c>
       <c r="U40" t="n">
-        <v>2174.777572415784</v>
+        <v>2235.67712750613</v>
       </c>
       <c r="V40" t="n">
-        <v>1893.066105023813</v>
+        <v>2119.408873334071</v>
       </c>
       <c r="W40" t="n">
-        <v>1618.213701196326</v>
+        <v>1844.556469506584</v>
       </c>
       <c r="X40" t="n">
-        <v>1375.649804642131</v>
+        <v>1601.992572952389</v>
       </c>
       <c r="Y40" t="n">
         <v>1375.649804642131</v>
@@ -7420,19 +7420,19 @@
         <v>2110.0395278175</v>
       </c>
       <c r="M41" t="n">
-        <v>3114.325629236558</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="N41" t="n">
-        <v>4090.576687723259</v>
+        <v>2988.069926596602</v>
       </c>
       <c r="O41" t="n">
-        <v>4935.721337874071</v>
+        <v>3833.214576747414</v>
       </c>
       <c r="P41" t="n">
-        <v>5115.135670291427</v>
+        <v>4541.493855905342</v>
       </c>
       <c r="Q41" t="n">
-        <v>5115.135670291427</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="R41" t="n">
         <v>5115.135670291427</v>
@@ -7493,10 +7493,10 @@
         <v>102.3027134058285</v>
       </c>
       <c r="K42" t="n">
-        <v>692.7876399741681</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="L42" t="n">
-        <v>1529.586448057074</v>
+        <v>855.0038060102931</v>
       </c>
       <c r="M42" t="n">
         <v>1910.990343986338</v>
@@ -7545,25 +7545,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1185.483835930065</v>
+        <v>446.1370507523521</v>
       </c>
       <c r="C43" t="n">
-        <v>1013.511272808982</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="D43" t="n">
-        <v>850.1944999357522</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="E43" t="n">
-        <v>683.9862940886057</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="F43" t="n">
-        <v>512.1245198631661</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="G43" t="n">
-        <v>345.8675501573982</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H43" t="n">
-        <v>202.0712816655526</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I43" t="n">
         <v>102.3027134058285</v>
@@ -7584,37 +7584,37 @@
         <v>1509.688269976531</v>
       </c>
       <c r="O43" t="n">
-        <v>1865.116398656294</v>
+        <v>1865.116398656297</v>
       </c>
       <c r="P43" t="n">
-        <v>2155.715610578195</v>
+        <v>2155.715610578198</v>
       </c>
       <c r="Q43" t="n">
-        <v>2282.715740818957</v>
+        <v>2282.71574081896</v>
       </c>
       <c r="R43" t="n">
-        <v>2282.715740818957</v>
+        <v>2282.71574081896</v>
       </c>
       <c r="S43" t="n">
-        <v>2282.715740818957</v>
+        <v>2185.297351822124</v>
       </c>
       <c r="T43" t="n">
-        <v>2039.376393044857</v>
+        <v>1941.958004048024</v>
       </c>
       <c r="U43" t="n">
-        <v>2039.376393044857</v>
+        <v>1661.773555548329</v>
       </c>
       <c r="V43" t="n">
-        <v>2039.376393044857</v>
+        <v>1380.062088156358</v>
       </c>
       <c r="W43" t="n">
-        <v>1844.556469506584</v>
+        <v>1105.20968432887</v>
       </c>
       <c r="X43" t="n">
-        <v>1601.992572952389</v>
+        <v>862.6457877746757</v>
       </c>
       <c r="Y43" t="n">
-        <v>1375.649804642131</v>
+        <v>636.3030194644177</v>
       </c>
     </row>
     <row r="44">
@@ -7642,7 +7642,7 @@
         <v>435.0679631883233</v>
       </c>
       <c r="H44" t="n">
-        <v>137.1995846623573</v>
+        <v>137.1995846623582</v>
       </c>
       <c r="I44" t="n">
         <v>102.3027134058285</v>
@@ -7657,19 +7657,19 @@
         <v>2110.0395278175</v>
       </c>
       <c r="M44" t="n">
-        <v>3114.325629236558</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="N44" t="n">
-        <v>4090.576687723259</v>
+        <v>2988.069926596602</v>
       </c>
       <c r="O44" t="n">
-        <v>4935.721337874071</v>
+        <v>3833.214576747414</v>
       </c>
       <c r="P44" t="n">
-        <v>5115.135670291427</v>
+        <v>4541.493855905342</v>
       </c>
       <c r="Q44" t="n">
-        <v>5115.135670291427</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="R44" t="n">
         <v>5115.135670291427</v>
@@ -7727,28 +7727,28 @@
         <v>109.7493563677404</v>
       </c>
       <c r="J45" t="n">
-        <v>109.7493563677404</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="K45" t="n">
-        <v>700.2342829360799</v>
+        <v>971.931772215671</v>
       </c>
       <c r="L45" t="n">
-        <v>700.2342829360799</v>
+        <v>1808.730580298577</v>
       </c>
       <c r="M45" t="n">
-        <v>700.2342829360799</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="N45" t="n">
-        <v>700.2342829360799</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="O45" t="n">
-        <v>700.2342829360799</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="P45" t="n">
-        <v>1364.825557038856</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="Q45" t="n">
-        <v>1828.971033901635</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="R45" t="n">
         <v>1910.990343986338</v>
@@ -7782,19 +7782,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>612.3452565994986</v>
+        <v>655.1318596602932</v>
       </c>
       <c r="C46" t="n">
-        <v>440.3726934784146</v>
+        <v>483.1592965392092</v>
       </c>
       <c r="D46" t="n">
-        <v>440.3726934784146</v>
+        <v>483.1592965392092</v>
       </c>
       <c r="E46" t="n">
-        <v>274.1644876312681</v>
+        <v>316.9510906920627</v>
       </c>
       <c r="F46" t="n">
-        <v>102.3027134058285</v>
+        <v>145.0893164666232</v>
       </c>
       <c r="G46" t="n">
         <v>102.3027134058285</v>
@@ -7818,40 +7818,40 @@
         <v>1132.196759100495</v>
       </c>
       <c r="N46" t="n">
-        <v>1509.688269976531</v>
+        <v>1509.688269976534</v>
       </c>
       <c r="O46" t="n">
-        <v>1865.116398656294</v>
+        <v>1865.116398656297</v>
       </c>
       <c r="P46" t="n">
-        <v>2155.715610578195</v>
+        <v>2155.715610578198</v>
       </c>
       <c r="Q46" t="n">
-        <v>2282.715740818957</v>
+        <v>2282.71574081896</v>
       </c>
       <c r="R46" t="n">
-        <v>2282.715740818957</v>
+        <v>2282.71574081896</v>
       </c>
       <c r="S46" t="n">
-        <v>2282.715740818957</v>
+        <v>2112.580693338095</v>
       </c>
       <c r="T46" t="n">
-        <v>2039.376393044857</v>
+        <v>1869.241345563994</v>
       </c>
       <c r="U46" t="n">
-        <v>1759.191944545161</v>
+        <v>1589.056897064299</v>
       </c>
       <c r="V46" t="n">
-        <v>1477.48047715319</v>
+        <v>1589.056897064299</v>
       </c>
       <c r="W46" t="n">
-        <v>1271.417890176017</v>
+        <v>1314.204493236812</v>
       </c>
       <c r="X46" t="n">
-        <v>1028.853993621822</v>
+        <v>1071.640596682617</v>
       </c>
       <c r="Y46" t="n">
-        <v>802.5112253115642</v>
+        <v>845.2978283723589</v>
       </c>
     </row>
   </sheetData>
@@ -7978,28 +7978,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>29.41995948558652</v>
+        <v>32.95771412405814</v>
       </c>
       <c r="K2" t="n">
-        <v>519.5412919487776</v>
+        <v>519.5412919487778</v>
       </c>
       <c r="L2" t="n">
-        <v>522.0887335865912</v>
+        <v>38.31204243262292</v>
       </c>
       <c r="M2" t="n">
-        <v>521.2079540534</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N2" t="n">
-        <v>501.5097810124963</v>
+        <v>37.27962283444602</v>
       </c>
       <c r="O2" t="n">
-        <v>37.3909593560241</v>
+        <v>521.1676505099925</v>
       </c>
       <c r="P2" t="n">
-        <v>37.5753618102313</v>
+        <v>521.3520529641997</v>
       </c>
       <c r="Q2" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R2" t="n">
         <v>35.03264989479647</v>
@@ -8054,34 +8054,34 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J3" t="n">
         <v>20.61111433333334</v>
       </c>
       <c r="K3" t="n">
-        <v>506.1759249873015</v>
+        <v>322.599589577028</v>
       </c>
       <c r="L3" t="n">
         <v>22.51508671422956</v>
       </c>
       <c r="M3" t="n">
-        <v>506.8734716662962</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N3" t="n">
-        <v>505.1197193675099</v>
+        <v>505.1197193675101</v>
       </c>
       <c r="O3" t="n">
-        <v>23.17188972222222</v>
+        <v>506.9485808761906</v>
       </c>
       <c r="P3" t="n">
-        <v>397.3979703494995</v>
+        <v>21.77084120482866</v>
       </c>
       <c r="Q3" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R3" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8136,10 +8136,10 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>20.63675598390187</v>
+        <v>78.70880469517259</v>
       </c>
       <c r="K4" t="n">
-        <v>20.97529217030992</v>
+        <v>91.18620329819346</v>
       </c>
       <c r="L4" t="n">
         <v>380.1908016072373</v>
@@ -8157,7 +8157,7 @@
         <v>315.9153581548562</v>
       </c>
       <c r="Q4" t="n">
-        <v>152.9025226039384</v>
+        <v>24.61956276478495</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -8221,10 +8221,10 @@
         <v>591.9924139104035</v>
       </c>
       <c r="L5" t="n">
-        <v>87.05611188819479</v>
+        <v>38.31204243262292</v>
       </c>
       <c r="M5" t="n">
-        <v>593.6590760150259</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N5" t="n">
         <v>593.5074359500402</v>
@@ -8233,10 +8233,10 @@
         <v>37.3909593560241</v>
       </c>
       <c r="P5" t="n">
-        <v>37.5753618102313</v>
+        <v>181.8548408418185</v>
       </c>
       <c r="Q5" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R5" t="n">
         <v>153.7764225027789</v>
@@ -8294,19 +8294,19 @@
         <v>23.69424832768873</v>
       </c>
       <c r="J6" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K6" t="n">
-        <v>578.6270469489275</v>
+        <v>22.39923383333334</v>
       </c>
       <c r="L6" t="n">
         <v>22.51508671422956</v>
       </c>
       <c r="M6" t="n">
-        <v>178.3948923327717</v>
+        <v>579.3245936279221</v>
       </c>
       <c r="N6" t="n">
-        <v>21.34302821354166</v>
+        <v>453.880834648017</v>
       </c>
       <c r="O6" t="n">
         <v>23.17188972222222</v>
@@ -8315,10 +8315,10 @@
         <v>577.9986543204228</v>
       </c>
       <c r="Q6" t="n">
-        <v>491.5808533018869</v>
+        <v>22.7470382889785</v>
       </c>
       <c r="R6" t="n">
-        <v>106.5207073584907</v>
+        <v>23.67291939414415</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -8373,7 +8373,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>78.70880469517259</v>
+        <v>78.70880469517321</v>
       </c>
       <c r="K7" t="n">
         <v>249.7804132464869</v>
@@ -8455,25 +8455,25 @@
         <v>29.41995948558652</v>
       </c>
       <c r="K8" t="n">
-        <v>591.9924139104035</v>
+        <v>35.76460079480934</v>
       </c>
       <c r="L8" t="n">
-        <v>453.322231905261</v>
+        <v>38.31204243262292</v>
       </c>
       <c r="M8" t="n">
         <v>37.43126289943181</v>
       </c>
       <c r="N8" t="n">
-        <v>593.5074359500402</v>
+        <v>547.8252218830994</v>
       </c>
       <c r="O8" t="n">
         <v>593.6187724716183</v>
       </c>
       <c r="P8" t="n">
-        <v>37.5753618102313</v>
+        <v>593.8031749258255</v>
       </c>
       <c r="Q8" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R8" t="n">
         <v>153.7764225027789</v>
@@ -8534,28 +8534,28 @@
         <v>20.61111433333334</v>
       </c>
       <c r="K9" t="n">
-        <v>578.6270469489275</v>
+        <v>22.39923383333334</v>
       </c>
       <c r="L9" t="n">
-        <v>185.3350601123618</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M9" t="n">
-        <v>23.09678051232798</v>
+        <v>579.3245936279221</v>
       </c>
       <c r="N9" t="n">
-        <v>21.34302821354166</v>
+        <v>179.6167914733348</v>
       </c>
       <c r="O9" t="n">
-        <v>23.17188972222222</v>
+        <v>579.3997028378163</v>
       </c>
       <c r="P9" t="n">
         <v>577.9986543204228</v>
       </c>
       <c r="Q9" t="n">
-        <v>491.5808533018869</v>
+        <v>22.7470382889785</v>
       </c>
       <c r="R9" t="n">
-        <v>106.5207073584907</v>
+        <v>23.67291939414415</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -8689,7 +8689,7 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>386.8988393430025</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K11" t="n">
         <v>758.5002654165255</v>
@@ -8704,7 +8704,7 @@
         <v>37.27962283444602</v>
       </c>
       <c r="O11" t="n">
-        <v>891.0724241548241</v>
+        <v>763.5414113871921</v>
       </c>
       <c r="P11" t="n">
         <v>753.0089771212694</v>
@@ -8713,7 +8713,7 @@
         <v>496.8170781441769</v>
       </c>
       <c r="R11" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8765,7 +8765,7 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J12" t="n">
         <v>20.61111433333334</v>
@@ -8774,16 +8774,16 @@
         <v>618.848654609434</v>
       </c>
       <c r="L12" t="n">
-        <v>152.7047407943309</v>
+        <v>347.0350695816909</v>
       </c>
       <c r="M12" t="n">
         <v>23.09678051232798</v>
       </c>
       <c r="N12" t="n">
-        <v>1121.661155963915</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O12" t="n">
-        <v>23.17188972222222</v>
+        <v>921.6378271075471</v>
       </c>
       <c r="P12" t="n">
         <v>21.77084120482866</v>
@@ -8926,25 +8926,25 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K14" t="n">
         <v>758.5002654165255</v>
       </c>
       <c r="L14" t="n">
-        <v>229.9501690078907</v>
+        <v>977.3272420480539</v>
       </c>
       <c r="M14" t="n">
         <v>1051.861668373228</v>
       </c>
       <c r="N14" t="n">
-        <v>1023.391803124043</v>
+        <v>625.182225377852</v>
       </c>
       <c r="O14" t="n">
         <v>891.0724241548241</v>
       </c>
       <c r="P14" t="n">
-        <v>753.0089771212694</v>
+        <v>37.5753618102313</v>
       </c>
       <c r="Q14" t="n">
         <v>496.8170781441769</v>
@@ -9005,13 +9005,13 @@
         <v>16.17238675</v>
       </c>
       <c r="J15" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K15" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L15" t="n">
-        <v>867.7664080100944</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M15" t="n">
         <v>23.09678051232798</v>
@@ -9020,16 +9020,16 @@
         <v>21.34302821354166</v>
       </c>
       <c r="O15" t="n">
-        <v>281.4457336203087</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P15" t="n">
-        <v>745.2028786174529</v>
+        <v>426.1551116948253</v>
       </c>
       <c r="Q15" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R15" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9163,16 +9163,16 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K17" t="n">
-        <v>35.76460079480934</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L17" t="n">
         <v>977.3272420480539</v>
       </c>
       <c r="M17" t="n">
-        <v>1051.861668373228</v>
+        <v>56.96224792398087</v>
       </c>
       <c r="N17" t="n">
         <v>1023.391803124043</v>
@@ -9187,7 +9187,7 @@
         <v>496.8170781441769</v>
       </c>
       <c r="R17" t="n">
-        <v>129.1350140843319</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9239,13 +9239,13 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J18" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K18" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L18" t="n">
         <v>22.51508671422956</v>
@@ -9254,16 +9254,16 @@
         <v>23.09678051232798</v>
       </c>
       <c r="N18" t="n">
-        <v>949.8342934347922</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O18" t="n">
-        <v>921.6378271075471</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P18" t="n">
-        <v>21.77084120482866</v>
+        <v>501.4810380814832</v>
       </c>
       <c r="Q18" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R18" t="n">
         <v>23.67291939414415</v>
@@ -9400,19 +9400,19 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K20" t="n">
         <v>758.5002654165255</v>
       </c>
       <c r="L20" t="n">
-        <v>229.9501690078907</v>
+        <v>977.3272420480539</v>
       </c>
       <c r="M20" t="n">
-        <v>1051.861668373228</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N20" t="n">
-        <v>1023.391803124043</v>
+        <v>924.1790155406098</v>
       </c>
       <c r="O20" t="n">
         <v>891.0724241548241</v>
@@ -9476,31 +9476,31 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J21" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K21" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L21" t="n">
-        <v>22.51508671422956</v>
+        <v>867.7664080100944</v>
       </c>
       <c r="M21" t="n">
-        <v>23.09678051232798</v>
+        <v>126.3894711060262</v>
       </c>
       <c r="N21" t="n">
         <v>21.34302821354166</v>
       </c>
       <c r="O21" t="n">
-        <v>657.8632399032651</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P21" t="n">
-        <v>745.2028786174529</v>
+        <v>21.77084120482866</v>
       </c>
       <c r="Q21" t="n">
-        <v>491.5808533018869</v>
+        <v>22.7470382889785</v>
       </c>
       <c r="R21" t="n">
         <v>23.67291939414415</v>
@@ -9637,7 +9637,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K23" t="n">
         <v>758.5002654165255</v>
@@ -9646,19 +9646,19 @@
         <v>977.3272420480539</v>
       </c>
       <c r="M23" t="n">
-        <v>1051.861668373228</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N23" t="n">
-        <v>1023.391803124043</v>
+        <v>924.1790155406098</v>
       </c>
       <c r="O23" t="n">
         <v>891.0724241548241</v>
       </c>
       <c r="P23" t="n">
-        <v>466.324307620685</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q23" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R23" t="n">
         <v>153.7764225027789</v>
@@ -9713,22 +9713,22 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J24" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K24" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L24" t="n">
-        <v>22.51508671422956</v>
+        <v>867.7664080100944</v>
       </c>
       <c r="M24" t="n">
-        <v>1089.749849175</v>
+        <v>126.3894711060262</v>
       </c>
       <c r="N24" t="n">
-        <v>781.6471621574452</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O24" t="n">
         <v>23.17188972222222</v>
@@ -9874,7 +9874,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K26" t="n">
         <v>758.5002654165255</v>
@@ -9883,22 +9883,22 @@
         <v>977.3272420480539</v>
       </c>
       <c r="M26" t="n">
-        <v>1051.861668373228</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N26" t="n">
-        <v>1023.391803124043</v>
+        <v>924.1790155406098</v>
       </c>
       <c r="O26" t="n">
         <v>891.0724241548241</v>
       </c>
       <c r="P26" t="n">
-        <v>585.0680802286672</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q26" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R26" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9950,7 +9950,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J27" t="n">
         <v>20.61111433333334</v>
@@ -9959,22 +9959,22 @@
         <v>22.39923383333334</v>
       </c>
       <c r="L27" t="n">
-        <v>22.51508671422956</v>
+        <v>867.7664080100944</v>
       </c>
       <c r="M27" t="n">
-        <v>23.09678051232798</v>
+        <v>997.2808002453501</v>
       </c>
       <c r="N27" t="n">
-        <v>1121.661155963915</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O27" t="n">
-        <v>280.9771495655156</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P27" t="n">
         <v>21.77084120482866</v>
       </c>
       <c r="Q27" t="n">
-        <v>491.5808533018869</v>
+        <v>22.7470382889785</v>
       </c>
       <c r="R27" t="n">
         <v>23.67291939414415</v>
@@ -10120,7 +10120,7 @@
         <v>977.3272420480539</v>
       </c>
       <c r="M29" t="n">
-        <v>1051.861668373228</v>
+        <v>423.228367941047</v>
       </c>
       <c r="N29" t="n">
         <v>1023.391803124043</v>
@@ -10129,10 +10129,10 @@
         <v>891.0724241548241</v>
       </c>
       <c r="P29" t="n">
-        <v>585.0680802286672</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q29" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R29" t="n">
         <v>35.03264989479647</v>
@@ -10187,34 +10187,34 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J30" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K30" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L30" t="n">
         <v>22.51508671422956</v>
       </c>
       <c r="M30" t="n">
-        <v>749.7358553685299</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N30" t="n">
-        <v>1121.661155963915</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O30" t="n">
         <v>23.17188972222222</v>
       </c>
       <c r="P30" t="n">
-        <v>21.77084120482866</v>
+        <v>418.6332501171365</v>
       </c>
       <c r="Q30" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R30" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10348,7 +10348,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K32" t="n">
         <v>758.5002654165255</v>
@@ -10363,13 +10363,13 @@
         <v>1023.391803124043</v>
       </c>
       <c r="O32" t="n">
-        <v>891.0724241548241</v>
+        <v>492.8628464086332</v>
       </c>
       <c r="P32" t="n">
-        <v>466.324307620685</v>
+        <v>37.5753618102313</v>
       </c>
       <c r="Q32" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R32" t="n">
         <v>153.7764225027789</v>
@@ -10424,7 +10424,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J33" t="n">
         <v>20.61111433333334</v>
@@ -10439,19 +10439,19 @@
         <v>23.09678051232798</v>
       </c>
       <c r="N33" t="n">
-        <v>1121.661155963915</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O33" t="n">
-        <v>749.810964578424</v>
+        <v>567.4935903612297</v>
       </c>
       <c r="P33" t="n">
-        <v>21.77084120482866</v>
+        <v>745.2028786174529</v>
       </c>
       <c r="Q33" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R33" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10588,28 +10588,28 @@
         <v>395.6860795026527</v>
       </c>
       <c r="K35" t="n">
-        <v>35.76460079480934</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L35" t="n">
         <v>977.3272420480539</v>
       </c>
       <c r="M35" t="n">
-        <v>1051.861668373228</v>
+        <v>924.3306556055956</v>
       </c>
       <c r="N35" t="n">
-        <v>1023.391803124043</v>
+        <v>37.27962283444602</v>
       </c>
       <c r="O35" t="n">
         <v>891.0724241548241</v>
       </c>
       <c r="P35" t="n">
-        <v>480.8452212937382</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q35" t="n">
         <v>496.8170781441769</v>
       </c>
       <c r="R35" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10661,13 +10661,13 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>23.69424832768873</v>
+        <v>16.17238675</v>
       </c>
       <c r="J36" t="n">
         <v>20.61111433333334</v>
       </c>
       <c r="K36" t="n">
-        <v>618.848654609434</v>
+        <v>22.39923383333334</v>
       </c>
       <c r="L36" t="n">
         <v>22.51508671422956</v>
@@ -10676,19 +10676,19 @@
         <v>23.09678051232798</v>
       </c>
       <c r="N36" t="n">
-        <v>345.8630110810016</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O36" t="n">
-        <v>921.6378271075471</v>
+        <v>575.0154519389184</v>
       </c>
       <c r="P36" t="n">
-        <v>21.77084120482866</v>
+        <v>745.2028786174529</v>
       </c>
       <c r="Q36" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R36" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10822,7 +10822,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K38" t="n">
         <v>758.5002654165255</v>
@@ -10831,10 +10831,10 @@
         <v>977.3272420480539</v>
       </c>
       <c r="M38" t="n">
-        <v>1051.861668373228</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N38" t="n">
-        <v>276.0147300838795</v>
+        <v>924.1790155406098</v>
       </c>
       <c r="O38" t="n">
         <v>891.0724241548241</v>
@@ -10910,19 +10910,19 @@
         <v>22.51508671422956</v>
       </c>
       <c r="M39" t="n">
-        <v>1089.749849175</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N39" t="n">
         <v>21.34302821354166</v>
       </c>
       <c r="O39" t="n">
-        <v>783.4760236661258</v>
+        <v>921.6378271075471</v>
       </c>
       <c r="P39" t="n">
-        <v>21.77084120482866</v>
+        <v>745.2028786174529</v>
       </c>
       <c r="Q39" t="n">
-        <v>22.7470382889785</v>
+        <v>227.806266097605</v>
       </c>
       <c r="R39" t="n">
         <v>23.67291939414415</v>
@@ -11068,22 +11068,22 @@
         <v>977.3272420480539</v>
       </c>
       <c r="M41" t="n">
-        <v>1051.861668373228</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N41" t="n">
-        <v>1023.391803124043</v>
+        <v>924.1790155406098</v>
       </c>
       <c r="O41" t="n">
         <v>891.0724241548241</v>
       </c>
       <c r="P41" t="n">
-        <v>218.8019602116015</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q41" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R41" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11141,13 +11141,13 @@
         <v>20.61111433333334</v>
       </c>
       <c r="K42" t="n">
-        <v>618.848654609434</v>
+        <v>22.39923383333334</v>
       </c>
       <c r="L42" t="n">
-        <v>867.7664080100944</v>
+        <v>782.8192206581333</v>
       </c>
       <c r="M42" t="n">
-        <v>408.3532410469382</v>
+        <v>1089.749849175</v>
       </c>
       <c r="N42" t="n">
         <v>21.34302821354166</v>
@@ -11305,22 +11305,22 @@
         <v>977.3272420480539</v>
       </c>
       <c r="M44" t="n">
-        <v>1051.861668373228</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N44" t="n">
-        <v>1023.391803124043</v>
+        <v>924.1790155406098</v>
       </c>
       <c r="O44" t="n">
         <v>891.0724241548241</v>
       </c>
       <c r="P44" t="n">
-        <v>218.8019602116015</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q44" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R44" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11375,16 +11375,16 @@
         <v>23.69424832768873</v>
       </c>
       <c r="J45" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K45" t="n">
         <v>618.848654609434</v>
       </c>
       <c r="L45" t="n">
-        <v>22.51508671422956</v>
+        <v>867.7664080100944</v>
       </c>
       <c r="M45" t="n">
-        <v>23.09678051232798</v>
+        <v>126.3894711060262</v>
       </c>
       <c r="N45" t="n">
         <v>21.34302821354166</v>
@@ -11393,13 +11393,13 @@
         <v>23.17188972222222</v>
       </c>
       <c r="P45" t="n">
-        <v>693.0751584803598</v>
+        <v>21.77084120482866</v>
       </c>
       <c r="Q45" t="n">
-        <v>491.5808533018869</v>
+        <v>22.7470382889785</v>
       </c>
       <c r="R45" t="n">
-        <v>106.5207073584907</v>
+        <v>23.67291939414415</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23418,25 +23418,25 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>71.98949189918933</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23466,16 +23466,16 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S13" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>117.2205539080143</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -23652,7 +23652,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -23703,7 +23703,7 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>59.37454630891077</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23712,16 +23712,16 @@
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W16" t="n">
-        <v>198.0291291640738</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X16" t="n">
         <v>240.1382575886529</v>
       </c>
       <c r="Y16" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23895,22 +23895,22 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>66.44073542471345</v>
       </c>
       <c r="H19" t="n">
-        <v>115.7088052046616</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23940,16 +23940,16 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S19" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -24132,13 +24132,13 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E22" t="n">
-        <v>59.64236734312286</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F22" t="n">
-        <v>170.1431564831852</v>
+        <v>71.9894918991925</v>
       </c>
       <c r="G22" t="n">
         <v>164.5944000087102</v>
@@ -24177,7 +24177,7 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S22" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24369,22 +24369,22 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24411,22 +24411,22 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S25" t="n">
-        <v>60.11859830455764</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>240.905954296359</v>
+        <v>71.98949189919222</v>
       </c>
       <c r="U25" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -24600,13 +24600,13 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E28" t="n">
         <v>164.546123788675</v>
@@ -24618,10 +24618,10 @@
         <v>164.5944000087102</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24651,7 +24651,7 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S28" t="n">
-        <v>168.4336970060565</v>
+        <v>71.9894918991922</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24669,7 +24669,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>118.1042793967421</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24837,25 +24837,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>110.0981677402028</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>142.3583058069271</v>
+        <v>89.10278813737349</v>
       </c>
       <c r="I31" t="n">
         <v>98.77088257712678</v>
@@ -24885,16 +24885,16 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -25083,16 +25083,16 @@
         <v>161.683605144497</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I34" t="n">
         <v>98.77088257712678</v>
@@ -25122,10 +25122,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>71.9894918991922</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25137,13 +25137,13 @@
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>125.8389504673944</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -25317,22 +25317,22 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25359,25 +25359,25 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>71.9894918991922</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>59.37454630891094</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -25596,7 +25596,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>168.4336970060565</v>
@@ -25605,10 +25605,10 @@
         <v>240.905954296359</v>
       </c>
       <c r="U40" t="n">
-        <v>170.5238172955577</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>163.7887810877128</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
@@ -25617,7 +25617,7 @@
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -25791,22 +25791,22 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25836,19 +25836,19 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S43" t="n">
-        <v>168.4336970060565</v>
+        <v>71.98949189918905</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>79.23215548632197</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
@@ -26037,7 +26037,7 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>164.5944000087102</v>
+        <v>122.2356629785235</v>
       </c>
       <c r="H46" t="n">
         <v>142.3583058069271</v>
@@ -26073,7 +26073,7 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S46" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26082,10 +26082,10 @@
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W46" t="n">
-        <v>68.1019186818109</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>576877.2231745272</v>
+        <v>576877.2231745271</v>
       </c>
     </row>
     <row r="9">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>576877.2231745271</v>
+        <v>576877.2231745272</v>
       </c>
     </row>
     <row r="12">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>576877.2231745271</v>
+        <v>576877.2231745272</v>
       </c>
     </row>
   </sheetData>
@@ -26313,7 +26313,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>465954.1344089303</v>
+        <v>465954.1344089305</v>
       </c>
       <c r="C2" t="n">
         <v>465954.1344089304</v>
@@ -26322,37 +26322,37 @@
         <v>465954.1344089304</v>
       </c>
       <c r="E2" t="n">
+        <v>449624.3225099581</v>
+      </c>
+      <c r="F2" t="n">
+        <v>449624.3225099578</v>
+      </c>
+      <c r="G2" t="n">
+        <v>449624.322509958</v>
+      </c>
+      <c r="H2" t="n">
         <v>449624.3225099579</v>
       </c>
-      <c r="F2" t="n">
+      <c r="I2" t="n">
+        <v>449624.322509958</v>
+      </c>
+      <c r="J2" t="n">
+        <v>449624.3225099578</v>
+      </c>
+      <c r="K2" t="n">
+        <v>449624.3225099578</v>
+      </c>
+      <c r="L2" t="n">
+        <v>449624.3225099578</v>
+      </c>
+      <c r="M2" t="n">
+        <v>449624.3225099578</v>
+      </c>
+      <c r="N2" t="n">
+        <v>449624.322509958</v>
+      </c>
+      <c r="O2" t="n">
         <v>449624.3225099579</v>
-      </c>
-      <c r="G2" t="n">
-        <v>449624.3225099578</v>
-      </c>
-      <c r="H2" t="n">
-        <v>449624.3225099578</v>
-      </c>
-      <c r="I2" t="n">
-        <v>449624.3225099579</v>
-      </c>
-      <c r="J2" t="n">
-        <v>449624.3225099579</v>
-      </c>
-      <c r="K2" t="n">
-        <v>449624.3225099581</v>
-      </c>
-      <c r="L2" t="n">
-        <v>449624.3225099579</v>
-      </c>
-      <c r="M2" t="n">
-        <v>449624.3225099579</v>
-      </c>
-      <c r="N2" t="n">
-        <v>449624.3225099578</v>
-      </c>
-      <c r="O2" t="n">
-        <v>449624.322509958</v>
       </c>
       <c r="P2" t="n">
         <v>449624.3225099579</v>
@@ -26365,10 +26365,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>162124.6960695913</v>
+        <v>162124.6960695914</v>
       </c>
       <c r="C3" t="n">
-        <v>23406.83367361215</v>
+        <v>23406.83367361208</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -26392,7 +26392,7 @@
         <v>126577.2685802889</v>
       </c>
       <c r="K3" t="n">
-        <v>18646.60035701974</v>
+        <v>18646.60035701968</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -26426,28 +26426,28 @@
         <v>165375.7390424566</v>
       </c>
       <c r="E4" t="n">
-        <v>43748.40045389551</v>
+        <v>43748.40045389557</v>
       </c>
       <c r="F4" t="n">
-        <v>43748.40045389551</v>
+        <v>43748.40045389558</v>
       </c>
       <c r="G4" t="n">
-        <v>43748.40045389553</v>
+        <v>43748.40045389556</v>
       </c>
       <c r="H4" t="n">
-        <v>43748.40045389552</v>
+        <v>43748.40045389557</v>
       </c>
       <c r="I4" t="n">
+        <v>43748.40045389557</v>
+      </c>
+      <c r="J4" t="n">
         <v>43748.40045389556</v>
-      </c>
-      <c r="J4" t="n">
-        <v>43748.40045389557</v>
       </c>
       <c r="K4" t="n">
         <v>43748.40045389556</v>
       </c>
       <c r="L4" t="n">
-        <v>43748.40045389557</v>
+        <v>43748.40045389556</v>
       </c>
       <c r="M4" t="n">
         <v>43748.40045389556</v>
@@ -26456,7 +26456,7 @@
         <v>43748.40045389556</v>
       </c>
       <c r="O4" t="n">
-        <v>43748.40045389557</v>
+        <v>43748.40045389556</v>
       </c>
       <c r="P4" t="n">
         <v>43748.40045389557</v>
@@ -26469,7 +26469,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>63041.22282216126</v>
+        <v>63041.22282216127</v>
       </c>
       <c r="C5" t="n">
         <v>67446.25103742813</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>61060.19733853954</v>
+        <v>61060.19733853961</v>
       </c>
       <c r="C6" t="n">
-        <v>209725.3106554335</v>
+        <v>209725.3106554336</v>
       </c>
       <c r="D6" t="n">
-        <v>233132.1443290456</v>
+        <v>233132.1443290457</v>
       </c>
       <c r="E6" t="n">
-        <v>112386.5033109921</v>
+        <v>112335.4726488079</v>
       </c>
       <c r="F6" t="n">
-        <v>328125.8598676327</v>
+        <v>328074.8292054482</v>
       </c>
       <c r="G6" t="n">
-        <v>328125.8598676326</v>
+        <v>328074.8292054484</v>
       </c>
       <c r="H6" t="n">
-        <v>328125.8598676326</v>
+        <v>328074.8292054483</v>
       </c>
       <c r="I6" t="n">
-        <v>328125.8598676327</v>
+        <v>328074.8292054484</v>
       </c>
       <c r="J6" t="n">
-        <v>201548.5912873438</v>
+        <v>201497.5606251594</v>
       </c>
       <c r="K6" t="n">
-        <v>309479.259510613</v>
+        <v>309428.2288484285</v>
       </c>
       <c r="L6" t="n">
-        <v>328125.8598676327</v>
+        <v>328074.8292054482</v>
       </c>
       <c r="M6" t="n">
-        <v>148061.988412465</v>
+        <v>148010.9577502806</v>
       </c>
       <c r="N6" t="n">
-        <v>328125.8598676325</v>
+        <v>328074.8292054484</v>
       </c>
       <c r="O6" t="n">
-        <v>328125.8598676327</v>
+        <v>328074.8292054484</v>
       </c>
       <c r="P6" t="n">
-        <v>328125.8598676326</v>
+        <v>328074.8292054483</v>
       </c>
     </row>
   </sheetData>
@@ -26789,7 +26789,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>483.7766911539682</v>
+        <v>483.7766911539684</v>
       </c>
       <c r="C4" t="n">
         <v>556.2278131155941</v>
@@ -27011,10 +27011,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>483.7766911539682</v>
+        <v>483.7766911539684</v>
       </c>
       <c r="C4" t="n">
-        <v>72.45112196162592</v>
+        <v>72.45112196162569</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -27035,10 +27035,10 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>483.7766911539682</v>
+        <v>483.7766911539684</v>
       </c>
       <c r="K4" t="n">
-        <v>72.45112196162592</v>
+        <v>72.45112196162569</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -27257,10 +27257,10 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>483.7766911539682</v>
+        <v>483.7766911539684</v>
       </c>
       <c r="K4" t="n">
-        <v>72.45112196162592</v>
+        <v>72.45112196162569</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -27378,13 +27378,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>224.1006295357834</v>
+        <v>179.2305980972453</v>
       </c>
       <c r="C2" t="n">
         <v>400</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="E2" t="n">
         <v>400</v>
@@ -27399,7 +27399,7 @@
         <v>294.8896947407055</v>
       </c>
       <c r="I2" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27429,19 +27429,19 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>218.7163152458132</v>
       </c>
       <c r="U2" t="n">
-        <v>255.7713603095518</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
@@ -27536,7 +27536,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C4" t="n">
         <v>170.2528374898731</v>
@@ -27545,7 +27545,7 @@
         <v>161.683605144497</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27557,7 +27557,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>72.49884631551399</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27587,7 +27587,7 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S4" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -27599,13 +27599,13 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>240.1382575886529</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>61.45510772003479</v>
       </c>
     </row>
     <row r="5">
@@ -27615,7 +27615,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>206.2762395340009</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -27624,7 +27624,7 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>128.3161759654051</v>
       </c>
       <c r="F5" t="n">
         <v>400</v>
@@ -27666,10 +27666,10 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -27684,7 +27684,7 @@
         <v>400</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
     </row>
     <row r="6">
@@ -27788,7 +27788,7 @@
         <v>170.1431564831852</v>
       </c>
       <c r="G7" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -27821,25 +27821,25 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>126.4568155701064</v>
       </c>
       <c r="U7" t="n">
-        <v>138.1082446177538</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -27864,7 +27864,7 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
         <v>400</v>
@@ -27909,7 +27909,7 @@
         <v>218.7163152458132</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V8" t="n">
         <v>353.914520725013</v>
@@ -27918,10 +27918,10 @@
         <v>392.4274362026566</v>
       </c>
       <c r="X8" t="n">
+        <v>350.5048792244485</v>
+      </c>
+      <c r="Y8" t="n">
         <v>400</v>
-      </c>
-      <c r="Y8" t="n">
-        <v>206.276239534001</v>
       </c>
     </row>
     <row r="9">
@@ -28013,10 +28013,10 @@
         <v>188.264309024945</v>
       </c>
       <c r="C10" t="n">
-        <v>64.19216452218527</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>11.96549986132283</v>
       </c>
       <c r="E10" t="n">
         <v>164.546123788675</v>
@@ -28025,7 +28025,7 @@
         <v>170.1431564831852</v>
       </c>
       <c r="G10" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -28058,7 +28058,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>46.56822717969948</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -28098,7 +28098,7 @@
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>-2.779647469158316e-13</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
@@ -28271,7 +28271,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>3.205021433435225e-12</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -28617,7 +28617,7 @@
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>-8.878873722601852e-13</v>
       </c>
       <c r="U17" t="n">
         <v>0</v>
@@ -28745,7 +28745,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>0</v>
+        <v>4.147674796210292e-12</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
@@ -30510,7 +30510,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>-9.379164112033322e-13</v>
       </c>
       <c r="T41" t="n">
         <v>0</v>
@@ -30656,7 +30656,7 @@
         <v>0</v>
       </c>
       <c r="O43" t="n">
-        <v>0</v>
+        <v>3.110756097157719e-12</v>
       </c>
       <c r="P43" t="n">
         <v>0</v>
@@ -30717,7 +30717,7 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>-8.313350008393172e-13</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -30890,7 +30890,7 @@
         <v>0</v>
       </c>
       <c r="N46" t="n">
-        <v>0</v>
+        <v>2.757261086117069e-12</v>
       </c>
       <c r="O46" t="n">
         <v>0</v>
@@ -34698,28 +34698,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>3.537754638471619</v>
       </c>
       <c r="K2" t="n">
-        <v>483.7766911539682</v>
+        <v>483.7766911539684</v>
       </c>
       <c r="L2" t="n">
-        <v>483.7766911539682</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>483.7766911539682</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>464.2301581780503</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>483.7766911539684</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>483.7766911539684</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34774,34 +34774,34 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>483.7766911539682</v>
+        <v>300.2003557436947</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>483.7766911539682</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>483.7766911539682</v>
+        <v>483.7766911539684</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>483.7766911539684</v>
       </c>
       <c r="P3" t="n">
-        <v>375.6271291446708</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -34856,10 +34856,10 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>58.07204871127072</v>
       </c>
       <c r="K4" t="n">
-        <v>0.0106377175979208</v>
+        <v>70.22154884548146</v>
       </c>
       <c r="L4" t="n">
         <v>358.2720417115361</v>
@@ -34877,7 +34877,7 @@
         <v>293.5345574968697</v>
       </c>
       <c r="Q4" t="n">
-        <v>128.2829598391535</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34941,10 +34941,10 @@
         <v>556.2278131155941</v>
       </c>
       <c r="L5" t="n">
-        <v>48.74406945557187</v>
+        <v>0</v>
       </c>
       <c r="M5" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="N5" t="n">
         <v>556.2278131155941</v>
@@ -34953,10 +34953,10 @@
         <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>0</v>
+        <v>144.2794790315872</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R5" t="n">
         <v>118.7437726079824</v>
@@ -35014,19 +35014,19 @@
         <v>7.521861577688728</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K6" t="n">
+        <v>0</v>
+      </c>
+      <c r="L6" t="n">
+        <v>0</v>
+      </c>
+      <c r="M6" t="n">
         <v>556.2278131155941</v>
       </c>
-      <c r="L6" t="n">
-        <v>0</v>
-      </c>
-      <c r="M6" t="n">
-        <v>155.2981118204437</v>
-      </c>
       <c r="N6" t="n">
-        <v>0</v>
+        <v>432.5378064344753</v>
       </c>
       <c r="O6" t="n">
         <v>0</v>
@@ -35035,10 +35035,10 @@
         <v>556.2278131155941</v>
       </c>
       <c r="Q6" t="n">
-        <v>468.8338150129084</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>82.84778796434657</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -35093,7 +35093,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>58.07204871127072</v>
+        <v>58.07204871127134</v>
       </c>
       <c r="K7" t="n">
         <v>228.8157587937749</v>
@@ -35175,25 +35175,25 @@
         <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="L8" t="n">
-        <v>415.0101894726381</v>
+        <v>0</v>
       </c>
       <c r="M8" t="n">
         <v>0</v>
       </c>
       <c r="N8" t="n">
-        <v>556.2278131155941</v>
+        <v>510.5455990486533</v>
       </c>
       <c r="O8" t="n">
         <v>556.2278131155941</v>
       </c>
       <c r="P8" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R8" t="n">
         <v>118.7437726079824</v>
@@ -35254,28 +35254,28 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
+        <v>0</v>
+      </c>
+      <c r="L9" t="n">
+        <v>0</v>
+      </c>
+      <c r="M9" t="n">
         <v>556.2278131155941</v>
       </c>
-      <c r="L9" t="n">
-        <v>162.8199733981322</v>
-      </c>
-      <c r="M9" t="n">
-        <v>0</v>
-      </c>
       <c r="N9" t="n">
-        <v>0</v>
+        <v>158.2737632597932</v>
       </c>
       <c r="O9" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="P9" t="n">
         <v>556.2278131155941</v>
       </c>
       <c r="Q9" t="n">
-        <v>468.8338150129084</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>82.84778796434657</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -35409,7 +35409,7 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>357.478879857416</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K11" t="n">
         <v>722.7356646217162</v>
@@ -35424,7 +35424,7 @@
         <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>853.6814647988001</v>
+        <v>726.1504520311679</v>
       </c>
       <c r="P11" t="n">
         <v>715.433615311038</v>
@@ -35433,7 +35433,7 @@
         <v>460.6924035395789</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35485,7 +35485,7 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -35494,16 +35494,16 @@
         <v>596.4494207761006</v>
       </c>
       <c r="L12" t="n">
-        <v>130.1896540801013</v>
+        <v>324.5199828674614</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>1100.318127750374</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>898.4659373853249</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
@@ -35567,7 +35567,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>58.07204871127072</v>
+        <v>58.07204871127393</v>
       </c>
       <c r="K13" t="n">
         <v>228.8157587937749</v>
@@ -35646,25 +35646,25 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K14" t="n">
         <v>722.7356646217162</v>
       </c>
       <c r="L14" t="n">
-        <v>191.6381265752678</v>
+        <v>939.015199615431</v>
       </c>
       <c r="M14" t="n">
         <v>1014.430405473796</v>
       </c>
       <c r="N14" t="n">
-        <v>986.1121802895968</v>
+        <v>587.9026025434059</v>
       </c>
       <c r="O14" t="n">
         <v>853.6814647988001</v>
       </c>
       <c r="P14" t="n">
-        <v>715.433615311038</v>
+        <v>0</v>
       </c>
       <c r="Q14" t="n">
         <v>460.6924035395789</v>
@@ -35725,13 +35725,13 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L15" t="n">
-        <v>845.2513212958648</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
         <v>0</v>
@@ -35740,16 +35740,16 @@
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>258.2738438980865</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>723.4320374126243</v>
+        <v>404.3842704899966</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35883,16 +35883,16 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K17" t="n">
-        <v>0</v>
+        <v>722.7356646217162</v>
       </c>
       <c r="L17" t="n">
         <v>939.015199615431</v>
       </c>
       <c r="M17" t="n">
-        <v>1014.430405473796</v>
+        <v>19.53098502454905</v>
       </c>
       <c r="N17" t="n">
         <v>986.1121802895968</v>
@@ -35907,7 +35907,7 @@
         <v>460.6924035395789</v>
       </c>
       <c r="R17" t="n">
-        <v>94.10236418953542</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35959,13 +35959,13 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
@@ -35974,16 +35974,16 @@
         <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>928.4912652212506</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>898.4659373853249</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>479.7101968766545</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36041,7 +36041,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>58.07204871127072</v>
+        <v>58.07204871127487</v>
       </c>
       <c r="K19" t="n">
         <v>228.8157587937749</v>
@@ -36120,19 +36120,19 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K20" t="n">
         <v>722.7356646217162</v>
       </c>
       <c r="L20" t="n">
-        <v>191.6381265752678</v>
+        <v>939.015199615431</v>
       </c>
       <c r="M20" t="n">
-        <v>1014.430405473796</v>
+        <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>986.1121802895968</v>
+        <v>886.8993927061638</v>
       </c>
       <c r="O20" t="n">
         <v>853.6814647988001</v>
@@ -36196,31 +36196,31 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>845.2513212958648</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>103.2926905936983</v>
       </c>
       <c r="N21" t="n">
         <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>634.6913501810429</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>723.4320374126243</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>468.8338150129084</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36357,7 +36357,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K23" t="n">
         <v>722.7356646217162</v>
@@ -36366,19 +36366,19 @@
         <v>939.015199615431</v>
       </c>
       <c r="M23" t="n">
-        <v>1014.430405473796</v>
+        <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>986.1121802895968</v>
+        <v>886.8993927061638</v>
       </c>
       <c r="O23" t="n">
         <v>853.6814647988001</v>
       </c>
       <c r="P23" t="n">
-        <v>428.7489458104537</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R23" t="n">
         <v>118.7437726079824</v>
@@ -36433,22 +36433,22 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>845.2513212958648</v>
       </c>
       <c r="M24" t="n">
-        <v>1066.653068662672</v>
+        <v>103.2926905936983</v>
       </c>
       <c r="N24" t="n">
-        <v>760.3041339439036</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
         <v>0</v>
@@ -36594,7 +36594,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K26" t="n">
         <v>722.7356646217162</v>
@@ -36603,22 +36603,22 @@
         <v>939.015199615431</v>
       </c>
       <c r="M26" t="n">
-        <v>1014.430405473796</v>
+        <v>0</v>
       </c>
       <c r="N26" t="n">
-        <v>986.1121802895968</v>
+        <v>886.8993927061638</v>
       </c>
       <c r="O26" t="n">
         <v>853.6814647988001</v>
       </c>
       <c r="P26" t="n">
-        <v>547.4927184184359</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36670,7 +36670,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -36679,22 +36679,22 @@
         <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>845.2513212958648</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>974.1840197330221</v>
       </c>
       <c r="N27" t="n">
-        <v>1100.318127750374</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>257.8052598432934</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>468.8338150129084</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36840,7 +36840,7 @@
         <v>939.015199615431</v>
       </c>
       <c r="M29" t="n">
-        <v>1014.430405473796</v>
+        <v>385.7971050416152</v>
       </c>
       <c r="N29" t="n">
         <v>986.1121802895968</v>
@@ -36849,10 +36849,10 @@
         <v>853.6814647988001</v>
       </c>
       <c r="P29" t="n">
-        <v>547.4927184184359</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R29" t="n">
         <v>0</v>
@@ -36907,34 +36907,34 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>726.6390748562019</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>1100.318127750374</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>396.8624089123078</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37068,7 +37068,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K32" t="n">
         <v>722.7356646217162</v>
@@ -37083,13 +37083,13 @@
         <v>986.1121802895968</v>
       </c>
       <c r="O32" t="n">
-        <v>853.6814647988001</v>
+        <v>455.4718870526091</v>
       </c>
       <c r="P32" t="n">
-        <v>428.7489458104537</v>
+        <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R32" t="n">
         <v>118.7437726079824</v>
@@ -37144,7 +37144,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -37159,19 +37159,19 @@
         <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>1100.318127750374</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>726.6390748562018</v>
+        <v>544.3217006390075</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>723.4320374126243</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37308,28 +37308,28 @@
         <v>366.2661200170662</v>
       </c>
       <c r="K35" t="n">
-        <v>0</v>
+        <v>722.7356646217162</v>
       </c>
       <c r="L35" t="n">
         <v>939.015199615431</v>
       </c>
       <c r="M35" t="n">
-        <v>1014.430405473796</v>
+        <v>886.8993927061638</v>
       </c>
       <c r="N35" t="n">
-        <v>986.1121802895968</v>
+        <v>0</v>
       </c>
       <c r="O35" t="n">
         <v>853.6814647988001</v>
       </c>
       <c r="P35" t="n">
-        <v>443.2698594835069</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q35" t="n">
         <v>460.6924035395789</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37381,13 +37381,13 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>7.521861577688728</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>596.4494207761006</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
@@ -37396,19 +37396,19 @@
         <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>324.5199828674599</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>898.4659373853249</v>
+        <v>551.8435622166962</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>723.4320374126243</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37542,7 +37542,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K38" t="n">
         <v>722.7356646217162</v>
@@ -37551,10 +37551,10 @@
         <v>939.015199615431</v>
       </c>
       <c r="M38" t="n">
-        <v>1014.430405473796</v>
+        <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>238.7351072494335</v>
+        <v>886.8993927061638</v>
       </c>
       <c r="O38" t="n">
         <v>853.6814647988001</v>
@@ -37630,19 +37630,19 @@
         <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>1066.653068662672</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
         <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>760.3041339439036</v>
+        <v>898.4659373853249</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>723.4320374126243</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>205.0592278086265</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37788,22 +37788,22 @@
         <v>939.015199615431</v>
       </c>
       <c r="M41" t="n">
-        <v>1014.430405473796</v>
+        <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>986.1121802895968</v>
+        <v>886.8993927061638</v>
       </c>
       <c r="O41" t="n">
         <v>853.6814647988001</v>
       </c>
       <c r="P41" t="n">
-        <v>181.2265984013702</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37861,13 +37861,13 @@
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>596.4494207761006</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>845.2513212958648</v>
+        <v>760.3041339439037</v>
       </c>
       <c r="M42" t="n">
-        <v>385.2564605346102</v>
+        <v>1066.653068662672</v>
       </c>
       <c r="N42" t="n">
         <v>0</v>
@@ -37952,7 +37952,7 @@
         <v>381.3045564404402</v>
       </c>
       <c r="O43" t="n">
-        <v>359.0183117977405</v>
+        <v>359.0183117977436</v>
       </c>
       <c r="P43" t="n">
         <v>293.5345574968697</v>
@@ -38025,22 +38025,22 @@
         <v>939.015199615431</v>
       </c>
       <c r="M44" t="n">
-        <v>1014.430405473796</v>
+        <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>986.1121802895968</v>
+        <v>886.8993927061638</v>
       </c>
       <c r="O44" t="n">
         <v>853.6814647988001</v>
       </c>
       <c r="P44" t="n">
-        <v>181.2265984013702</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38095,16 +38095,16 @@
         <v>7.521861577688728</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K45" t="n">
         <v>596.4494207761006</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>845.2513212958648</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>103.2926905936983</v>
       </c>
       <c r="N45" t="n">
         <v>0</v>
@@ -38113,13 +38113,13 @@
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>671.3043172755312</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>468.8338150129084</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>82.84778796434657</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38186,7 +38186,7 @@
         <v>395.137166636617</v>
       </c>
       <c r="N46" t="n">
-        <v>381.3045564404402</v>
+        <v>381.304556440443</v>
       </c>
       <c r="O46" t="n">
         <v>359.0183117977405</v>
